--- a/model-inference/decisionTree/experiments/gpu_results/airline_classification/airline.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/airline_classification/airline.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\airline_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8C9538-48ED-4D5B-9804-9F7DD3A4111C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11D31CF-6CEC-41FB-B51F-B1D6650AAAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9000" yWindow="5268" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12660" yWindow="1464" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="10 trees" sheetId="1" r:id="rId1"/>
-    <sheet name="500 trees" sheetId="2" r:id="rId2"/>
-    <sheet name="1600 trees" sheetId="3" r:id="rId3"/>
+    <sheet name="10_trees" sheetId="1" r:id="rId1"/>
+    <sheet name="500_trees" sheetId="2" r:id="rId2"/>
+    <sheet name="1600_trees" sheetId="3" r:id="rId3"/>
     <sheet name="final" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -135,6 +135,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,8 +167,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="C79" workbookViewId="0">
-      <selection activeCell="L95" sqref="L95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4606,10 +4610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03253E-0D39-4936-AAA4-0033724B6785}">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4727,11 +4731,11 @@
         <v>65590.7533168792</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM(E3,G3,H3)</f>
+        <f t="shared" ref="K3:K80" si="0">SUM(E3,G3,H3)</f>
         <v>90491.133451461588</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="1">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L80" si="1">PRODUCT(K3,0.001)</f>
         <v>90.491133451461593</v>
       </c>
     </row>
@@ -4817,90 +4821,20 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>32980.075359344402</v>
-      </c>
-      <c r="F6">
-        <v>190.739631652832</v>
-      </c>
-      <c r="G6">
-        <v>139815.36483764599</v>
-      </c>
-      <c r="H6">
-        <v>11910.6209278106</v>
-      </c>
-      <c r="I6">
-        <v>6061.60449981689</v>
-      </c>
-      <c r="J6">
-        <v>157787.670850753</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>184706.061124801</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>184.70606112480101</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1000</v>
-      </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>33040.618419647202</v>
-      </c>
-      <c r="F7">
-        <v>187.19196319580001</v>
-      </c>
-      <c r="G7">
-        <v>32274.376630783001</v>
-      </c>
-      <c r="H7">
-        <v>11502.6135444641</v>
-      </c>
-      <c r="I7">
-        <v>6029.2303562164298</v>
-      </c>
-      <c r="J7">
-        <v>49806.301593780503</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>76817.608594894307</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>76.81760859489431</v>
+        <v>23013804</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B8">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -4909,238 +4843,133 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>32505.8085918426</v>
+        <v>32980.075359344402</v>
       </c>
       <c r="F8">
-        <v>189.03899192809999</v>
+        <v>190.739631652832</v>
       </c>
       <c r="G8">
-        <v>27752.2251605987</v>
+        <v>139815.36483764599</v>
       </c>
       <c r="H8">
-        <v>11603.4042835235</v>
+        <v>11910.6209278106</v>
       </c>
       <c r="I8">
-        <v>6177.5403022766104</v>
+        <v>6061.60449981689</v>
       </c>
       <c r="J8">
-        <v>45533.247470855698</v>
+        <v>157787.670850753</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>71861.438035964806</v>
+        <v>184706.061124801</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>71.86143803596481</v>
+        <v>184.70606112480101</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>32906.521320343003</v>
+        <v>33040.618419647202</v>
       </c>
       <c r="F9">
-        <v>186.37776374816801</v>
+        <v>187.19196319580001</v>
       </c>
       <c r="G9">
-        <v>160190.45996665899</v>
+        <v>32274.376630783001</v>
       </c>
       <c r="H9">
-        <v>12238.6767864227</v>
+        <v>11502.6135444641</v>
       </c>
       <c r="I9">
-        <v>9480.0884723663294</v>
+        <v>6029.2303562164298</v>
       </c>
       <c r="J9">
-        <v>181909.29388999901</v>
+        <v>49806.301593780503</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>205335.65807342468</v>
+        <v>76817.608594894307</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>205.3356580734247</v>
+        <v>76.81760859489431</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>32572.648763656602</v>
+        <v>32505.8085918426</v>
       </c>
       <c r="F10">
-        <v>185.62173843383701</v>
+        <v>189.03899192809999</v>
       </c>
       <c r="G10">
-        <v>114303.226709365</v>
+        <v>27752.2251605987</v>
       </c>
       <c r="H10">
-        <v>11493.7829971313</v>
+        <v>11603.4042835235</v>
       </c>
       <c r="I10">
-        <v>6411.9184017181396</v>
+        <v>6177.5403022766104</v>
       </c>
       <c r="J10">
-        <v>132208.994626998</v>
+        <v>45533.247470855698</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>158369.65847015288</v>
+        <v>71861.438035964806</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>158.36965847015287</v>
+        <v>71.86143803596481</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10000</v>
-      </c>
-      <c r="B11">
-        <v>10000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>32780.8742523193</v>
-      </c>
-      <c r="F11">
-        <v>190.40751457214299</v>
-      </c>
-      <c r="G11">
-        <v>101361.191034317</v>
-      </c>
-      <c r="H11">
-        <v>11485.814094543401</v>
-      </c>
-      <c r="I11">
-        <v>6548.3059883117603</v>
-      </c>
-      <c r="J11">
-        <v>119395.375728607</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>145627.87938117969</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>145.6278793811797</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>100000</v>
-      </c>
-      <c r="B12">
-        <v>100000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>31522.320747375401</v>
-      </c>
-      <c r="F12">
-        <v>187.89100646972599</v>
-      </c>
-      <c r="G12">
-        <v>100449.57804679799</v>
-      </c>
-      <c r="H12">
-        <v>11333.443641662499</v>
-      </c>
-      <c r="I12">
-        <v>6707.9505920410102</v>
-      </c>
-      <c r="J12">
-        <v>118491.03617668099</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>143305.34243583589</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>143.30534243583588</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1000000</v>
-      </c>
-      <c r="B13">
-        <v>1000000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>32294.696807861299</v>
-      </c>
-      <c r="F13">
-        <v>188.60054016113199</v>
-      </c>
-      <c r="G13">
-        <v>109056.332826614</v>
-      </c>
-      <c r="H13">
-        <v>11296.9262599945</v>
-      </c>
-      <c r="I13">
-        <v>8208.2674503326398</v>
-      </c>
-      <c r="J13">
-        <v>128561.59210205</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>152647.95589446981</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>152.64795589446982</v>
+        <v>23013804</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>23013804</v>
+        <v>100</v>
       </c>
       <c r="B14">
-        <v>23013804</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -5149,230 +4978,230 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>32005.260467529199</v>
+        <v>32906.521320343003</v>
       </c>
       <c r="F14">
-        <v>187.36433982849101</v>
+        <v>186.37776374816801</v>
       </c>
       <c r="G14">
-        <v>107057.235240936</v>
+        <v>160190.45996665899</v>
       </c>
       <c r="H14">
-        <v>11324.640750885001</v>
+        <v>12238.6767864227</v>
       </c>
       <c r="I14">
-        <v>6672.2884178161603</v>
+        <v>9480.0884723663294</v>
       </c>
       <c r="J14">
-        <v>125054.23521995499</v>
+        <v>181909.29388999901</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>150387.13645935021</v>
+        <v>205335.65807342468</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>150.38713645935022</v>
+        <v>205.3356580734247</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>32256.860971450798</v>
+        <v>32572.648763656602</v>
       </c>
       <c r="F15">
-        <v>185.98389625549299</v>
+        <v>185.62173843383701</v>
       </c>
       <c r="G15">
-        <v>75724.749803543004</v>
+        <v>114303.226709365</v>
       </c>
       <c r="H15">
-        <v>11536.9124412536</v>
+        <v>11493.7829971313</v>
       </c>
       <c r="I15">
-        <v>35652.878046035701</v>
+        <v>6411.9184017181396</v>
       </c>
       <c r="J15">
-        <v>122914.630174636</v>
+        <v>132208.994626998</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>119518.52321624741</v>
+        <v>158369.65847015288</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>119.51852321624742</v>
+        <v>158.36965847015287</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>32376.7895698547</v>
+        <v>32780.8742523193</v>
       </c>
       <c r="F16">
-        <v>188.61675262451101</v>
+        <v>190.40751457214299</v>
       </c>
       <c r="G16">
-        <v>13525.419473648</v>
+        <v>101361.191034317</v>
       </c>
       <c r="H16">
-        <v>11553.739070892299</v>
+        <v>11485.814094543401</v>
       </c>
       <c r="I16">
-        <v>30862.907886505101</v>
+        <v>6548.3059883117603</v>
       </c>
       <c r="J16">
-        <v>55942.156314849803</v>
+        <v>119395.375728607</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>57455.948114394996</v>
+        <v>145627.87938117969</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>57.455948114394999</v>
+        <v>145.6278793811797</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B17">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>32600.973367691</v>
+        <v>31522.320747375401</v>
       </c>
       <c r="F17">
-        <v>188.938617706298</v>
+        <v>187.89100646972599</v>
       </c>
       <c r="G17">
-        <v>9117.9459095001203</v>
+        <v>100449.57804679799</v>
       </c>
       <c r="H17">
-        <v>11732.977390289299</v>
+        <v>11333.443641662499</v>
       </c>
       <c r="I17">
-        <v>34098.870992660501</v>
+        <v>6707.9505920410102</v>
       </c>
       <c r="J17">
-        <v>54949.880361557</v>
+        <v>118491.03617668099</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>53451.896667480418</v>
+        <v>143305.34243583589</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>53.451896667480419</v>
+        <v>143.30534243583588</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="B18">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>32719.293594360301</v>
+        <v>32294.696807861299</v>
       </c>
       <c r="F18">
-        <v>186.55967712402301</v>
+        <v>188.60054016113199</v>
       </c>
       <c r="G18">
-        <v>8865.3090000152497</v>
+        <v>109056.332826614</v>
       </c>
       <c r="H18">
-        <v>12400.082111358601</v>
+        <v>11296.9262599945</v>
       </c>
       <c r="I18">
-        <v>63738.247156143101</v>
+        <v>8208.2674503326398</v>
       </c>
       <c r="J18">
-        <v>85003.730297088594</v>
+        <v>128561.59210205</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>53984.684705734151</v>
+        <v>152647.95589446981</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>53.984684705734153</v>
+        <v>152.64795589446982</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1000000</v>
+        <v>23013804</v>
       </c>
       <c r="B19">
-        <v>1000000</v>
+        <v>23013804</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>33164.929628372098</v>
+        <v>32005.260467529199</v>
       </c>
       <c r="F19">
-        <v>189.448356628417</v>
+        <v>187.36433982849101</v>
       </c>
       <c r="G19">
-        <v>9154.1278362274097</v>
+        <v>107057.235240936</v>
       </c>
       <c r="H19">
-        <v>12305.363655090299</v>
+        <v>11324.640750885001</v>
       </c>
       <c r="I19">
-        <v>311477.59246826102</v>
+        <v>6672.2884178161603</v>
       </c>
       <c r="J19">
-        <v>332937.17670440598</v>
+        <v>125054.23521995499</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>54624.42111968981</v>
+        <v>150387.13645935021</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>54.624421119689814</v>
+        <v>150.38713645935022</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -5386,33 +5215,33 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>32208.490610122601</v>
+        <v>32256.860971450798</v>
       </c>
       <c r="F20">
-        <v>188.73286247253401</v>
+        <v>185.98389625549299</v>
       </c>
       <c r="G20">
-        <v>123735.51821708601</v>
+        <v>75724.749803543004</v>
       </c>
       <c r="H20">
-        <v>5663.0718708038303</v>
+        <v>11536.9124412536</v>
       </c>
       <c r="I20">
-        <v>6886.7318630218497</v>
+        <v>35652.878046035701</v>
       </c>
       <c r="J20">
-        <v>136285.401344299</v>
+        <v>122914.630174636</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>161607.08069801243</v>
+        <v>119518.52321624741</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>161.60708069801242</v>
+        <v>119.51852321624742</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -5426,33 +5255,33 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>31665.585994720401</v>
+        <v>32376.7895698547</v>
       </c>
       <c r="F21">
-        <v>188.458442687988</v>
+        <v>188.61675262451101</v>
       </c>
       <c r="G21">
-        <v>20888.746738433802</v>
+        <v>13525.419473648</v>
       </c>
       <c r="H21">
-        <v>8551.3620376586896</v>
+        <v>11553.739070892299</v>
       </c>
       <c r="I21">
-        <v>2610.92066764831</v>
+        <v>30862.907886505101</v>
       </c>
       <c r="J21">
-        <v>32051.114797592101</v>
+        <v>55942.156314849803</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>61105.694770812894</v>
+        <v>57455.948114394996</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>61.105694770812896</v>
+        <v>57.455948114394999</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -5466,33 +5295,33 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>31838.5660648345</v>
+        <v>32600.973367691</v>
       </c>
       <c r="F22">
-        <v>187.06345558166501</v>
+        <v>188.938617706298</v>
       </c>
       <c r="G22">
-        <v>7563.78078460693</v>
+        <v>9117.9459095001203</v>
       </c>
       <c r="H22">
-        <v>5716.1917686462402</v>
+        <v>11732.977390289299</v>
       </c>
       <c r="I22">
-        <v>2576.8899917602498</v>
+        <v>34098.870992660501</v>
       </c>
       <c r="J22">
-        <v>15856.9374084472</v>
+        <v>54949.880361557</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>45118.538618087667</v>
+        <v>53451.896667480418</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>45.118538618087669</v>
+        <v>53.451896667480419</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -5506,33 +5335,33 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23">
-        <v>32877.630949020298</v>
+        <v>32719.293594360301</v>
       </c>
       <c r="F23">
-        <v>192.06929206848099</v>
+        <v>186.55967712402301</v>
       </c>
       <c r="G23">
-        <v>7183.4409236907904</v>
+        <v>8865.3090000152497</v>
       </c>
       <c r="H23">
-        <v>5728.9228439331</v>
+        <v>12400.082111358601</v>
       </c>
       <c r="I23">
-        <v>2561.1286163330001</v>
+        <v>63738.247156143101</v>
       </c>
       <c r="J23">
-        <v>15473.5677242279</v>
+        <v>85003.730297088594</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>45789.994716644185</v>
+        <v>53984.684705734151</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>45.789994716644188</v>
+        <v>53.984684705734153</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -5546,74 +5375,39 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>32760.135889053301</v>
+        <v>33164.929628372098</v>
       </c>
       <c r="F24">
-        <v>187.54100799560501</v>
+        <v>189.448356628417</v>
       </c>
       <c r="G24">
-        <v>7928.2851219177201</v>
+        <v>9154.1278362274097</v>
       </c>
       <c r="H24">
-        <v>5750.8440017700104</v>
+        <v>12305.363655090299</v>
       </c>
       <c r="I24">
-        <v>2618.3533668517998</v>
+        <v>311477.59246826102</v>
       </c>
       <c r="J24">
-        <v>16297.567129135099</v>
+        <v>332937.17670440598</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>46439.265012741031</v>
+        <v>54624.42111968981</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>46.439265012741032</v>
+        <v>54.624421119689814</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23013804</v>
       </c>
-      <c r="B25">
-        <v>23013804</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <v>32973.2930660247</v>
-      </c>
-      <c r="F25">
-        <v>185.66918373107899</v>
-      </c>
-      <c r="G25">
-        <v>9445.4412460327094</v>
-      </c>
-      <c r="H25">
-        <v>5857.07640647888</v>
-      </c>
-      <c r="I25">
-        <v>2559.96704101562</v>
-      </c>
-      <c r="J25">
-        <v>17862.984180450399</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>48275.81071853629</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>48.275810718536292</v>
-      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -5623,36 +5417,36 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>32468.543767929001</v>
+        <v>32208.490610122601</v>
       </c>
       <c r="F26">
-        <v>291.475534439086</v>
+        <v>188.73286247253401</v>
       </c>
       <c r="G26">
-        <v>224174.72815513599</v>
+        <v>123735.51821708601</v>
       </c>
       <c r="H26">
-        <v>11499.4812011718</v>
+        <v>5663.0718708038303</v>
       </c>
       <c r="I26">
-        <v>27344.886064529401</v>
+        <v>6886.7318630218497</v>
       </c>
       <c r="J26">
-        <v>263019.17433738703</v>
+        <v>136285.401344299</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>268142.75312423677</v>
+        <v>161607.08069801243</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>268.14275312423678</v>
+        <v>161.60708069801242</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -5663,36 +5457,36 @@
         <v>1000</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>32796.403408050501</v>
+        <v>31665.585994720401</v>
       </c>
       <c r="F27">
-        <v>252.84719467163001</v>
+        <v>188.458442687988</v>
       </c>
       <c r="G27">
-        <v>47008.8791847229</v>
+        <v>20888.746738433802</v>
       </c>
       <c r="H27">
-        <v>11742.2540187835</v>
+        <v>8551.3620376586896</v>
       </c>
       <c r="I27">
-        <v>27634.898424148501</v>
+        <v>2610.92066764831</v>
       </c>
       <c r="J27">
-        <v>86386.102914810093</v>
+        <v>32051.114797592101</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>91547.536611556905</v>
+        <v>61105.694770812894</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>91.547536611556907</v>
+        <v>61.105694770812896</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -5703,36 +5497,36 @@
         <v>10000</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>32402.760982513399</v>
+        <v>31838.5660648345</v>
       </c>
       <c r="F28">
-        <v>251.79266929626399</v>
+        <v>187.06345558166501</v>
       </c>
       <c r="G28">
-        <v>42744.201183318997</v>
+        <v>7563.78078460693</v>
       </c>
       <c r="H28">
-        <v>12254.188299179001</v>
+        <v>5716.1917686462402</v>
       </c>
       <c r="I28">
-        <v>27942.3432350158</v>
+        <v>2576.8899917602498</v>
       </c>
       <c r="J28">
-        <v>82940.807580947803</v>
+        <v>15856.9374084472</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>87401.150465011408</v>
+        <v>45118.538618087667</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>87.401150465011412</v>
+        <v>45.118538618087669</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -5743,596 +5537,421 @@
         <v>100000</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>31930.700302124002</v>
+        <v>32877.630949020298</v>
       </c>
       <c r="F29">
-        <v>254.651069641113</v>
+        <v>192.06929206848099</v>
       </c>
       <c r="G29">
-        <v>42181.621313094998</v>
+        <v>7183.4409236907904</v>
       </c>
       <c r="H29">
-        <v>11643.562078475899</v>
+        <v>5728.9228439331</v>
       </c>
       <c r="I29">
-        <v>27685.774564742998</v>
+        <v>2561.1286163330001</v>
       </c>
       <c r="J29">
-        <v>81511.037588119507</v>
+        <v>15473.5677242279</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>85755.883693694894</v>
+        <v>45789.994716644185</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>85.755883693694898</v>
+        <v>45.789994716644188</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30">
-        <v>32344.415187835599</v>
+        <v>32760.135889053301</v>
       </c>
       <c r="F30">
-        <v>252.70462036132801</v>
+        <v>187.54100799560501</v>
       </c>
       <c r="G30">
-        <v>143746.70600891099</v>
+        <v>7928.2851219177201</v>
       </c>
       <c r="H30">
-        <v>12089.218139648399</v>
+        <v>5750.8440017700104</v>
       </c>
       <c r="I30">
-        <v>27250.6208419799</v>
+        <v>2618.3533668517998</v>
       </c>
       <c r="J30">
-        <v>183086.62796020499</v>
+        <v>16297.567129135099</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>188180.339336395</v>
+        <v>46439.265012741031</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>188.18033933639501</v>
+        <v>46.439265012741032</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1000</v>
+        <v>23013804</v>
       </c>
       <c r="B31">
-        <v>1000</v>
+        <v>23013804</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>32688.246488571102</v>
+        <v>32973.2930660247</v>
       </c>
       <c r="F31">
-        <v>250.57363510131799</v>
+        <v>185.66918373107899</v>
       </c>
       <c r="G31">
-        <v>32363.438129425002</v>
+        <v>9445.4412460327094</v>
       </c>
       <c r="H31">
-        <v>11677.1168708801</v>
+        <v>5857.07640647888</v>
       </c>
       <c r="I31">
-        <v>27488.0809783935</v>
+        <v>2559.96704101562</v>
       </c>
       <c r="J31">
-        <v>71528.706312179507</v>
+        <v>17862.984180450399</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>76728.801488876197</v>
+        <v>48275.81071853629</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>76.728801488876201</v>
+        <v>48.275810718536292</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B32">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>32965.213060378999</v>
+        <v>32468.543767929001</v>
       </c>
       <c r="F32">
-        <v>257.04002380371003</v>
+        <v>291.475534439086</v>
       </c>
       <c r="G32">
-        <v>27644.911289215001</v>
+        <v>224174.72815513599</v>
       </c>
       <c r="H32">
-        <v>11839.5020961761</v>
+        <v>11499.4812011718</v>
       </c>
       <c r="I32">
-        <v>26979.818105697599</v>
+        <v>27344.886064529401</v>
       </c>
       <c r="J32">
-        <v>66464.303493499698</v>
+        <v>263019.17433738703</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>72449.626445770104</v>
+        <v>268142.75312423677</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>72.449626445770107</v>
+        <v>268.14275312423678</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>31661.815881729101</v>
+        <v>32796.403408050501</v>
       </c>
       <c r="F33">
-        <v>251.56903266906701</v>
+        <v>252.84719467163001</v>
       </c>
       <c r="G33">
-        <v>142119.08125877299</v>
+        <v>47008.8791847229</v>
       </c>
       <c r="H33">
-        <v>11466.4146900177</v>
+        <v>11742.2540187835</v>
       </c>
       <c r="I33">
-        <v>5888.4401321411096</v>
+        <v>27634.898424148501</v>
       </c>
       <c r="J33">
-        <v>159474.02167320199</v>
+        <v>86386.102914810093</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>185247.31183051979</v>
+        <v>91547.536611556905</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>185.24731183051978</v>
+        <v>91.547536611556907</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B34">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>32213.915586471499</v>
+        <v>32402.760982513399</v>
       </c>
       <c r="F34">
-        <v>260.11824607849098</v>
+        <v>251.79266929626399</v>
       </c>
       <c r="G34">
-        <v>111944.051265716</v>
+        <v>42744.201183318997</v>
       </c>
       <c r="H34">
-        <v>11548.487663268999</v>
+        <v>12254.188299179001</v>
       </c>
       <c r="I34">
-        <v>11671.8440055847</v>
+        <v>27942.3432350158</v>
       </c>
       <c r="J34">
-        <v>135164.44563865601</v>
+        <v>82940.807580947803</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>155706.45451545651</v>
+        <v>87401.150465011408</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>155.70645451545653</v>
+        <v>87.401150465011412</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B35">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>31981.171369552601</v>
+        <v>31930.700302124002</v>
       </c>
       <c r="F35">
-        <v>260.133028030395</v>
+        <v>254.651069641113</v>
       </c>
       <c r="G35">
-        <v>101549.07798767</v>
+        <v>42181.621313094998</v>
       </c>
       <c r="H35">
-        <v>11543.215036392199</v>
+        <v>11643.562078475899</v>
       </c>
       <c r="I35">
-        <v>5358.9799404144196</v>
+        <v>27685.774564742998</v>
       </c>
       <c r="J35">
-        <v>118451.33876800499</v>
+        <v>81511.037588119507</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>145073.46439361482</v>
+        <v>85755.883693694894</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>145.07346439361481</v>
+        <v>85.755883693694898</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>100000</v>
-      </c>
-      <c r="B36">
-        <v>100000</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36">
-        <v>31770.209789276101</v>
-      </c>
-      <c r="F36">
-        <v>261.58785820007301</v>
-      </c>
-      <c r="G36">
-        <v>97294.793844222993</v>
-      </c>
-      <c r="H36">
-        <v>11301.617145538299</v>
-      </c>
-      <c r="I36">
-        <v>7638.2224559783899</v>
-      </c>
-      <c r="J36">
-        <v>116234.69543457001</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="0"/>
-        <v>140366.62077903739</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="1"/>
-        <v>140.36662077903739</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1000000</v>
-      </c>
-      <c r="B37">
-        <v>1000000</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>31756.512403488101</v>
-      </c>
-      <c r="F37">
-        <v>259.19413566589299</v>
-      </c>
-      <c r="G37">
-        <v>101863.696098327</v>
-      </c>
-      <c r="H37">
-        <v>11369.6453571319</v>
-      </c>
-      <c r="I37">
-        <v>5893.1043148040699</v>
-      </c>
-      <c r="J37">
-        <v>119126.50704383801</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="0"/>
-        <v>144989.853858947</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="1"/>
-        <v>144.98985385894699</v>
+        <v>23013804</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>23013804</v>
+        <v>100</v>
       </c>
       <c r="B38">
-        <v>23013804</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>31884.1218948364</v>
+        <v>32344.415187835599</v>
       </c>
       <c r="F38">
-        <v>257.078409194946</v>
+        <v>252.70462036132801</v>
       </c>
       <c r="G38">
-        <v>101980.86977005001</v>
+        <v>143746.70600891099</v>
       </c>
       <c r="H38">
-        <v>11929.9006462097</v>
+        <v>12089.218139648399</v>
       </c>
       <c r="I38">
-        <v>6024.5242118835404</v>
+        <v>27250.6208419799</v>
       </c>
       <c r="J38">
-        <v>119935.876846313</v>
+        <v>183086.62796020499</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>145794.8923110961</v>
+        <v>188180.339336395</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>145.79489231109611</v>
+        <v>188.18033933639501</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B39">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>31526.932954788201</v>
+        <v>32688.246488571102</v>
       </c>
       <c r="F39">
-        <v>258.96000862121502</v>
+        <v>250.57363510131799</v>
       </c>
       <c r="G39">
-        <v>76542.120456695498</v>
+        <v>32363.438129425002</v>
       </c>
       <c r="H39">
-        <v>11840.5215740203</v>
+        <v>11677.1168708801</v>
       </c>
       <c r="I39">
-        <v>75645.446538925098</v>
+        <v>27488.0809783935</v>
       </c>
       <c r="J39">
-        <v>164028.17249298</v>
+        <v>71528.706312179507</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>119909.574985504</v>
+        <v>76728.801488876197</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>119.90957498550401</v>
+        <v>76.728801488876201</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B40">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>31803.975820541302</v>
+        <v>32965.213060378999</v>
       </c>
       <c r="F40">
-        <v>256.369590759277</v>
+        <v>257.04002380371003</v>
       </c>
       <c r="G40">
-        <v>13020.1926231384</v>
+        <v>27644.911289215001</v>
       </c>
       <c r="H40">
-        <v>11694.586515426599</v>
+        <v>11839.5020961761</v>
       </c>
       <c r="I40">
-        <v>73642.801523208604</v>
+        <v>26979.818105697599</v>
       </c>
       <c r="J40">
-        <v>98357.667684554996</v>
+        <v>66464.303493499698</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>56518.7549591063</v>
+        <v>72449.626445770104</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>56.518754959106303</v>
+        <v>72.449626445770107</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>10000</v>
-      </c>
-      <c r="B41">
-        <v>10000</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41">
-        <v>32279.828310012799</v>
-      </c>
-      <c r="F41">
-        <v>257.984399795532</v>
-      </c>
-      <c r="G41">
-        <v>8760.9224319458008</v>
-      </c>
-      <c r="H41">
-        <v>11903.469085693299</v>
-      </c>
-      <c r="I41">
-        <v>75965.487480163501</v>
-      </c>
-      <c r="J41">
-        <v>96629.971265792803</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="0"/>
-        <v>52944.219827651905</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="1"/>
-        <v>52.944219827651906</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>100000</v>
-      </c>
-      <c r="B42">
-        <v>100000</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42">
-        <v>32589.708805084199</v>
-      </c>
-      <c r="F42">
-        <v>256.17074966430602</v>
-      </c>
-      <c r="G42">
-        <v>8229.6619415283203</v>
-      </c>
-      <c r="H42">
-        <v>12564.945936202999</v>
-      </c>
-      <c r="I42">
-        <v>106168.90668869</v>
-      </c>
-      <c r="J42">
-        <v>126963.623523712</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="0"/>
-        <v>53384.316682815523</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="1"/>
-        <v>53.384316682815523</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1000000</v>
-      </c>
-      <c r="B43">
-        <v>1000000</v>
-      </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43">
-        <v>32462.335586547801</v>
-      </c>
-      <c r="F43">
-        <v>260.02335548400799</v>
-      </c>
-      <c r="G43">
-        <v>8635.6070041656494</v>
-      </c>
-      <c r="H43">
-        <v>11681.5557479858</v>
-      </c>
-      <c r="I43">
-        <v>352860.12530326803</v>
-      </c>
-      <c r="J43">
-        <v>373177.37889289798</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="0"/>
-        <v>52779.498338699254</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="1"/>
-        <v>52.779498338699256</v>
+        <v>23013804</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -6346,33 +5965,33 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E44">
-        <v>32707.053661346399</v>
+        <v>31661.815881729101</v>
       </c>
       <c r="F44">
-        <v>251.892566680908</v>
+        <v>251.56903266906701</v>
       </c>
       <c r="G44">
-        <v>117105.55696487401</v>
+        <v>142119.08125877299</v>
       </c>
       <c r="H44">
-        <v>7263.4243965148898</v>
+        <v>11466.4146900177</v>
       </c>
       <c r="I44">
-        <v>2766.8833732604899</v>
+        <v>5888.4401321411096</v>
       </c>
       <c r="J44">
-        <v>127135.94174384999</v>
+        <v>159474.02167320199</v>
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>157076.0350227353</v>
+        <v>185247.31183051979</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>157.07603502273531</v>
+        <v>185.24731183051978</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -6386,33 +6005,33 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45">
-        <v>32332.315444946202</v>
+        <v>32213.915586471499</v>
       </c>
       <c r="F45">
-        <v>258.31341743469198</v>
+        <v>260.11824607849098</v>
       </c>
       <c r="G45">
-        <v>23497.359991073601</v>
+        <v>111944.051265716</v>
       </c>
       <c r="H45">
-        <v>6074.8224258422797</v>
+        <v>11548.487663268999</v>
       </c>
       <c r="I45">
-        <v>2682.6713085174501</v>
+        <v>11671.8440055847</v>
       </c>
       <c r="J45">
-        <v>32254.9345493316</v>
+        <v>135164.44563865601</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>61904.497861862081</v>
+        <v>155706.45451545651</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>61.904497861862083</v>
+        <v>155.70645451545653</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -6426,33 +6045,33 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E46">
-        <v>32645.192384719801</v>
+        <v>31981.171369552601</v>
       </c>
       <c r="F46">
-        <v>261.11841201782198</v>
+        <v>260.133028030395</v>
       </c>
       <c r="G46">
-        <v>5630.2781105041504</v>
+        <v>101549.07798767</v>
       </c>
       <c r="H46">
-        <v>6154.1490554809498</v>
+        <v>11543.215036392199</v>
       </c>
       <c r="I46">
-        <v>2749.7580051422101</v>
+        <v>5358.9799404144196</v>
       </c>
       <c r="J46">
-        <v>14534.264087677</v>
+        <v>118451.33876800499</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>44429.619550704905</v>
+        <v>145073.46439361482</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>44.429619550704906</v>
+        <v>145.07346439361481</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -6466,33 +6085,33 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E47">
-        <v>33130.613088607701</v>
+        <v>31770.209789276101</v>
       </c>
       <c r="F47">
-        <v>258.49580764770502</v>
+        <v>261.58785820007301</v>
       </c>
       <c r="G47">
-        <v>4463.0172252655002</v>
+        <v>97294.793844222993</v>
       </c>
       <c r="H47">
-        <v>6771.5418338775598</v>
+        <v>11301.617145538299</v>
       </c>
       <c r="I47">
-        <v>2702.2874355316098</v>
+        <v>7638.2224559783899</v>
       </c>
       <c r="J47">
-        <v>13936.925172805701</v>
+        <v>116234.69543457001</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>44365.172147750767</v>
+        <v>140366.62077903739</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>44.365172147750769</v>
+        <v>140.36662077903739</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -6506,33 +6125,33 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E48">
-        <v>32401.635646819999</v>
+        <v>31756.512403488101</v>
       </c>
       <c r="F48">
-        <v>257.07101821899403</v>
+        <v>259.19413566589299</v>
       </c>
       <c r="G48">
-        <v>4623.3696937560999</v>
+        <v>101863.696098327</v>
       </c>
       <c r="H48">
-        <v>6107.4311733245804</v>
+        <v>11369.6453571319</v>
       </c>
       <c r="I48">
-        <v>2693.1331157684299</v>
+        <v>5893.1043148040699</v>
       </c>
       <c r="J48">
-        <v>13424.016475677399</v>
+        <v>119126.50704383801</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>43132.436513900677</v>
+        <v>144989.853858947</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>43.132436513900679</v>
+        <v>144.98985385894699</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -6546,33 +6165,33 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>31945.106267929001</v>
+        <v>31884.1218948364</v>
       </c>
       <c r="F49">
-        <v>258.55779647827097</v>
+        <v>257.078409194946</v>
       </c>
       <c r="G49">
-        <v>4960.6368541717502</v>
+        <v>101980.86977005001</v>
       </c>
       <c r="H49">
-        <v>6334.6114158630298</v>
+        <v>11929.9006462097</v>
       </c>
       <c r="I49">
-        <v>2685.53686141967</v>
+        <v>6024.5242118835404</v>
       </c>
       <c r="J49">
-        <v>13981.145858764599</v>
+        <v>119935.876846313</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>43240.35453796378</v>
+        <v>145794.8923110961</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>43.240354537963782</v>
+        <v>145.79489231109611</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -6586,33 +6205,33 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E50">
-        <v>32581.169605255101</v>
+        <v>31526.932954788201</v>
       </c>
       <c r="F50">
-        <v>256.11639022827097</v>
+        <v>258.96000862121502</v>
       </c>
       <c r="G50">
-        <v>2641031.29339218</v>
+        <v>76542.120456695498</v>
       </c>
       <c r="H50">
-        <v>12344.009399414001</v>
+        <v>11840.5215740203</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>75645.446538925098</v>
       </c>
       <c r="J50">
-        <v>2653377.2778511001</v>
+        <v>164028.17249298</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>2685956.4723968492</v>
+        <v>119909.574985504</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>2685.9564723968492</v>
+        <v>119.90957498550401</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -6626,33 +6245,33 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>32490.3743267059</v>
+        <v>31803.975820541302</v>
       </c>
       <c r="F51">
-        <v>256.88219070434502</v>
+        <v>256.369590759277</v>
       </c>
       <c r="G51">
-        <v>271423.08902740403</v>
+        <v>13020.1926231384</v>
       </c>
       <c r="H51">
-        <v>12293.0791378021</v>
+        <v>11694.586515426599</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>73642.801523208604</v>
       </c>
       <c r="J51">
-        <v>283718.06764602597</v>
+        <v>98357.667684554996</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>316206.54249191203</v>
+        <v>56518.7549591063</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>316.20654249191205</v>
+        <v>56.518754959106303</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -6666,33 +6285,33 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>32424.805402755701</v>
+        <v>32279.828310012799</v>
       </c>
       <c r="F52">
-        <v>258.878946304321</v>
+        <v>257.984399795532</v>
       </c>
       <c r="G52">
-        <v>33379.5619010925</v>
+        <v>8760.9224319458008</v>
       </c>
       <c r="H52">
-        <v>11446.746110916099</v>
+        <v>11903.469085693299</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>75965.487480163501</v>
       </c>
       <c r="J52">
-        <v>44828.304767608599</v>
+        <v>96629.971265792803</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>77251.113414764302</v>
+        <v>52944.219827651905</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>77.251113414764305</v>
+        <v>52.944219827651906</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -6706,33 +6325,33 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>32671.350717544501</v>
+        <v>32589.708805084199</v>
       </c>
       <c r="F53">
-        <v>257.98249244689902</v>
+        <v>256.17074966430602</v>
       </c>
       <c r="G53">
-        <v>12478.3322811126</v>
+        <v>8229.6619415283203</v>
       </c>
       <c r="H53">
-        <v>11783.4525108337</v>
+        <v>12564.945936202999</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>106168.90668869</v>
       </c>
       <c r="J53">
-        <v>24263.696908950798</v>
+        <v>126963.623523712</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>56933.135509490807</v>
+        <v>53384.316682815523</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>56.93313550949081</v>
+        <v>53.384316682815523</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -6746,74 +6365,39 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E54">
-        <v>32547.499418258602</v>
+        <v>32462.335586547801</v>
       </c>
       <c r="F54">
-        <v>255.76448440551701</v>
+        <v>260.02335548400799</v>
       </c>
       <c r="G54">
-        <v>11544.785022735499</v>
+        <v>8635.6070041656494</v>
       </c>
       <c r="H54">
-        <v>11616.8501377105</v>
+        <v>11681.5557479858</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>352860.12530326803</v>
       </c>
       <c r="J54">
-        <v>23163.558483123699</v>
+        <v>373177.37889289798</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>55709.134578704601</v>
+        <v>52779.498338699254</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>55.7091345787046</v>
+        <v>52.779498338699256</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>23013804</v>
       </c>
-      <c r="B55">
-        <v>23013804</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55">
-        <v>33583.625793457002</v>
-      </c>
-      <c r="F55">
-        <v>257.32588768005297</v>
-      </c>
-      <c r="G55">
-        <v>11206.006288528401</v>
-      </c>
-      <c r="H55">
-        <v>11708.7025642395</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>22916.711091995199</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="0"/>
-        <v>56498.334646224903</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="1"/>
-        <v>56.498334646224905</v>
-      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -6826,33 +6410,33 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>32899.832963943401</v>
+        <v>32707.053661346399</v>
       </c>
       <c r="F56">
-        <v>284.88254547119101</v>
+        <v>251.892566680908</v>
       </c>
       <c r="G56">
-        <v>2697656.4548015501</v>
+        <v>117105.55696487401</v>
       </c>
       <c r="H56">
-        <v>11632.0347785949</v>
+        <v>7263.4243965148898</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2766.8833732604899</v>
       </c>
       <c r="J56">
-        <v>2709290.5011176998</v>
+        <v>127135.94174384999</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>2742188.3225440886</v>
+        <v>157076.0350227353</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>2742.1883225440888</v>
+        <v>157.07603502273531</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -6866,33 +6450,33 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E57">
-        <v>32345.9506034851</v>
+        <v>32332.315444946202</v>
       </c>
       <c r="F57">
-        <v>251.676321029663</v>
+        <v>258.31341743469198</v>
       </c>
       <c r="G57">
-        <v>270719.73800659098</v>
+        <v>23497.359991073601</v>
       </c>
       <c r="H57">
-        <v>11961.122989654499</v>
+        <v>6074.8224258422797</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2682.6713085174501</v>
       </c>
       <c r="J57">
-        <v>282682.777166366</v>
+        <v>32254.9345493316</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>315026.81159973057</v>
+        <v>61904.497861862081</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>315.02681159973059</v>
+        <v>61.904497861862083</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -6906,33 +6490,33 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>31437.1650218963</v>
+        <v>32645.192384719801</v>
       </c>
       <c r="F58">
-        <v>251.07383728027301</v>
+        <v>261.11841201782198</v>
       </c>
       <c r="G58">
-        <v>31705.704212188699</v>
+        <v>5630.2781105041504</v>
       </c>
       <c r="H58">
-        <v>11383.429765701199</v>
+        <v>6154.1490554809498</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2749.7580051422101</v>
       </c>
       <c r="J58">
-        <v>43091.085195541302</v>
+        <v>14534.264087677</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>74526.298999786202</v>
+        <v>44429.619550704905</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>74.526298999786206</v>
+        <v>44.429619550704906</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -6946,33 +6530,33 @@
         <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>31894.981861114498</v>
+        <v>33130.613088607701</v>
       </c>
       <c r="F59">
-        <v>249.50361251831001</v>
+        <v>258.49580764770502</v>
       </c>
       <c r="G59">
-        <v>10071.088075637799</v>
+        <v>4463.0172252655002</v>
       </c>
       <c r="H59">
-        <v>11312.652349472</v>
+        <v>6771.5418338775598</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2702.2874355316098</v>
       </c>
       <c r="J59">
-        <v>21385.6880664825</v>
+        <v>13936.925172805701</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>53278.7222862243</v>
+        <v>44365.172147750767</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>53.278722286224301</v>
+        <v>44.365172147750769</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -6986,33 +6570,33 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>32358.578205108599</v>
+        <v>32401.635646819999</v>
       </c>
       <c r="F60">
-        <v>251.69420242309499</v>
+        <v>257.07101821899403</v>
       </c>
       <c r="G60">
-        <v>9097.2151756286603</v>
+        <v>4623.3696937560999</v>
       </c>
       <c r="H60">
-        <v>12189.8863315582</v>
+        <v>6107.4311733245804</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2693.1331157684299</v>
       </c>
       <c r="J60">
-        <v>21289.058685302702</v>
+        <v>13424.016475677399</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>53645.679712295459</v>
+        <v>43132.436513900677</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>53.645679712295461</v>
+        <v>43.132436513900679</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -7026,33 +6610,33 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>32476.1133193969</v>
+        <v>31945.106267929001</v>
       </c>
       <c r="F61">
-        <v>249.497413635253</v>
+        <v>258.55779647827097</v>
       </c>
       <c r="G61">
-        <v>8711.6389274597095</v>
+        <v>4960.6368541717502</v>
       </c>
       <c r="H61">
-        <v>12229.862451553299</v>
+        <v>6334.6114158630298</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2685.53686141967</v>
       </c>
       <c r="J61">
-        <v>20943.4785842895</v>
+        <v>13981.145858764599</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>53417.61469840991</v>
+        <v>43240.35453796378</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>53.417614698409913</v>
+        <v>43.240354537963782</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -7063,36 +6647,36 @@
         <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>32435.813903808499</v>
+        <v>32581.169605255101</v>
       </c>
       <c r="F62">
-        <v>1511.67273521423</v>
+        <v>256.11639022827097</v>
       </c>
       <c r="G62">
-        <v>231771.85416221601</v>
+        <v>2641031.29339218</v>
       </c>
       <c r="H62">
-        <v>12072.2539424896</v>
+        <v>12344.009399414001</v>
       </c>
       <c r="I62">
-        <v>11005.9332847595</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>254850.12674331601</v>
+        <v>2653377.2778511001</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>276279.92200851411</v>
+        <v>2685956.4723968492</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>276.27992200851412</v>
+        <v>2685.9564723968492</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -7103,36 +6687,36 @@
         <v>1000</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E63">
-        <v>32634.811639785701</v>
+        <v>32490.3743267059</v>
       </c>
       <c r="F63">
-        <v>652.64678001403797</v>
+        <v>256.88219070434502</v>
       </c>
       <c r="G63">
-        <v>47055.957555770801</v>
+        <v>271423.08902740403</v>
       </c>
       <c r="H63">
-        <v>11985.676527023301</v>
+        <v>12293.0791378021</v>
       </c>
       <c r="I63">
-        <v>11058.3033561706</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>70100.028276443394</v>
+        <v>283718.06764602597</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>91676.445722579796</v>
+        <v>316206.54249191203</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>91.6764457225798</v>
+        <v>316.20654249191205</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -7143,36 +6727,36 @@
         <v>10000</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E64">
-        <v>33119.3273067474</v>
+        <v>32424.805402755701</v>
       </c>
       <c r="F64">
-        <v>634.04822349548294</v>
+        <v>258.878946304321</v>
       </c>
       <c r="G64">
-        <v>42843.573570251399</v>
+        <v>33379.5619010925</v>
       </c>
       <c r="H64">
-        <v>11653.6271572113</v>
+        <v>11446.746110916099</v>
       </c>
       <c r="I64">
-        <v>11099.8842716217</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>65597.169160842896</v>
+        <v>44828.304767608599</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>87616.528034210103</v>
+        <v>77251.113414764302</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>87.616528034210106</v>
+        <v>77.251113414764305</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -7183,596 +6767,526 @@
         <v>100000</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E65">
-        <v>31963.842391967701</v>
+        <v>32671.350717544501</v>
       </c>
       <c r="F65">
-        <v>675.03952980041504</v>
+        <v>257.98249244689902</v>
       </c>
       <c r="G65">
-        <v>42143.809556961001</v>
+        <v>12478.3322811126</v>
       </c>
       <c r="H65">
-        <v>11754.175186157199</v>
+        <v>11783.4525108337</v>
       </c>
       <c r="I65">
-        <v>11388.5941505432</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>65286.664962768496</v>
+        <v>24263.696908950798</v>
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>85861.827135085899</v>
+        <v>56933.135509490807</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>85.861827135085903</v>
+        <v>56.93313550949081</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="B66">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E66">
-        <v>33106.543064117403</v>
+        <v>32547.499418258602</v>
       </c>
       <c r="F66">
-        <v>656.45384788513104</v>
+        <v>255.76448440551701</v>
       </c>
       <c r="G66">
-        <v>144876.62816047599</v>
+        <v>11544.785022735499</v>
       </c>
       <c r="H66">
-        <v>11909.5048904418</v>
+        <v>11616.8501377105</v>
       </c>
       <c r="I66">
-        <v>10908.535242080599</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>167694.749116897</v>
+        <v>23163.558483123699</v>
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>189892.6761150352</v>
+        <v>55709.134578704601</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>189.89267611503519</v>
+        <v>55.7091345787046</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1000</v>
+        <v>23013804</v>
       </c>
       <c r="B67">
-        <v>1000</v>
+        <v>23013804</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E67">
-        <v>32436.007976531899</v>
+        <v>33583.625793457002</v>
       </c>
       <c r="F67">
-        <v>691.27988815307594</v>
+        <v>257.32588768005297</v>
       </c>
       <c r="G67">
-        <v>32416.546821594198</v>
+        <v>11206.006288528401</v>
       </c>
       <c r="H67">
-        <v>11836.220502853301</v>
+        <v>11708.7025642395</v>
       </c>
       <c r="I67">
-        <v>10965.0869369506</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>55217.929601669297</v>
+        <v>22916.711091995199</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K85" si="2">SUM(E67,G67,H67)</f>
-        <v>76688.775300979396</v>
+        <f t="shared" si="0"/>
+        <v>56498.334646224903</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L85" si="3">PRODUCT(K67,0.001)</f>
-        <v>76.688775300979401</v>
+        <f t="shared" si="1"/>
+        <v>56.498334646224905</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B68">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E68">
-        <v>33196.168422698902</v>
+        <v>32899.832963943401</v>
       </c>
       <c r="F68">
-        <v>666.69821739196698</v>
+        <v>284.88254547119101</v>
       </c>
       <c r="G68">
-        <v>27809.2818260192</v>
+        <v>2697656.4548015501</v>
       </c>
       <c r="H68">
-        <v>12082.276105880699</v>
+        <v>11632.0347785949</v>
       </c>
       <c r="I68">
-        <v>11152.605533599801</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>51044.2826747894</v>
+        <v>2709290.5011176998</v>
       </c>
       <c r="K68">
-        <f t="shared" si="2"/>
-        <v>73087.726354598795</v>
+        <f t="shared" si="0"/>
+        <v>2742188.3225440886</v>
       </c>
       <c r="L68">
-        <f t="shared" si="3"/>
-        <v>73.0877263545988</v>
+        <f t="shared" si="1"/>
+        <v>2742.1883225440888</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B69">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E69">
-        <v>32119.459390640201</v>
+        <v>32345.9506034851</v>
       </c>
       <c r="F69">
-        <v>650.58684349060002</v>
+        <v>251.676321029663</v>
       </c>
       <c r="G69">
-        <v>162717.59510040199</v>
+        <v>270719.73800659098</v>
       </c>
       <c r="H69">
-        <v>11410.5870723724</v>
+        <v>11961.122989654499</v>
       </c>
       <c r="I69">
-        <v>6650.5479812621998</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>180778.79309654201</v>
+        <v>282682.777166366</v>
       </c>
       <c r="K69">
-        <f t="shared" si="2"/>
-        <v>206247.6415634146</v>
+        <f t="shared" si="0"/>
+        <v>315026.81159973057</v>
       </c>
       <c r="L69">
-        <f t="shared" si="3"/>
-        <v>206.24764156341459</v>
+        <f t="shared" si="1"/>
+        <v>315.02681159973059</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B70">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E70">
-        <v>32005.378007888699</v>
+        <v>31437.1650218963</v>
       </c>
       <c r="F70">
-        <v>645.119190216064</v>
+        <v>251.07383728027301</v>
       </c>
       <c r="G70">
-        <v>114227.36406326199</v>
+        <v>31705.704212188699</v>
       </c>
       <c r="H70">
-        <v>11760.399341583199</v>
+        <v>11383.429765701199</v>
       </c>
       <c r="I70">
-        <v>7346.8887805938703</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>133334.714651107</v>
+        <v>43091.085195541302</v>
       </c>
       <c r="K70">
-        <f t="shared" si="2"/>
-        <v>157993.14141273388</v>
+        <f t="shared" si="0"/>
+        <v>74526.298999786202</v>
       </c>
       <c r="L70">
-        <f t="shared" si="3"/>
-        <v>157.99314141273388</v>
+        <f t="shared" si="1"/>
+        <v>74.526298999786206</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B71">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E71">
-        <v>31894.985437393101</v>
+        <v>31894.981861114498</v>
       </c>
       <c r="F71">
-        <v>688.18926811218205</v>
+        <v>249.50361251831001</v>
       </c>
       <c r="G71">
-        <v>103195.49536705</v>
+        <v>10071.088075637799</v>
       </c>
       <c r="H71">
-        <v>11601.4456748962</v>
+        <v>11312.652349472</v>
       </c>
       <c r="I71">
-        <v>12653.7382602691</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>127450.744152069</v>
+        <v>21385.6880664825</v>
       </c>
       <c r="K71">
-        <f t="shared" si="2"/>
-        <v>146691.92647933931</v>
+        <f t="shared" si="0"/>
+        <v>53278.7222862243</v>
       </c>
       <c r="L71">
-        <f t="shared" si="3"/>
-        <v>146.69192647933932</v>
+        <f t="shared" si="1"/>
+        <v>53.278722286224301</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="B72">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E72">
-        <v>32506.834268569899</v>
+        <v>32358.578205108599</v>
       </c>
       <c r="F72">
-        <v>650.93016624450604</v>
+        <v>251.69420242309499</v>
       </c>
       <c r="G72">
-        <v>101685.659885406</v>
+        <v>9097.2151756286603</v>
       </c>
       <c r="H72">
-        <v>12554.1851520538</v>
+        <v>12189.8863315582</v>
       </c>
       <c r="I72">
-        <v>7307.3768615722602</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>121547.289133071</v>
+        <v>21289.058685302702</v>
       </c>
       <c r="K72">
-        <f t="shared" si="2"/>
-        <v>146746.67930602969</v>
+        <f t="shared" si="0"/>
+        <v>53645.679712295459</v>
       </c>
       <c r="L72">
-        <f t="shared" si="3"/>
-        <v>146.74667930602971</v>
+        <f t="shared" si="1"/>
+        <v>53.645679712295461</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1000000</v>
+        <v>23013804</v>
       </c>
       <c r="B73">
-        <v>1000000</v>
+        <v>23013804</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E73">
-        <v>31885.544061660701</v>
+        <v>32476.1133193969</v>
       </c>
       <c r="F73">
-        <v>651.18122100829999</v>
+        <v>249.497413635253</v>
       </c>
       <c r="G73">
-        <v>106401.781320571</v>
+        <v>8711.6389274597095</v>
       </c>
       <c r="H73">
-        <v>11414.880514144799</v>
+        <v>12229.862451553299</v>
       </c>
       <c r="I73">
-        <v>6396.6445922851499</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>124213.370800018</v>
+        <v>20943.4785842895</v>
       </c>
       <c r="K73">
-        <f t="shared" si="2"/>
-        <v>149702.20589637652</v>
+        <f t="shared" si="0"/>
+        <v>53417.61469840991</v>
       </c>
       <c r="L73">
-        <f t="shared" si="3"/>
-        <v>149.70220589637651</v>
+        <f t="shared" si="1"/>
+        <v>53.417614698409913</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>23013804</v>
+        <v>100</v>
       </c>
       <c r="B74">
-        <v>23013804</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>31852.785348892201</v>
+        <v>32435.813903808499</v>
       </c>
       <c r="F74">
-        <v>640.83147048950195</v>
+        <v>1511.67273521423</v>
       </c>
       <c r="G74">
-        <v>108099.685907363</v>
+        <v>231771.85416221601</v>
       </c>
       <c r="H74">
-        <v>11863.477468490601</v>
+        <v>12072.2539424896</v>
       </c>
       <c r="I74">
-        <v>5879.8131942748996</v>
+        <v>11005.9332847595</v>
       </c>
       <c r="J74">
-        <v>125843.049049377</v>
+        <v>254850.12674331601</v>
       </c>
       <c r="K74">
-        <f t="shared" si="2"/>
-        <v>151815.9487247458</v>
+        <f t="shared" si="0"/>
+        <v>276279.92200851411</v>
       </c>
       <c r="L74">
-        <f t="shared" si="3"/>
-        <v>151.81594872474579</v>
+        <f t="shared" si="1"/>
+        <v>276.27992200851412</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B75">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E75">
-        <v>31908.833026885899</v>
+        <v>32634.811639785701</v>
       </c>
       <c r="F75">
-        <v>644.07444000244095</v>
+        <v>652.64678001403797</v>
       </c>
       <c r="G75">
-        <v>77365.759134292603</v>
+        <v>47055.957555770801</v>
       </c>
       <c r="H75">
-        <v>11703.485727310101</v>
+        <v>11985.676527023301</v>
       </c>
       <c r="I75">
-        <v>43315.621614456097</v>
+        <v>11058.3033561706</v>
       </c>
       <c r="J75">
-        <v>132384.94968414301</v>
+        <v>70100.028276443394</v>
       </c>
       <c r="K75">
-        <f t="shared" si="2"/>
-        <v>120978.07788848859</v>
+        <f t="shared" si="0"/>
+        <v>91676.445722579796</v>
       </c>
       <c r="L75">
-        <f t="shared" si="3"/>
-        <v>120.9780778884886</v>
+        <f t="shared" si="1"/>
+        <v>91.6764457225798</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B76">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>31905.319690704298</v>
+        <v>33119.3273067474</v>
       </c>
       <c r="F76">
-        <v>645.83826065063397</v>
+        <v>634.04822349548294</v>
       </c>
       <c r="G76">
-        <v>13073.1317996978</v>
+        <v>42843.573570251399</v>
       </c>
       <c r="H76">
-        <v>12061.144351959199</v>
+        <v>11653.6271572113</v>
       </c>
       <c r="I76">
-        <v>40518.230676651001</v>
+        <v>11099.8842716217</v>
       </c>
       <c r="J76">
-        <v>65652.597427368106</v>
+        <v>65597.169160842896</v>
       </c>
       <c r="K76">
-        <f t="shared" si="2"/>
-        <v>57039.595842361297</v>
+        <f t="shared" si="0"/>
+        <v>87616.528034210103</v>
       </c>
       <c r="L76">
-        <f t="shared" si="3"/>
-        <v>57.039595842361301</v>
+        <f t="shared" si="1"/>
+        <v>87.616528034210106</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B77">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E77">
-        <v>32909.778833389202</v>
+        <v>31963.842391967701</v>
       </c>
       <c r="F77">
-        <v>642.78960227966297</v>
+        <v>675.03952980041504</v>
       </c>
       <c r="G77">
-        <v>8731.2839031219391</v>
+        <v>42143.809556961001</v>
       </c>
       <c r="H77">
-        <v>11756.564617156901</v>
+        <v>11754.175186157199</v>
       </c>
       <c r="I77">
-        <v>43316.145181655796</v>
+        <v>11388.5941505432</v>
       </c>
       <c r="J77">
-        <v>63804.076433181697</v>
+        <v>65286.664962768496</v>
       </c>
       <c r="K77">
-        <f t="shared" si="2"/>
-        <v>53397.627353668046</v>
+        <f t="shared" si="0"/>
+        <v>85861.827135085899</v>
       </c>
       <c r="L77">
-        <f t="shared" si="3"/>
-        <v>53.397627353668049</v>
+        <f t="shared" si="1"/>
+        <v>85.861827135085903</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>100000</v>
-      </c>
-      <c r="B78">
-        <v>100000</v>
-      </c>
-      <c r="C78" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78">
-        <v>33006.947755813599</v>
-      </c>
-      <c r="F78">
-        <v>644.90103721618596</v>
-      </c>
-      <c r="G78">
-        <v>8277.0864963531494</v>
-      </c>
-      <c r="H78">
-        <v>11936.3343715667</v>
-      </c>
-      <c r="I78">
-        <v>73371.679782867403</v>
-      </c>
-      <c r="J78">
-        <v>93585.186958312901</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="2"/>
-        <v>53220.368623733448</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="3"/>
-        <v>53.220368623733449</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1000000</v>
-      </c>
-      <c r="B79">
-        <v>1000000</v>
-      </c>
-      <c r="C79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79">
-        <v>32918.255090713501</v>
-      </c>
-      <c r="F79">
-        <v>644.13237571716297</v>
-      </c>
-      <c r="G79">
-        <v>8807.5766563415491</v>
-      </c>
-      <c r="H79">
-        <v>11681.3521385192</v>
-      </c>
-      <c r="I79">
-        <v>319752.19321250898</v>
-      </c>
-      <c r="J79">
-        <v>340241.2109375</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="2"/>
-        <v>53407.183885574254</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="3"/>
-        <v>53.407183885574256</v>
+        <v>23013804</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -7786,33 +7300,33 @@
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E80">
-        <v>32417.313337325999</v>
+        <v>33106.543064117403</v>
       </c>
       <c r="F80">
-        <v>646.82888984680096</v>
+        <v>656.45384788513104</v>
       </c>
       <c r="G80">
-        <v>123257.404088974</v>
+        <v>144876.62816047599</v>
       </c>
       <c r="H80">
-        <v>6361.9239330291703</v>
+        <v>11909.5048904418</v>
       </c>
       <c r="I80">
-        <v>2741.5931224822998</v>
+        <v>10908.535242080599</v>
       </c>
       <c r="J80">
-        <v>132360.992908477</v>
+        <v>167694.749116897</v>
       </c>
       <c r="K80">
-        <f t="shared" si="2"/>
-        <v>162036.64135932917</v>
+        <f t="shared" si="0"/>
+        <v>189892.6761150352</v>
       </c>
       <c r="L80">
-        <f t="shared" si="3"/>
-        <v>162.03664135932917</v>
+        <f t="shared" si="1"/>
+        <v>189.89267611503519</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -7826,33 +7340,33 @@
         <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E81">
-        <v>32918.8392162323</v>
+        <v>32436.007976531899</v>
       </c>
       <c r="F81">
-        <v>664.29138183593705</v>
+        <v>691.27988815307594</v>
       </c>
       <c r="G81">
-        <v>20972.432851791302</v>
+        <v>32416.546821594198</v>
       </c>
       <c r="H81">
-        <v>6429.0497303008997</v>
+        <v>11836.220502853301</v>
       </c>
       <c r="I81">
-        <v>2691.92600250244</v>
+        <v>10965.0869369506</v>
       </c>
       <c r="J81">
-        <v>30093.491554260199</v>
+        <v>55217.929601669297</v>
       </c>
       <c r="K81">
-        <f t="shared" si="2"/>
-        <v>60320.321798324498</v>
+        <f t="shared" ref="K81:K103" si="2">SUM(E81,G81,H81)</f>
+        <v>76688.775300979396</v>
       </c>
       <c r="L81">
-        <f t="shared" si="3"/>
-        <v>60.3203217983245</v>
+        <f t="shared" ref="L81:L103" si="3">PRODUCT(K81,0.001)</f>
+        <v>76.688775300979401</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -7866,158 +7380,738 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E82">
-        <v>32770.0548171997</v>
+        <v>33196.168422698902</v>
       </c>
       <c r="F82">
-        <v>680.74798583984295</v>
+        <v>666.69821739196698</v>
       </c>
       <c r="G82">
-        <v>7204.4532299041703</v>
+        <v>27809.2818260192</v>
       </c>
       <c r="H82">
-        <v>6405.8730602264404</v>
+        <v>12082.276105880699</v>
       </c>
       <c r="I82">
-        <v>2793.6186790466299</v>
+        <v>11152.605533599801</v>
       </c>
       <c r="J82">
-        <v>16404.023647308299</v>
+        <v>51044.2826747894</v>
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>46380.381107330308</v>
+        <v>73087.726354598795</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>46.380381107330308</v>
+        <v>73.0877263545988</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>100000</v>
       </c>
-      <c r="B83">
-        <v>100000</v>
-      </c>
-      <c r="C83" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83">
-        <v>32783.816337585398</v>
-      </c>
-      <c r="F83">
-        <v>637.80784606933503</v>
-      </c>
-      <c r="G83">
-        <v>6758.6505413055402</v>
-      </c>
-      <c r="H83">
-        <v>6385.6911659240704</v>
-      </c>
-      <c r="I83">
-        <v>2701.30443572998</v>
-      </c>
-      <c r="J83">
-        <v>15845.727443694999</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="2"/>
-        <v>45928.158044815013</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="3"/>
-        <v>45.928158044815014</v>
-      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1000000</v>
       </c>
-      <c r="B84">
-        <v>1000000</v>
-      </c>
-      <c r="C84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84">
-        <v>32565.448522567702</v>
-      </c>
-      <c r="F84">
-        <v>646.66986465454102</v>
-      </c>
-      <c r="G84">
-        <v>7549.2057800292896</v>
-      </c>
-      <c r="H84">
-        <v>6200.56247711181</v>
-      </c>
-      <c r="I84">
-        <v>2677.7932643890299</v>
-      </c>
-      <c r="J84">
-        <v>16427.644491195599</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="2"/>
-        <v>46315.216779708797</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="3"/>
-        <v>46.315216779708798</v>
-      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>23013804</v>
       </c>
-      <c r="B85">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>100</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>32119.459390640201</v>
+      </c>
+      <c r="F86">
+        <v>650.58684349060002</v>
+      </c>
+      <c r="G86">
+        <v>162717.59510040199</v>
+      </c>
+      <c r="H86">
+        <v>11410.5870723724</v>
+      </c>
+      <c r="I86">
+        <v>6650.5479812621998</v>
+      </c>
+      <c r="J86">
+        <v>180778.79309654201</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="2"/>
+        <v>206247.6415634146</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="3"/>
+        <v>206.24764156341459</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1000</v>
+      </c>
+      <c r="B87">
+        <v>1000</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87">
+        <v>32005.378007888699</v>
+      </c>
+      <c r="F87">
+        <v>645.119190216064</v>
+      </c>
+      <c r="G87">
+        <v>114227.36406326199</v>
+      </c>
+      <c r="H87">
+        <v>11760.399341583199</v>
+      </c>
+      <c r="I87">
+        <v>7346.8887805938703</v>
+      </c>
+      <c r="J87">
+        <v>133334.714651107</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="2"/>
+        <v>157993.14141273388</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="3"/>
+        <v>157.99314141273388</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>10000</v>
+      </c>
+      <c r="B88">
+        <v>10000</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88">
+        <v>31894.985437393101</v>
+      </c>
+      <c r="F88">
+        <v>688.18926811218205</v>
+      </c>
+      <c r="G88">
+        <v>103195.49536705</v>
+      </c>
+      <c r="H88">
+        <v>11601.4456748962</v>
+      </c>
+      <c r="I88">
+        <v>12653.7382602691</v>
+      </c>
+      <c r="J88">
+        <v>127450.744152069</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="2"/>
+        <v>146691.92647933931</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="3"/>
+        <v>146.69192647933932</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>100000</v>
+      </c>
+      <c r="B89">
+        <v>100000</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89">
+        <v>32506.834268569899</v>
+      </c>
+      <c r="F89">
+        <v>650.93016624450604</v>
+      </c>
+      <c r="G89">
+        <v>101685.659885406</v>
+      </c>
+      <c r="H89">
+        <v>12554.1851520538</v>
+      </c>
+      <c r="I89">
+        <v>7307.3768615722602</v>
+      </c>
+      <c r="J89">
+        <v>121547.289133071</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="2"/>
+        <v>146746.67930602969</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="3"/>
+        <v>146.74667930602971</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1000000</v>
+      </c>
+      <c r="B90">
+        <v>1000000</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90">
+        <v>31885.544061660701</v>
+      </c>
+      <c r="F90">
+        <v>651.18122100829999</v>
+      </c>
+      <c r="G90">
+        <v>106401.781320571</v>
+      </c>
+      <c r="H90">
+        <v>11414.880514144799</v>
+      </c>
+      <c r="I90">
+        <v>6396.6445922851499</v>
+      </c>
+      <c r="J90">
+        <v>124213.370800018</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="2"/>
+        <v>149702.20589637652</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="3"/>
+        <v>149.70220589637651</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>23013804</v>
       </c>
-      <c r="C85" t="s">
+      <c r="B91">
+        <v>23013804</v>
+      </c>
+      <c r="C91" t="s">
         <v>18</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91">
+        <v>31852.785348892201</v>
+      </c>
+      <c r="F91">
+        <v>640.83147048950195</v>
+      </c>
+      <c r="G91">
+        <v>108099.685907363</v>
+      </c>
+      <c r="H91">
+        <v>11863.477468490601</v>
+      </c>
+      <c r="I91">
+        <v>5879.8131942748996</v>
+      </c>
+      <c r="J91">
+        <v>125843.049049377</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="2"/>
+        <v>151815.9487247458</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="3"/>
+        <v>151.81594872474579</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>100</v>
+      </c>
+      <c r="B92">
+        <v>100</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92">
+        <v>31908.833026885899</v>
+      </c>
+      <c r="F92">
+        <v>644.07444000244095</v>
+      </c>
+      <c r="G92">
+        <v>77365.759134292603</v>
+      </c>
+      <c r="H92">
+        <v>11703.485727310101</v>
+      </c>
+      <c r="I92">
+        <v>43315.621614456097</v>
+      </c>
+      <c r="J92">
+        <v>132384.94968414301</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="2"/>
+        <v>120978.07788848859</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="3"/>
+        <v>120.9780778884886</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1000</v>
+      </c>
+      <c r="B93">
+        <v>1000</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93">
+        <v>31905.319690704298</v>
+      </c>
+      <c r="F93">
+        <v>645.83826065063397</v>
+      </c>
+      <c r="G93">
+        <v>13073.1317996978</v>
+      </c>
+      <c r="H93">
+        <v>12061.144351959199</v>
+      </c>
+      <c r="I93">
+        <v>40518.230676651001</v>
+      </c>
+      <c r="J93">
+        <v>65652.597427368106</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="2"/>
+        <v>57039.595842361297</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="3"/>
+        <v>57.039595842361301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>10000</v>
+      </c>
+      <c r="B94">
+        <v>10000</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94">
+        <v>32909.778833389202</v>
+      </c>
+      <c r="F94">
+        <v>642.78960227966297</v>
+      </c>
+      <c r="G94">
+        <v>8731.2839031219391</v>
+      </c>
+      <c r="H94">
+        <v>11756.564617156901</v>
+      </c>
+      <c r="I94">
+        <v>43316.145181655796</v>
+      </c>
+      <c r="J94">
+        <v>63804.076433181697</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="2"/>
+        <v>53397.627353668046</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="3"/>
+        <v>53.397627353668049</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>100000</v>
+      </c>
+      <c r="B95">
+        <v>100000</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95">
+        <v>33006.947755813599</v>
+      </c>
+      <c r="F95">
+        <v>644.90103721618596</v>
+      </c>
+      <c r="G95">
+        <v>8277.0864963531494</v>
+      </c>
+      <c r="H95">
+        <v>11936.3343715667</v>
+      </c>
+      <c r="I95">
+        <v>73371.679782867403</v>
+      </c>
+      <c r="J95">
+        <v>93585.186958312901</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="2"/>
+        <v>53220.368623733448</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="3"/>
+        <v>53.220368623733449</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1000000</v>
+      </c>
+      <c r="B96">
+        <v>1000000</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96">
+        <v>32918.255090713501</v>
+      </c>
+      <c r="F96">
+        <v>644.13237571716297</v>
+      </c>
+      <c r="G96">
+        <v>8807.5766563415491</v>
+      </c>
+      <c r="H96">
+        <v>11681.3521385192</v>
+      </c>
+      <c r="I96">
+        <v>319752.19321250898</v>
+      </c>
+      <c r="J96">
+        <v>340241.2109375</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="2"/>
+        <v>53407.183885574254</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="3"/>
+        <v>53.407183885574256</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>23013804</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>100</v>
+      </c>
+      <c r="B98">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" t="s">
         <v>15</v>
       </c>
-      <c r="E85">
+      <c r="E98">
+        <v>32417.313337325999</v>
+      </c>
+      <c r="F98">
+        <v>646.82888984680096</v>
+      </c>
+      <c r="G98">
+        <v>123257.404088974</v>
+      </c>
+      <c r="H98">
+        <v>6361.9239330291703</v>
+      </c>
+      <c r="I98">
+        <v>2741.5931224822998</v>
+      </c>
+      <c r="J98">
+        <v>132360.992908477</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="2"/>
+        <v>162036.64135932917</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="3"/>
+        <v>162.03664135932917</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1000</v>
+      </c>
+      <c r="B99">
+        <v>1000</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99">
+        <v>32918.8392162323</v>
+      </c>
+      <c r="F99">
+        <v>664.29138183593705</v>
+      </c>
+      <c r="G99">
+        <v>20972.432851791302</v>
+      </c>
+      <c r="H99">
+        <v>6429.0497303008997</v>
+      </c>
+      <c r="I99">
+        <v>2691.92600250244</v>
+      </c>
+      <c r="J99">
+        <v>30093.491554260199</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="2"/>
+        <v>60320.321798324498</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="3"/>
+        <v>60.3203217983245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>10000</v>
+      </c>
+      <c r="B100">
+        <v>10000</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100">
+        <v>32770.0548171997</v>
+      </c>
+      <c r="F100">
+        <v>680.74798583984295</v>
+      </c>
+      <c r="G100">
+        <v>7204.4532299041703</v>
+      </c>
+      <c r="H100">
+        <v>6405.8730602264404</v>
+      </c>
+      <c r="I100">
+        <v>2793.6186790466299</v>
+      </c>
+      <c r="J100">
+        <v>16404.023647308299</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="2"/>
+        <v>46380.381107330308</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="3"/>
+        <v>46.380381107330308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100000</v>
+      </c>
+      <c r="B101">
+        <v>100000</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101">
+        <v>32783.816337585398</v>
+      </c>
+      <c r="F101">
+        <v>637.80784606933503</v>
+      </c>
+      <c r="G101">
+        <v>6758.6505413055402</v>
+      </c>
+      <c r="H101">
+        <v>6385.6911659240704</v>
+      </c>
+      <c r="I101">
+        <v>2701.30443572998</v>
+      </c>
+      <c r="J101">
+        <v>15845.727443694999</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="2"/>
+        <v>45928.158044815013</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="3"/>
+        <v>45.928158044815014</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1000000</v>
+      </c>
+      <c r="B102">
+        <v>1000000</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102">
+        <v>32565.448522567702</v>
+      </c>
+      <c r="F102">
+        <v>646.66986465454102</v>
+      </c>
+      <c r="G102">
+        <v>7549.2057800292896</v>
+      </c>
+      <c r="H102">
+        <v>6200.56247711181</v>
+      </c>
+      <c r="I102">
+        <v>2677.7932643890299</v>
+      </c>
+      <c r="J102">
+        <v>16427.644491195599</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="2"/>
+        <v>46315.216779708797</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="3"/>
+        <v>46.315216779708798</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>23013804</v>
+      </c>
+      <c r="B103">
+        <v>23013804</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103">
         <v>32920.919179916302</v>
       </c>
-      <c r="F85">
+      <c r="F103">
         <v>658.19644927978504</v>
       </c>
-      <c r="G85">
+      <c r="G103">
         <v>8971.4872837066596</v>
       </c>
-      <c r="H85">
+      <c r="H103">
         <v>6201.1384963989203</v>
       </c>
-      <c r="I85">
+      <c r="I103">
         <v>2692.6460266113199</v>
       </c>
-      <c r="J85">
+      <c r="J103">
         <v>17865.802049636801</v>
       </c>
-      <c r="K85">
+      <c r="K103">
         <f t="shared" si="2"/>
         <v>48093.544960021878</v>
       </c>
-      <c r="L85">
+      <c r="L103">
         <f t="shared" si="3"/>
         <v>48.09354496002188</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L85">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="L2:L103">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8028,8 +8122,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G85">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G2:G103">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8046,10 +8140,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05BF744-05C7-436C-91E4-82408DA3D1D3}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8171,7 +8265,7 @@
         <v>184997.14636802592</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L66" si="0">PRODUCT(K3,0.001)</f>
+        <f t="shared" ref="L3:L91" si="0">PRODUCT(K3,0.001)</f>
         <v>184.99714636802591</v>
       </c>
     </row>
@@ -8207,7 +8301,7 @@
         <v>158555.198192596</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K67" si="1">SUM(E4,G4,H4)</f>
+        <f t="shared" ref="K4:K92" si="1">SUM(E4,G4,H4)</f>
         <v>178330.80959320031</v>
       </c>
       <c r="L4">
@@ -8257,90 +8351,20 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>33024.871110916101</v>
-      </c>
-      <c r="F6">
-        <v>519.28567886352505</v>
-      </c>
-      <c r="G6">
-        <v>139158.76746177601</v>
-      </c>
-      <c r="H6">
-        <v>11631.560087203899</v>
-      </c>
-      <c r="I6">
-        <v>11980.273485183699</v>
-      </c>
-      <c r="J6">
-        <v>162770.67875862101</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>183815.19865989601</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>183.815198659896</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1000</v>
-      </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>31663.4361743927</v>
-      </c>
-      <c r="F7">
-        <v>515.83433151245094</v>
-      </c>
-      <c r="G7">
-        <v>88354.186534881504</v>
-      </c>
-      <c r="H7">
-        <v>12418.970108032199</v>
-      </c>
-      <c r="I7">
-        <v>11593.736648559499</v>
-      </c>
-      <c r="J7">
-        <v>112366.970062255</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>132436.5928173064</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>132.4365928173064</v>
+        <v>23013804</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B8">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -8349,238 +8373,133 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>32422.074079513499</v>
+        <v>33024.871110916101</v>
       </c>
       <c r="F8">
-        <v>508.730173110961</v>
+        <v>519.28567886352505</v>
       </c>
       <c r="G8">
-        <v>83269.255876541094</v>
+        <v>139158.76746177601</v>
       </c>
       <c r="H8">
-        <v>11626.7552375793</v>
+        <v>11631.560087203899</v>
       </c>
       <c r="I8">
-        <v>11767.8236961364</v>
+        <v>11980.273485183699</v>
       </c>
       <c r="J8">
-        <v>106663.91015052699</v>
+        <v>162770.67875862101</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>127318.0851936339</v>
+        <v>183815.19865989601</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>127.31808519363391</v>
+        <v>183.815198659896</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>32978.665351867603</v>
+        <v>31663.4361743927</v>
       </c>
       <c r="F9">
-        <v>517.11821556091297</v>
+        <v>515.83433151245094</v>
       </c>
       <c r="G9">
-        <v>536620.40281295695</v>
+        <v>88354.186534881504</v>
       </c>
       <c r="H9">
-        <v>11345.5708026885</v>
+        <v>12418.970108032199</v>
       </c>
       <c r="I9">
-        <v>30614.7017478942</v>
+        <v>11593.736648559499</v>
       </c>
       <c r="J9">
-        <v>578580.73878288199</v>
+        <v>112366.970062255</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>580944.63896751299</v>
+        <v>132436.5928173064</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>580.94463896751301</v>
+        <v>132.4365928173064</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>32344.5663452148</v>
+        <v>32422.074079513499</v>
       </c>
       <c r="F10">
-        <v>517.04621315002396</v>
+        <v>508.730173110961</v>
       </c>
       <c r="G10">
-        <v>358278.20801734901</v>
+        <v>83269.255876541094</v>
       </c>
       <c r="H10">
-        <v>11354.996204376201</v>
+        <v>11626.7552375793</v>
       </c>
       <c r="I10">
-        <v>23154.238700866699</v>
+        <v>11767.8236961364</v>
       </c>
       <c r="J10">
-        <v>392787.50658035203</v>
+        <v>106663.91015052699</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>401977.77056694002</v>
+        <v>127318.0851936339</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>401.97777056694002</v>
+        <v>127.31808519363391</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10000</v>
-      </c>
-      <c r="B11">
-        <v>10000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>32307.353496551499</v>
-      </c>
-      <c r="F11">
-        <v>516.21723175048805</v>
-      </c>
-      <c r="G11">
-        <v>310388.17715644802</v>
-      </c>
-      <c r="H11">
-        <v>11361.733675003001</v>
-      </c>
-      <c r="I11">
-        <v>21735.137701034499</v>
-      </c>
-      <c r="J11">
-        <v>343485.116720199</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>354057.26432800252</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>354.05726432800253</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>100000</v>
-      </c>
-      <c r="B12">
-        <v>100000</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>31893.555402755701</v>
-      </c>
-      <c r="F12">
-        <v>513.846397399902</v>
-      </c>
-      <c r="G12">
-        <v>307010.082006454</v>
-      </c>
-      <c r="H12">
-        <v>11520.0247764587</v>
-      </c>
-      <c r="I12">
-        <v>26801.335096359198</v>
-      </c>
-      <c r="J12">
-        <v>345331.50982856698</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>350423.66218566836</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>350.42366218566838</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1000000</v>
-      </c>
-      <c r="B13">
-        <v>1000000</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>32590.940713882399</v>
-      </c>
-      <c r="F13">
-        <v>521.17824554443303</v>
-      </c>
-      <c r="G13">
-        <v>320670.65548896702</v>
-      </c>
-      <c r="H13">
-        <v>11885.4286670684</v>
-      </c>
-      <c r="I13">
-        <v>22335.819005966099</v>
-      </c>
-      <c r="J13">
-        <v>354891.96133613499</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>365147.02486991783</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>365.14702486991786</v>
+        <v>23013804</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>23013804</v>
+        <v>100</v>
       </c>
       <c r="B14">
-        <v>23013804</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -8589,710 +8508,640 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>31672.7592945098</v>
+        <v>32978.665351867603</v>
       </c>
       <c r="F14">
-        <v>517.88258552551201</v>
+        <v>517.11821556091297</v>
       </c>
       <c r="G14">
-        <v>313529.567241668</v>
+        <v>536620.40281295695</v>
       </c>
       <c r="H14">
-        <v>11194.147825241</v>
+        <v>11345.5708026885</v>
       </c>
       <c r="I14">
-        <v>23240.670680999701</v>
+        <v>30614.7017478942</v>
       </c>
       <c r="J14">
-        <v>347964.46394920303</v>
+        <v>578580.73878288199</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>356396.47436141875</v>
+        <v>580944.63896751299</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>356.39647436141877</v>
+        <v>580.94463896751301</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>32487.617492675701</v>
+        <v>32344.5663452148</v>
       </c>
       <c r="F15">
-        <v>509.35792922973599</v>
+        <v>517.04621315002396</v>
       </c>
       <c r="G15">
-        <v>86775.616407394395</v>
+        <v>358278.20801734901</v>
       </c>
       <c r="H15">
-        <v>11790.1177406311</v>
+        <v>11354.996204376201</v>
       </c>
       <c r="I15">
-        <v>34878.119230270298</v>
+        <v>23154.238700866699</v>
       </c>
       <c r="J15">
-        <v>133443.95208358701</v>
+        <v>392787.50658035203</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>131053.35164070121</v>
+        <v>401977.77056694002</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>131.05335164070121</v>
+        <v>401.97777056694002</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>32821.864128112698</v>
+        <v>32307.353496551499</v>
       </c>
       <c r="F16">
-        <v>515.94781875610295</v>
+        <v>516.21723175048805</v>
       </c>
       <c r="G16">
-        <v>31095.326900482101</v>
+        <v>310388.17715644802</v>
       </c>
       <c r="H16">
-        <v>12211.763858795101</v>
+        <v>11361.733675003001</v>
       </c>
       <c r="I16">
-        <v>43509.054660797097</v>
+        <v>21735.137701034499</v>
       </c>
       <c r="J16">
-        <v>86816.240549087495</v>
+        <v>343485.116720199</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>76128.954887389904</v>
+        <v>354057.26432800252</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>76.128954887389909</v>
+        <v>354.05726432800253</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="B17">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>32336.477279662999</v>
+        <v>31893.555402755701</v>
       </c>
       <c r="F17">
-        <v>519.07086372375397</v>
+        <v>513.846397399902</v>
       </c>
       <c r="G17">
-        <v>27561.1128807067</v>
+        <v>307010.082006454</v>
       </c>
       <c r="H17">
-        <v>12535.2618694305</v>
+        <v>11520.0247764587</v>
       </c>
       <c r="I17">
-        <v>55409.328699111902</v>
+        <v>26801.335096359198</v>
       </c>
       <c r="J17">
-        <v>95505.797147750796</v>
+        <v>345331.50982856698</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>72432.852029800197</v>
+        <v>350423.66218566836</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>72.432852029800202</v>
+        <v>350.42366218566838</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="B18">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>32698.081493377598</v>
+        <v>32590.940713882399</v>
       </c>
       <c r="F18">
-        <v>510.933399200439</v>
+        <v>521.17824554443303</v>
       </c>
       <c r="G18">
-        <v>28536.5149974823</v>
+        <v>320670.65548896702</v>
       </c>
       <c r="H18">
-        <v>11529.7079086303</v>
+        <v>11885.4286670684</v>
       </c>
       <c r="I18">
-        <v>147270.21646499599</v>
+        <v>22335.819005966099</v>
       </c>
       <c r="J18">
-        <v>187336.53521537699</v>
+        <v>354891.96133613499</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>72764.304399490196</v>
+        <v>365147.02486991783</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>72.7643043994902</v>
+        <v>365.14702486991786</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>100</v>
+        <v>23013804</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>23013804</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>32207.461118698098</v>
+        <v>31672.7592945098</v>
       </c>
       <c r="F19">
-        <v>524.06525611877396</v>
+        <v>517.88258552551201</v>
       </c>
       <c r="G19">
-        <v>146401.656150817</v>
+        <v>313529.567241668</v>
       </c>
       <c r="H19">
-        <v>5759.5164775848298</v>
+        <v>11194.147825241</v>
       </c>
       <c r="I19">
-        <v>7374.0711212158203</v>
+        <v>23240.670680999701</v>
       </c>
       <c r="J19">
-        <v>159535.32123565601</v>
+        <v>347964.46394920303</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>184368.63374709993</v>
+        <v>356396.47436141875</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>184.36863374709992</v>
+        <v>356.39647436141877</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B20">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>32329.650640487602</v>
+        <v>32487.617492675701</v>
       </c>
       <c r="F20">
-        <v>514.95981216430596</v>
+        <v>509.35792922973599</v>
       </c>
       <c r="G20">
-        <v>25745.483160018899</v>
+        <v>86775.616407394395</v>
       </c>
       <c r="H20">
-        <v>5755.4507255554199</v>
+        <v>11790.1177406311</v>
       </c>
       <c r="I20">
-        <v>2864.5281791686998</v>
+        <v>34878.119230270298</v>
       </c>
       <c r="J20">
-        <v>34365.540981292703</v>
+        <v>133443.95208358701</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>63830.584526061924</v>
+        <v>131053.35164070121</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>63.830584526061926</v>
+        <v>131.05335164070121</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B21">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>31852.299928665099</v>
+        <v>32821.864128112698</v>
       </c>
       <c r="F21">
-        <v>510.40959358215298</v>
+        <v>515.94781875610295</v>
       </c>
       <c r="G21">
-        <v>19417.619466781602</v>
+        <v>31095.326900482101</v>
       </c>
       <c r="H21">
-        <v>6272.4184989929199</v>
+        <v>12211.763858795101</v>
       </c>
       <c r="I21">
-        <v>2868.77417564392</v>
+        <v>43509.054660797097</v>
       </c>
       <c r="J21">
-        <v>28558.894157409599</v>
+        <v>86816.240549087495</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>57542.337894439625</v>
+        <v>76128.954887389904</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>57.542337894439626</v>
+        <v>76.128954887389909</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B22">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
-        <v>32491.995811462399</v>
+        <v>32336.477279662999</v>
       </c>
       <c r="F22">
-        <v>515.66100120544399</v>
+        <v>519.07086372375397</v>
       </c>
       <c r="G22">
-        <v>20076.274156570398</v>
+        <v>27561.1128807067</v>
       </c>
       <c r="H22">
-        <v>6097.89943695068</v>
+        <v>12535.2618694305</v>
       </c>
       <c r="I22">
-        <v>2875.4899501800501</v>
+        <v>55409.328699111902</v>
       </c>
       <c r="J22">
-        <v>29049.742221832199</v>
+        <v>95505.797147750796</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>58666.169404983477</v>
+        <v>72432.852029800197</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>58.666169404983478</v>
+        <v>72.432852029800202</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="B23">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23">
-        <v>33111.739158630298</v>
+        <v>32698.081493377598</v>
       </c>
       <c r="F23">
-        <v>518.01586151123001</v>
+        <v>510.933399200439</v>
       </c>
       <c r="G23">
-        <v>21285.716772079399</v>
+        <v>28536.5149974823</v>
       </c>
       <c r="H23">
-        <v>5746.9840049743598</v>
+        <v>11529.7079086303</v>
       </c>
       <c r="I23">
-        <v>2880.8019161224302</v>
+        <v>147270.21646499599</v>
       </c>
       <c r="J23">
-        <v>29913.5887622833</v>
+        <v>187336.53521537699</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>60144.439935684051</v>
+        <v>72764.304399490196</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>60.144439935684055</v>
+        <v>72.7643043994902</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23013804</v>
-      </c>
-      <c r="B24">
-        <v>23013804</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>32938.506126403801</v>
-      </c>
-      <c r="F24">
-        <v>524.02877807617097</v>
-      </c>
-      <c r="G24">
-        <v>23197.268247604301</v>
-      </c>
-      <c r="H24">
-        <v>5754.7702789306604</v>
-      </c>
-      <c r="I24">
-        <v>2888.5979652404699</v>
-      </c>
-      <c r="J24">
-        <v>31841.180801391602</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
-        <v>61890.54465293877</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>61.890544652938772</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>100</v>
-      </c>
-      <c r="B25">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25">
-        <v>33031.470298767003</v>
-      </c>
-      <c r="F25">
-        <v>486.01484298705998</v>
-      </c>
-      <c r="G25">
-        <v>222313.97151947001</v>
-      </c>
-      <c r="H25">
-        <v>11537.521600723199</v>
-      </c>
-      <c r="I25">
-        <v>80204.572200775103</v>
-      </c>
-      <c r="J25">
-        <v>314056.14852905198</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>266882.96341896022</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>266.88296341896023</v>
+        <v>23013804</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B26">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>32631.1166286468</v>
+        <v>32207.461118698098</v>
       </c>
       <c r="F26">
-        <v>353.28149795532198</v>
+        <v>524.06525611877396</v>
       </c>
       <c r="G26">
-        <v>137901.57556533799</v>
+        <v>146401.656150817</v>
       </c>
       <c r="H26">
-        <v>11588.172674179001</v>
+        <v>5759.5164775848298</v>
       </c>
       <c r="I26">
-        <v>77377.546548843296</v>
+        <v>7374.0711212158203</v>
       </c>
       <c r="J26">
-        <v>226867.37537384001</v>
+        <v>159535.32123565601</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>182120.86486816377</v>
+        <v>184368.63374709993</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>182.12086486816378</v>
+        <v>184.36863374709992</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B27">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>32260.9968185424</v>
+        <v>32329.650640487602</v>
       </c>
       <c r="F27">
-        <v>349.37429428100501</v>
+        <v>514.95981216430596</v>
       </c>
       <c r="G27">
-        <v>132718.55926513599</v>
+        <v>25745.483160018899</v>
       </c>
       <c r="H27">
-        <v>11627.1803379058</v>
+        <v>5755.4507255554199</v>
       </c>
       <c r="I27">
-        <v>77568.280220031695</v>
+        <v>2864.5281791686998</v>
       </c>
       <c r="J27">
-        <v>221914.10136222799</v>
+        <v>34365.540981292703</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>176606.73642158418</v>
+        <v>63830.584526061924</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>176.60673642158417</v>
+        <v>63.830584526061926</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B28">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>31644.3789005279</v>
+        <v>31852.299928665099</v>
       </c>
       <c r="F28">
-        <v>353.84082794189402</v>
+        <v>510.40959358215298</v>
       </c>
       <c r="G28">
-        <v>132725.21162033</v>
+        <v>19417.619466781602</v>
       </c>
       <c r="H28">
-        <v>12267.6079273223</v>
+        <v>6272.4184989929199</v>
       </c>
       <c r="I28">
-        <v>79609.870195388794</v>
+        <v>2868.77417564392</v>
       </c>
       <c r="J28">
-        <v>224602.76794433501</v>
+        <v>28558.894157409599</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>176637.19844818019</v>
+        <v>57542.337894439625</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>176.63719844818019</v>
+        <v>57.542337894439626</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E29">
-        <v>32631.049633026101</v>
+        <v>32491.995811462399</v>
       </c>
       <c r="F29">
-        <v>350.80242156982399</v>
+        <v>515.66100120544399</v>
       </c>
       <c r="G29">
-        <v>140875.21004676801</v>
+        <v>20076.274156570398</v>
       </c>
       <c r="H29">
-        <v>12488.403081893901</v>
+        <v>6097.89943695068</v>
       </c>
       <c r="I29">
-        <v>77229.883909225406</v>
+        <v>2875.4899501800501</v>
       </c>
       <c r="J29">
-        <v>230593.57929229701</v>
+        <v>29049.742221832199</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>185994.662761688</v>
+        <v>58666.169404983477</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>185.99466276168801</v>
+        <v>58.666169404983478</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="B30">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30">
-        <v>32474.865674972501</v>
+        <v>33111.739158630298</v>
       </c>
       <c r="F30">
-        <v>351.69911384582502</v>
+        <v>518.01586151123001</v>
       </c>
       <c r="G30">
-        <v>86760.405540466294</v>
+        <v>21285.716772079399</v>
       </c>
       <c r="H30">
-        <v>11674.1948127746</v>
+        <v>5746.9840049743598</v>
       </c>
       <c r="I30">
-        <v>76421.819210052403</v>
+        <v>2880.8019161224302</v>
       </c>
       <c r="J30">
-        <v>174856.493711471</v>
+        <v>29913.5887622833</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>130909.4660282134</v>
+        <v>60144.439935684051</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>130.90946602821342</v>
+        <v>60.144439935684055</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>10000</v>
+        <v>23013804</v>
       </c>
       <c r="B31">
-        <v>10000</v>
+        <v>23013804</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>32056.655406951901</v>
+        <v>32938.506126403801</v>
       </c>
       <c r="F31">
-        <v>355.12161254882801</v>
+        <v>524.02877807617097</v>
       </c>
       <c r="G31">
-        <v>81900.598764419497</v>
+        <v>23197.268247604301</v>
       </c>
       <c r="H31">
-        <v>11595.5085754394</v>
+        <v>5754.7702789306604</v>
       </c>
       <c r="I31">
-        <v>77213.452339172305</v>
+        <v>2888.5979652404699</v>
       </c>
       <c r="J31">
-        <v>170709.65814590399</v>
+        <v>31841.180801391602</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>125552.7627468108</v>
+        <v>61890.54465293877</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>125.5527627468108</v>
+        <v>61.890544652938772</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -9306,33 +9155,33 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>31748.6510276794</v>
+        <v>33031.470298767003</v>
       </c>
       <c r="F32">
-        <v>351.016998291015</v>
+        <v>486.01484298705998</v>
       </c>
       <c r="G32">
-        <v>489383.63814353902</v>
+        <v>222313.97151947001</v>
       </c>
       <c r="H32">
-        <v>11428.7254810333</v>
+        <v>11537.521600723199</v>
       </c>
       <c r="I32">
-        <v>20185.302734375</v>
+        <v>80204.572200775103</v>
       </c>
       <c r="J32">
-        <v>520997.73669242801</v>
+        <v>314056.14852905198</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>532561.01465225173</v>
+        <v>266882.96341896022</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>532.56101465225174</v>
+        <v>266.88296341896023</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -9346,33 +9195,33 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33">
-        <v>31490.450143814</v>
+        <v>32631.1166286468</v>
       </c>
       <c r="F33">
-        <v>357.664346694946</v>
+        <v>353.28149795532198</v>
       </c>
       <c r="G33">
-        <v>353568.06349754299</v>
+        <v>137901.57556533799</v>
       </c>
       <c r="H33">
-        <v>12494.637727737399</v>
+        <v>11588.172674179001</v>
       </c>
       <c r="I33">
-        <v>20684.649705886801</v>
+        <v>77377.546548843296</v>
       </c>
       <c r="J33">
-        <v>386747.41315841599</v>
+        <v>226867.37537384001</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>397553.15136909438</v>
+        <v>182120.86486816377</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>397.55315136909439</v>
+        <v>182.12086486816378</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -9386,33 +9235,33 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>31734.614610671899</v>
+        <v>32260.9968185424</v>
       </c>
       <c r="F34">
-        <v>354.36725616454999</v>
+        <v>349.37429428100501</v>
       </c>
       <c r="G34">
-        <v>290535.071849823</v>
+        <v>132718.55926513599</v>
       </c>
       <c r="H34">
-        <v>11297.997474670399</v>
+        <v>11627.1803379058</v>
       </c>
       <c r="I34">
-        <v>17363.002777099598</v>
+        <v>77568.280220031695</v>
       </c>
       <c r="J34">
-        <v>319196.13051414402</v>
+        <v>221914.10136222799</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>333567.68393516529</v>
+        <v>176606.73642158418</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>333.56768393516529</v>
+        <v>176.60673642158417</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -9426,114 +9275,44 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35">
-        <v>31464.910984039299</v>
+        <v>31644.3789005279</v>
       </c>
       <c r="F35">
-        <v>359.89475250244101</v>
+        <v>353.84082794189402</v>
       </c>
       <c r="G35">
-        <v>287162.88757324201</v>
+        <v>132725.21162033</v>
       </c>
       <c r="H35">
-        <v>11902.560234069801</v>
+        <v>12267.6079273223</v>
       </c>
       <c r="I35">
-        <v>17398.2594013214</v>
+        <v>79609.870195388794</v>
       </c>
       <c r="J35">
-        <v>316463.77110481198</v>
+        <v>224602.76794433501</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>330530.35879135114</v>
+        <v>176637.19844818019</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>330.53035879135115</v>
+        <v>176.63719844818019</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1000000</v>
       </c>
-      <c r="B36">
-        <v>1000000</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36">
-        <v>31489.7973537445</v>
-      </c>
-      <c r="F36">
-        <v>354.93731498718199</v>
-      </c>
-      <c r="G36">
-        <v>295649.66344833298</v>
-      </c>
-      <c r="H36">
-        <v>11433.4557056427</v>
-      </c>
-      <c r="I36">
-        <v>17404.182910919099</v>
-      </c>
-      <c r="J36">
-        <v>324487.36715316703</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="1"/>
-        <v>338572.91650772019</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>338.57291650772021</v>
-      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>23013804</v>
       </c>
-      <c r="B37">
-        <v>23013804</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>31548.8107204437</v>
-      </c>
-      <c r="F37">
-        <v>354.87580299377402</v>
-      </c>
-      <c r="G37">
-        <v>294692.23976135202</v>
-      </c>
-      <c r="H37">
-        <v>12822.535037994299</v>
-      </c>
-      <c r="I37">
-        <v>15722.475051879799</v>
-      </c>
-      <c r="J37">
-        <v>323237.31780052098</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="1"/>
-        <v>339063.58551979007</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>339.06358551979008</v>
-      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
@@ -9546,33 +9325,33 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>31804.990291595401</v>
+        <v>32631.049633026101</v>
       </c>
       <c r="F38">
-        <v>353.75761985778797</v>
+        <v>350.80242156982399</v>
       </c>
       <c r="G38">
-        <v>85442.879438400196</v>
+        <v>140875.21004676801</v>
       </c>
       <c r="H38">
-        <v>12656.659364700299</v>
+        <v>12488.403081893901</v>
       </c>
       <c r="I38">
-        <v>161593.37282180699</v>
+        <v>77229.883909225406</v>
       </c>
       <c r="J38">
-        <v>259692.99697875901</v>
+        <v>230593.57929229701</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>129904.5290946959</v>
+        <v>185994.662761688</v>
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
-        <v>129.9045290946959</v>
+        <v>185.99466276168801</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -9586,33 +9365,33 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>31856.732368469198</v>
+        <v>32474.865674972501</v>
       </c>
       <c r="F39">
-        <v>359.15780067443802</v>
+        <v>351.69911384582502</v>
       </c>
       <c r="G39">
-        <v>29353.0533313751</v>
+        <v>86760.405540466294</v>
       </c>
       <c r="H39">
-        <v>11623.8505840301</v>
+        <v>11674.1948127746</v>
       </c>
       <c r="I39">
-        <v>171066.019535064</v>
+        <v>76421.819210052403</v>
       </c>
       <c r="J39">
-        <v>212043.03503036499</v>
+        <v>174856.493711471</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>72833.636283874395</v>
+        <v>130909.4660282134</v>
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
-        <v>72.833636283874398</v>
+        <v>130.90946602821342</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -9626,1478 +9405,1928 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>31766.862869262601</v>
+        <v>32056.655406951901</v>
       </c>
       <c r="F40">
-        <v>354.61926460266102</v>
+        <v>355.12161254882801</v>
       </c>
       <c r="G40">
-        <v>25435.345172882</v>
+        <v>81900.598764419497</v>
       </c>
       <c r="H40">
-        <v>12808.016061782801</v>
+        <v>11595.5085754394</v>
       </c>
       <c r="I40">
-        <v>184299.55768585199</v>
+        <v>77213.452339172305</v>
       </c>
       <c r="J40">
-        <v>222543.01023483201</v>
+        <v>170709.65814590399</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>70010.224103927409</v>
+        <v>125552.7627468108</v>
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
-        <v>70.010224103927413</v>
+        <v>125.5527627468108</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>100000</v>
       </c>
-      <c r="B41">
-        <v>100000</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41">
-        <v>32687.236070632898</v>
-      </c>
-      <c r="F41">
-        <v>352.33473777770899</v>
-      </c>
-      <c r="G41">
-        <v>25319.145202636701</v>
-      </c>
-      <c r="H41">
-        <v>11717.8115844726</v>
-      </c>
-      <c r="I41">
-        <v>273927.63233184803</v>
-      </c>
-      <c r="J41">
-        <v>310964.67399597098</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="1"/>
-        <v>69724.192857742193</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>69.724192857742196</v>
-      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>100</v>
-      </c>
-      <c r="B42">
-        <v>100</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42">
-        <v>31831.1705589294</v>
-      </c>
-      <c r="F42">
-        <v>350.24046897888098</v>
-      </c>
-      <c r="G42">
-        <v>125715.178489685</v>
-      </c>
-      <c r="H42">
-        <v>6087.5232219695999</v>
-      </c>
-      <c r="I42">
-        <v>7714.7519588470404</v>
-      </c>
-      <c r="J42">
-        <v>139517.54665374701</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="1"/>
-        <v>163633.87227058399</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>163.63387227058399</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1000</v>
-      </c>
-      <c r="B43">
-        <v>1000</v>
-      </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43">
-        <v>32379.880666732701</v>
-      </c>
-      <c r="F43">
-        <v>356.45914077758698</v>
-      </c>
-      <c r="G43">
-        <v>21073.047637939399</v>
-      </c>
-      <c r="H43">
-        <v>6072.5390911102204</v>
-      </c>
-      <c r="I43">
-        <v>2809.6852302551201</v>
-      </c>
-      <c r="J43">
-        <v>29955.364704132</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="1"/>
-        <v>59525.467395782318</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>59.525467395782321</v>
+        <v>23013804</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B44">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E44">
-        <v>32460.661172866799</v>
+        <v>31748.6510276794</v>
       </c>
       <c r="F44">
-        <v>360.262155532836</v>
+        <v>351.016998291015</v>
       </c>
       <c r="G44">
-        <v>9536.7140769958496</v>
+        <v>489383.63814353902</v>
       </c>
       <c r="H44">
-        <v>6147.5613117217999</v>
+        <v>11428.7254810333</v>
       </c>
       <c r="I44">
-        <v>2727.87380218505</v>
+        <v>20185.302734375</v>
       </c>
       <c r="J44">
-        <v>18412.2338294982</v>
+        <v>520997.73669242801</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>48144.936561584451</v>
+        <v>532561.01465225173</v>
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>48.144936561584451</v>
+        <v>532.56101465225174</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B45">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E45">
-        <v>33056.844234466502</v>
+        <v>31490.450143814</v>
       </c>
       <c r="F45">
-        <v>354.95424270629798</v>
+        <v>357.664346694946</v>
       </c>
       <c r="G45">
-        <v>8807.9926967620795</v>
+        <v>353568.06349754299</v>
       </c>
       <c r="H45">
-        <v>6150.9656906127902</v>
+        <v>12494.637727737399</v>
       </c>
       <c r="I45">
-        <v>2739.0089035034098</v>
+        <v>20684.649705886801</v>
       </c>
       <c r="J45">
-        <v>17698.052883148099</v>
+        <v>386747.41315841599</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>48015.802621841372</v>
+        <v>397553.15136909438</v>
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>48.015802621841374</v>
+        <v>397.55315136909439</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="B46">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E46">
-        <v>32519.9480056762</v>
+        <v>31734.614610671899</v>
       </c>
       <c r="F46">
-        <v>362.35046386718699</v>
+        <v>354.36725616454999</v>
       </c>
       <c r="G46">
-        <v>8945.8656311035102</v>
+        <v>290535.071849823</v>
       </c>
       <c r="H46">
-        <v>6138.0040645599302</v>
+        <v>11297.997474670399</v>
       </c>
       <c r="I46">
-        <v>2819.6842670440601</v>
+        <v>17363.002777099598</v>
       </c>
       <c r="J46">
-        <v>17903.647661209099</v>
+        <v>319196.13051414402</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>47603.817701339642</v>
+        <v>333567.68393516529</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>47.603817701339644</v>
+        <v>333.56768393516529</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>23013804</v>
+        <v>100000</v>
       </c>
       <c r="B47">
-        <v>23013804</v>
+        <v>100000</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E47">
-        <v>32705.9636116027</v>
+        <v>31464.910984039299</v>
       </c>
       <c r="F47">
-        <v>359.54332351684502</v>
+        <v>359.89475250244101</v>
       </c>
       <c r="G47">
-        <v>10690.6940937042</v>
+        <v>287162.88757324201</v>
       </c>
       <c r="H47">
-        <v>7276.0715484619104</v>
+        <v>11902.560234069801</v>
       </c>
       <c r="I47">
-        <v>2749.8819828033402</v>
+        <v>17398.2594013214</v>
       </c>
       <c r="J47">
-        <v>20717.008590698199</v>
+        <v>316463.77110481198</v>
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>50672.729253768804</v>
+        <v>330530.35879135114</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>50.672729253768807</v>
+        <v>330.53035879135115</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E48">
-        <v>31753.586769104</v>
+        <v>31489.7973537445</v>
       </c>
       <c r="F48">
-        <v>360.33058166503901</v>
+        <v>354.93731498718199</v>
       </c>
       <c r="G48">
-        <v>7697503.5579204503</v>
+        <v>295649.66344833298</v>
       </c>
       <c r="H48">
-        <v>11437.8921985626</v>
+        <v>11433.4557056427</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>17404.182910919099</v>
       </c>
       <c r="J48">
-        <v>7708943.4971809303</v>
+        <v>324487.36715316703</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>7740695.036888117</v>
+        <v>338572.91650772019</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>7740.6950368881171</v>
+        <v>338.57291650772021</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1000</v>
+        <v>23013804</v>
       </c>
       <c r="B49">
-        <v>1000</v>
+        <v>23013804</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E49">
-        <v>32733.944892883301</v>
+        <v>31548.8107204437</v>
       </c>
       <c r="F49">
-        <v>363.92784118652298</v>
+        <v>354.87580299377402</v>
       </c>
       <c r="G49">
-        <v>777731.28914832999</v>
+        <v>294692.23976135202</v>
       </c>
       <c r="H49">
-        <v>11226.656913757301</v>
+        <v>12822.535037994299</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>15722.475051879799</v>
       </c>
       <c r="J49">
-        <v>788959.96928215004</v>
+        <v>323237.31780052098</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>821691.89095497061</v>
+        <v>339063.58551979007</v>
       </c>
       <c r="L49">
         <f t="shared" si="0"/>
-        <v>821.69189095497063</v>
+        <v>339.06358551979008</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B50">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E50">
-        <v>32623.8853931427</v>
+        <v>31804.990291595401</v>
       </c>
       <c r="F50">
-        <v>356.41813278198202</v>
+        <v>353.75761985778797</v>
       </c>
       <c r="G50">
-        <v>82996.402978897095</v>
+        <v>85442.879438400196</v>
       </c>
       <c r="H50">
-        <v>11631.3557624816</v>
+        <v>12656.659364700299</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>161593.37282180699</v>
       </c>
       <c r="J50">
-        <v>94629.777908325195</v>
+        <v>259692.99697875901</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>127251.6441345214</v>
+        <v>129904.5290946959</v>
       </c>
       <c r="L50">
         <f t="shared" si="0"/>
-        <v>127.2516441345214</v>
+        <v>129.9045290946959</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B51">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E51">
-        <v>33764.769554138104</v>
+        <v>31856.732368469198</v>
       </c>
       <c r="F51">
-        <v>367.769956588745</v>
+        <v>359.15780067443802</v>
       </c>
       <c r="G51">
-        <v>19919.158458709699</v>
+        <v>29353.0533313751</v>
       </c>
       <c r="H51">
-        <v>11670.9780693054</v>
+        <v>11623.8505840301</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>171066.019535064</v>
       </c>
       <c r="J51">
-        <v>31592.154741287199</v>
+        <v>212043.03503036499</v>
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>65354.906082153197</v>
+        <v>72833.636283874395</v>
       </c>
       <c r="L51">
         <f t="shared" si="0"/>
-        <v>65.354906082153192</v>
+        <v>72.833636283874398</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="B52">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>32506.458044052099</v>
+        <v>31766.862869262601</v>
       </c>
       <c r="F52">
-        <v>362.47730255126902</v>
+        <v>354.61926460266102</v>
       </c>
       <c r="G52">
-        <v>15362.378358840901</v>
+        <v>25435.345172882</v>
       </c>
       <c r="H52">
-        <v>11396.360158920201</v>
+        <v>12808.016061782801</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>184299.55768585199</v>
       </c>
       <c r="J52">
-        <v>26760.7460021972</v>
+        <v>222543.01023483201</v>
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>59265.196561813202</v>
+        <v>70010.224103927409</v>
       </c>
       <c r="L52">
         <f t="shared" si="0"/>
-        <v>59.265196561813205</v>
+        <v>70.010224103927413</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>23013804</v>
+        <v>100000</v>
       </c>
       <c r="B53">
-        <v>23013804</v>
+        <v>100000</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E53">
-        <v>32998.087406158404</v>
+        <v>32687.236070632898</v>
       </c>
       <c r="F53">
-        <v>362.52617835998501</v>
+        <v>352.33473777770899</v>
       </c>
       <c r="G53">
-        <v>14699.234962463301</v>
+        <v>25319.145202636701</v>
       </c>
       <c r="H53">
-        <v>11537.622451782199</v>
+        <v>11717.8115844726</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>273927.63233184803</v>
       </c>
       <c r="J53">
-        <v>26238.908767700101</v>
+        <v>310964.67399597098</v>
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>59234.9448204039</v>
+        <v>69724.192857742193</v>
       </c>
       <c r="L53">
         <f t="shared" si="0"/>
-        <v>59.234944820403904</v>
+        <v>69.724192857742196</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>100</v>
-      </c>
-      <c r="B54">
-        <v>100</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54">
-        <v>33027.121305465698</v>
-      </c>
-      <c r="F54">
-        <v>969.58589553832996</v>
-      </c>
-      <c r="G54">
-        <v>225674.62396621701</v>
-      </c>
-      <c r="H54">
-        <v>12622.3671436309</v>
-      </c>
-      <c r="I54">
-        <v>30689.526557922301</v>
-      </c>
-      <c r="J54">
-        <v>268986.62471771199</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="1"/>
-        <v>271324.1124153136</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>271.32411241531361</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1000</v>
-      </c>
-      <c r="B55">
-        <v>1000</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55">
-        <v>33063.8239383697</v>
-      </c>
-      <c r="F55">
-        <v>804.22496795654297</v>
-      </c>
-      <c r="G55">
-        <v>138611.507177352</v>
-      </c>
-      <c r="H55">
-        <v>11709.7313404083</v>
-      </c>
-      <c r="I55">
-        <v>28703.468561172402</v>
-      </c>
-      <c r="J55">
-        <v>179024.81222152701</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="1"/>
-        <v>183385.06245612999</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="0"/>
-        <v>183.38506245612999</v>
+        <v>23013804</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B56">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>31683.362245559601</v>
+        <v>31831.1705589294</v>
       </c>
       <c r="F56">
-        <v>808.14385414123501</v>
+        <v>350.24046897888098</v>
       </c>
       <c r="G56">
-        <v>133134.69076156599</v>
+        <v>125715.178489685</v>
       </c>
       <c r="H56">
-        <v>12337.4090194702</v>
+        <v>6087.5232219695999</v>
       </c>
       <c r="I56">
-        <v>28718.179941177299</v>
+        <v>7714.7519588470404</v>
       </c>
       <c r="J56">
-        <v>174190.36245345999</v>
+        <v>139517.54665374701</v>
       </c>
       <c r="K56">
         <f t="shared" si="1"/>
-        <v>177155.46202659578</v>
+        <v>163633.87227058399</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>177.15546202659579</v>
+        <v>163.63387227058399</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="B57">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E57">
-        <v>31759.205579757599</v>
+        <v>32379.880666732701</v>
       </c>
       <c r="F57">
-        <v>791.15533828735295</v>
+        <v>356.45914077758698</v>
       </c>
       <c r="G57">
-        <v>133013.81278037999</v>
+        <v>21073.047637939399</v>
       </c>
       <c r="H57">
-        <v>11731.1105728149</v>
+        <v>6072.5390911102204</v>
       </c>
       <c r="I57">
-        <v>28674.860000610301</v>
+        <v>2809.6852302551201</v>
       </c>
       <c r="J57">
-        <v>173419.88658905</v>
+        <v>29955.364704132</v>
       </c>
       <c r="K57">
         <f t="shared" si="1"/>
-        <v>176504.1289329525</v>
+        <v>59525.467395782318</v>
       </c>
       <c r="L57">
         <f t="shared" si="0"/>
-        <v>176.50412893295251</v>
+        <v>59.525467395782321</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B58">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>32830.086231231602</v>
+        <v>32460.661172866799</v>
       </c>
       <c r="F58">
-        <v>831.12215995788495</v>
+        <v>360.262155532836</v>
       </c>
       <c r="G58">
-        <v>144013.574361801</v>
+        <v>9536.7140769958496</v>
       </c>
       <c r="H58">
-        <v>11937.148571014401</v>
+        <v>6147.5613117217999</v>
       </c>
       <c r="I58">
-        <v>28757.561206817601</v>
+        <v>2727.87380218505</v>
       </c>
       <c r="J58">
-        <v>184708.36734771699</v>
+        <v>18412.2338294982</v>
       </c>
       <c r="K58">
         <f t="shared" si="1"/>
-        <v>188780.80916404701</v>
+        <v>48144.936561584451</v>
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>188.78080916404701</v>
+        <v>48.144936561584451</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="B59">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E59">
-        <v>32498.479366302399</v>
+        <v>33056.844234466502</v>
       </c>
       <c r="F59">
-        <v>786.485195159912</v>
+        <v>354.95424270629798</v>
       </c>
       <c r="G59">
-        <v>87199.940681457505</v>
+        <v>8807.9926967620795</v>
       </c>
       <c r="H59">
-        <v>11763.5436058044</v>
+        <v>6150.9656906127902</v>
       </c>
       <c r="I59">
-        <v>28892.692804336501</v>
+        <v>2739.0089035034098</v>
       </c>
       <c r="J59">
-        <v>127856.252670288</v>
+        <v>17698.052883148099</v>
       </c>
       <c r="K59">
         <f t="shared" si="1"/>
-        <v>131461.96365356431</v>
+        <v>48015.802621841372</v>
       </c>
       <c r="L59">
         <f t="shared" si="0"/>
-        <v>131.46196365356431</v>
+        <v>48.015802621841374</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="B60">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>33057.120323181101</v>
+        <v>32519.9480056762</v>
       </c>
       <c r="F60">
-        <v>782.09900856017998</v>
+        <v>362.35046386718699</v>
       </c>
       <c r="G60">
-        <v>82028.590202331499</v>
+        <v>8945.8656311035102</v>
       </c>
       <c r="H60">
-        <v>12554.106235504099</v>
+        <v>6138.0040645599302</v>
       </c>
       <c r="I60">
-        <v>28989.540815353299</v>
+        <v>2819.6842670440601</v>
       </c>
       <c r="J60">
-        <v>123572.316884994</v>
+        <v>17903.647661209099</v>
       </c>
       <c r="K60">
         <f t="shared" si="1"/>
-        <v>127639.8167610167</v>
+        <v>47603.817701339642</v>
       </c>
       <c r="L60">
         <f t="shared" si="0"/>
-        <v>127.6398167610167</v>
+        <v>47.603817701339644</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>100</v>
+        <v>23013804</v>
       </c>
       <c r="B61">
-        <v>100</v>
+        <v>23013804</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E61">
-        <v>32558.379650115901</v>
+        <v>32705.9636116027</v>
       </c>
       <c r="F61">
-        <v>767.20905303954999</v>
+        <v>359.54332351684502</v>
       </c>
       <c r="G61">
-        <v>566048.16126823402</v>
+        <v>10690.6940937042</v>
       </c>
       <c r="H61">
-        <v>11765.455484390201</v>
+        <v>7276.0715484619104</v>
       </c>
       <c r="I61">
-        <v>21400.2170562744</v>
+        <v>2749.8819828033402</v>
       </c>
       <c r="J61">
-        <v>599213.89722824097</v>
+        <v>20717.008590698199</v>
       </c>
       <c r="K61">
         <f t="shared" si="1"/>
-        <v>610371.99640274001</v>
+        <v>50672.729253768804</v>
       </c>
       <c r="L61">
         <f t="shared" si="0"/>
-        <v>610.37199640274002</v>
+        <v>50.672729253768807</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1000</v>
-      </c>
-      <c r="B62">
-        <v>1000</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62">
-        <v>31735.306024551301</v>
-      </c>
-      <c r="F62">
-        <v>794.49248313903797</v>
-      </c>
-      <c r="G62">
-        <v>352975.56471824599</v>
-      </c>
-      <c r="H62">
-        <v>11335.136890411301</v>
-      </c>
-      <c r="I62">
-        <v>21998.0232715606</v>
-      </c>
-      <c r="J62">
-        <v>386308.79306793201</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="1"/>
-        <v>396046.00763320859</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="0"/>
-        <v>396.0460076332086</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>10000</v>
-      </c>
-      <c r="B63">
-        <v>10000</v>
-      </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63">
-        <v>32027.0614624023</v>
-      </c>
-      <c r="F63">
-        <v>800.44102668762196</v>
-      </c>
-      <c r="G63">
-        <v>298578.71961593599</v>
-      </c>
-      <c r="H63">
-        <v>12027.2588729858</v>
-      </c>
-      <c r="I63">
-        <v>25422.1503734588</v>
-      </c>
-      <c r="J63">
-        <v>336028.19609642</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="1"/>
-        <v>342633.03995132406</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="0"/>
-        <v>342.63303995132406</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>100000</v>
-      </c>
-      <c r="B64">
-        <v>100000</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64">
-        <v>31813.008785247799</v>
-      </c>
-      <c r="F64">
-        <v>776.30782127380303</v>
-      </c>
-      <c r="G64">
-        <v>294612.62130737299</v>
-      </c>
-      <c r="H64">
-        <v>11346.9619750976</v>
-      </c>
-      <c r="I64">
-        <v>14851.0751724243</v>
-      </c>
-      <c r="J64">
-        <v>320810.71853637602</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="1"/>
-        <v>337772.59206771839</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="0"/>
-        <v>337.77259206771839</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1000000</v>
-      </c>
-      <c r="B65">
-        <v>1000000</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65">
-        <v>31723.8261699676</v>
-      </c>
-      <c r="F65">
-        <v>804.368495941162</v>
-      </c>
-      <c r="G65">
-        <v>304432.70850181498</v>
-      </c>
-      <c r="H65">
-        <v>11460.000753402701</v>
-      </c>
-      <c r="I65">
-        <v>22123.154640197699</v>
-      </c>
-      <c r="J65">
-        <v>338015.92779159499</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="1"/>
-        <v>347616.53542518528</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="0"/>
-        <v>347.6165354251853</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>23013804</v>
-      </c>
-      <c r="B66">
-        <v>23013804</v>
-      </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66">
-        <v>31709.247589111299</v>
-      </c>
-      <c r="F66">
-        <v>788.48934173583905</v>
-      </c>
-      <c r="G66">
-        <v>302808.95328521699</v>
-      </c>
-      <c r="H66">
-        <v>11461.472749709999</v>
-      </c>
-      <c r="I66">
-        <v>21560.3239536285</v>
-      </c>
-      <c r="J66">
-        <v>335830.82532882597</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="1"/>
-        <v>345979.67362403829</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="0"/>
-        <v>345.9796736240383</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>100</v>
-      </c>
-      <c r="B67">
-        <v>100</v>
-      </c>
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67">
-        <v>31774.1284370422</v>
-      </c>
-      <c r="F67">
-        <v>772.86696434020996</v>
-      </c>
-      <c r="G67">
-        <v>87015.641927719102</v>
-      </c>
-      <c r="H67">
-        <v>11864.535570144601</v>
-      </c>
-      <c r="I67">
-        <v>65892.7903175354</v>
-      </c>
-      <c r="J67">
-        <v>164773.06246757499</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="1"/>
-        <v>130654.30593490589</v>
-      </c>
-      <c r="L67">
-        <f t="shared" ref="L67:L76" si="2">PRODUCT(K67,0.001)</f>
-        <v>130.65430593490589</v>
+        <v>23013804</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
+        <v>100</v>
+      </c>
+      <c r="B68">
+        <v>100</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68">
+        <v>31753.586769104</v>
+      </c>
+      <c r="F68">
+        <v>360.33058166503901</v>
+      </c>
+      <c r="G68">
+        <v>7697503.5579204503</v>
+      </c>
+      <c r="H68">
+        <v>11437.8921985626</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>7708943.4971809303</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="1"/>
+        <v>7740695.036888117</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="0"/>
+        <v>7740.6950368881171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>1000</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>1000</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69">
+        <v>32733.944892883301</v>
+      </c>
+      <c r="F69">
+        <v>363.92784118652298</v>
+      </c>
+      <c r="G69">
+        <v>777731.28914832999</v>
+      </c>
+      <c r="H69">
+        <v>11226.656913757301</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>788959.96928215004</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="1"/>
+        <v>821691.89095497061</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="0"/>
+        <v>821.69189095497063</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>10000</v>
+      </c>
+      <c r="B70">
+        <v>10000</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70">
+        <v>32623.8853931427</v>
+      </c>
+      <c r="F70">
+        <v>356.41813278198202</v>
+      </c>
+      <c r="G70">
+        <v>82996.402978897095</v>
+      </c>
+      <c r="H70">
+        <v>11631.3557624816</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>94629.777908325195</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="1"/>
+        <v>127251.6441345214</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="0"/>
+        <v>127.2516441345214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>100000</v>
+      </c>
+      <c r="B71">
+        <v>100000</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71">
+        <v>33764.769554138104</v>
+      </c>
+      <c r="F71">
+        <v>367.769956588745</v>
+      </c>
+      <c r="G71">
+        <v>19919.158458709699</v>
+      </c>
+      <c r="H71">
+        <v>11670.9780693054</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>31592.154741287199</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="1"/>
+        <v>65354.906082153197</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="0"/>
+        <v>65.354906082153192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1000000</v>
+      </c>
+      <c r="B72">
+        <v>1000000</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72">
+        <v>32506.458044052099</v>
+      </c>
+      <c r="F72">
+        <v>362.47730255126902</v>
+      </c>
+      <c r="G72">
+        <v>15362.378358840901</v>
+      </c>
+      <c r="H72">
+        <v>11396.360158920201</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>26760.7460021972</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="1"/>
+        <v>59265.196561813202</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="0"/>
+        <v>59.265196561813205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>23013804</v>
+      </c>
+      <c r="B73">
+        <v>23013804</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73">
+        <v>32998.087406158404</v>
+      </c>
+      <c r="F73">
+        <v>362.52617835998501</v>
+      </c>
+      <c r="G73">
+        <v>14699.234962463301</v>
+      </c>
+      <c r="H73">
+        <v>11537.622451782199</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>26238.908767700101</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="1"/>
+        <v>59234.9448204039</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="0"/>
+        <v>59.234944820403904</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>100</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74" t="s">
         <v>18</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74">
+        <v>33027.121305465698</v>
+      </c>
+      <c r="F74">
+        <v>969.58589553832996</v>
+      </c>
+      <c r="G74">
+        <v>225674.62396621701</v>
+      </c>
+      <c r="H74">
+        <v>12622.3671436309</v>
+      </c>
+      <c r="I74">
+        <v>30689.526557922301</v>
+      </c>
+      <c r="J74">
+        <v>268986.62471771199</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="1"/>
+        <v>271324.1124153136</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="0"/>
+        <v>271.32411241531361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1000</v>
+      </c>
+      <c r="B75">
+        <v>1000</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>33063.8239383697</v>
+      </c>
+      <c r="F75">
+        <v>804.22496795654297</v>
+      </c>
+      <c r="G75">
+        <v>138611.507177352</v>
+      </c>
+      <c r="H75">
+        <v>11709.7313404083</v>
+      </c>
+      <c r="I75">
+        <v>28703.468561172402</v>
+      </c>
+      <c r="J75">
+        <v>179024.81222152701</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="1"/>
+        <v>183385.06245612999</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="0"/>
+        <v>183.38506245612999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>10000</v>
+      </c>
+      <c r="B76">
+        <v>10000</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76">
+        <v>31683.362245559601</v>
+      </c>
+      <c r="F76">
+        <v>808.14385414123501</v>
+      </c>
+      <c r="G76">
+        <v>133134.69076156599</v>
+      </c>
+      <c r="H76">
+        <v>12337.4090194702</v>
+      </c>
+      <c r="I76">
+        <v>28718.179941177299</v>
+      </c>
+      <c r="J76">
+        <v>174190.36245345999</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="1"/>
+        <v>177155.46202659578</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="0"/>
+        <v>177.15546202659579</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>100000</v>
+      </c>
+      <c r="B77">
+        <v>100000</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77">
+        <v>31759.205579757599</v>
+      </c>
+      <c r="F77">
+        <v>791.15533828735295</v>
+      </c>
+      <c r="G77">
+        <v>133013.81278037999</v>
+      </c>
+      <c r="H77">
+        <v>11731.1105728149</v>
+      </c>
+      <c r="I77">
+        <v>28674.860000610301</v>
+      </c>
+      <c r="J77">
+        <v>173419.88658905</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="1"/>
+        <v>176504.1289329525</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="0"/>
+        <v>176.50412893295251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>23013804</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>100</v>
+      </c>
+      <c r="B80">
+        <v>100</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80">
+        <v>32830.086231231602</v>
+      </c>
+      <c r="F80">
+        <v>831.12215995788495</v>
+      </c>
+      <c r="G80">
+        <v>144013.574361801</v>
+      </c>
+      <c r="H80">
+        <v>11937.148571014401</v>
+      </c>
+      <c r="I80">
+        <v>28757.561206817601</v>
+      </c>
+      <c r="J80">
+        <v>184708.36734771699</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="1"/>
+        <v>188780.80916404701</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="0"/>
+        <v>188.78080916404701</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1000</v>
+      </c>
+      <c r="B81">
+        <v>1000</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>32498.479366302399</v>
+      </c>
+      <c r="F81">
+        <v>786.485195159912</v>
+      </c>
+      <c r="G81">
+        <v>87199.940681457505</v>
+      </c>
+      <c r="H81">
+        <v>11763.5436058044</v>
+      </c>
+      <c r="I81">
+        <v>28892.692804336501</v>
+      </c>
+      <c r="J81">
+        <v>127856.252670288</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="1"/>
+        <v>131461.96365356431</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="0"/>
+        <v>131.46196365356431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>10000</v>
+      </c>
+      <c r="B82">
+        <v>10000</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82">
+        <v>33057.120323181101</v>
+      </c>
+      <c r="F82">
+        <v>782.09900856017998</v>
+      </c>
+      <c r="G82">
+        <v>82028.590202331499</v>
+      </c>
+      <c r="H82">
+        <v>12554.106235504099</v>
+      </c>
+      <c r="I82">
+        <v>28989.540815353299</v>
+      </c>
+      <c r="J82">
+        <v>123572.316884994</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="1"/>
+        <v>127639.8167610167</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="0"/>
+        <v>127.6398167610167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>23013804</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>100</v>
+      </c>
+      <c r="B86">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>32558.379650115901</v>
+      </c>
+      <c r="F86">
+        <v>767.20905303954999</v>
+      </c>
+      <c r="G86">
+        <v>566048.16126823402</v>
+      </c>
+      <c r="H86">
+        <v>11765.455484390201</v>
+      </c>
+      <c r="I86">
+        <v>21400.2170562744</v>
+      </c>
+      <c r="J86">
+        <v>599213.89722824097</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="1"/>
+        <v>610371.99640274001</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="0"/>
+        <v>610.37199640274002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1000</v>
+      </c>
+      <c r="B87">
+        <v>1000</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87">
+        <v>31735.306024551301</v>
+      </c>
+      <c r="F87">
+        <v>794.49248313903797</v>
+      </c>
+      <c r="G87">
+        <v>352975.56471824599</v>
+      </c>
+      <c r="H87">
+        <v>11335.136890411301</v>
+      </c>
+      <c r="I87">
+        <v>21998.0232715606</v>
+      </c>
+      <c r="J87">
+        <v>386308.79306793201</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="1"/>
+        <v>396046.00763320859</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="0"/>
+        <v>396.0460076332086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>10000</v>
+      </c>
+      <c r="B88">
+        <v>10000</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88">
+        <v>32027.0614624023</v>
+      </c>
+      <c r="F88">
+        <v>800.44102668762196</v>
+      </c>
+      <c r="G88">
+        <v>298578.71961593599</v>
+      </c>
+      <c r="H88">
+        <v>12027.2588729858</v>
+      </c>
+      <c r="I88">
+        <v>25422.1503734588</v>
+      </c>
+      <c r="J88">
+        <v>336028.19609642</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="1"/>
+        <v>342633.03995132406</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="0"/>
+        <v>342.63303995132406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>100000</v>
+      </c>
+      <c r="B89">
+        <v>100000</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89">
+        <v>31813.008785247799</v>
+      </c>
+      <c r="F89">
+        <v>776.30782127380303</v>
+      </c>
+      <c r="G89">
+        <v>294612.62130737299</v>
+      </c>
+      <c r="H89">
+        <v>11346.9619750976</v>
+      </c>
+      <c r="I89">
+        <v>14851.0751724243</v>
+      </c>
+      <c r="J89">
+        <v>320810.71853637602</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="1"/>
+        <v>337772.59206771839</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="0"/>
+        <v>337.77259206771839</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1000000</v>
+      </c>
+      <c r="B90">
+        <v>1000000</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90">
+        <v>31723.8261699676</v>
+      </c>
+      <c r="F90">
+        <v>804.368495941162</v>
+      </c>
+      <c r="G90">
+        <v>304432.70850181498</v>
+      </c>
+      <c r="H90">
+        <v>11460.000753402701</v>
+      </c>
+      <c r="I90">
+        <v>22123.154640197699</v>
+      </c>
+      <c r="J90">
+        <v>338015.92779159499</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="1"/>
+        <v>347616.53542518528</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="0"/>
+        <v>347.6165354251853</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>23013804</v>
+      </c>
+      <c r="B91">
+        <v>23013804</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91">
+        <v>31709.247589111299</v>
+      </c>
+      <c r="F91">
+        <v>788.48934173583905</v>
+      </c>
+      <c r="G91">
+        <v>302808.95328521699</v>
+      </c>
+      <c r="H91">
+        <v>11461.472749709999</v>
+      </c>
+      <c r="I91">
+        <v>21560.3239536285</v>
+      </c>
+      <c r="J91">
+        <v>335830.82532882597</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="1"/>
+        <v>345979.67362403829</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="0"/>
+        <v>345.9796736240383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>100</v>
+      </c>
+      <c r="B92">
+        <v>100</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
         <v>14</v>
       </c>
-      <c r="E68">
+      <c r="E92">
+        <v>31774.1284370422</v>
+      </c>
+      <c r="F92">
+        <v>772.86696434020996</v>
+      </c>
+      <c r="G92">
+        <v>87015.641927719102</v>
+      </c>
+      <c r="H92">
+        <v>11864.535570144601</v>
+      </c>
+      <c r="I92">
+        <v>65892.7903175354</v>
+      </c>
+      <c r="J92">
+        <v>164773.06246757499</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="1"/>
+        <v>130654.30593490589</v>
+      </c>
+      <c r="L92">
+        <f t="shared" ref="L92:L103" si="2">PRODUCT(K92,0.001)</f>
+        <v>130.65430593490589</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1000</v>
+      </c>
+      <c r="B93">
+        <v>1000</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93">
         <v>32215.3420448303</v>
       </c>
-      <c r="F68">
+      <c r="F93">
         <v>810.38188934326104</v>
       </c>
-      <c r="G68">
+      <c r="G93">
         <v>29381.168603897</v>
       </c>
-      <c r="H68">
+      <c r="H93">
         <v>11716.181516647301</v>
       </c>
-      <c r="I68">
+      <c r="I93">
         <v>76414.331912994297</v>
       </c>
-      <c r="J68">
+      <c r="J93">
         <v>117511.768817901</v>
       </c>
-      <c r="K68">
-        <f t="shared" ref="K68:K76" si="3">SUM(E68,G68,H68)</f>
+      <c r="K93">
+        <f t="shared" ref="K93:K103" si="3">SUM(E93,G93,H93)</f>
         <v>73312.692165374596</v>
       </c>
-      <c r="L68">
+      <c r="L93">
         <f t="shared" si="2"/>
         <v>73.3126921653746</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>10000</v>
       </c>
-      <c r="B69">
+      <c r="B94">
         <v>10000</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C94" t="s">
         <v>18</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D94" t="s">
         <v>14</v>
       </c>
-      <c r="E69">
+      <c r="E94">
         <v>32172.2917556762</v>
       </c>
-      <c r="F69">
+      <c r="F94">
         <v>787.91713714599598</v>
       </c>
-      <c r="G69">
+      <c r="G94">
         <v>25608.1247329711</v>
       </c>
-      <c r="H69">
+      <c r="H94">
         <v>11848.839521407999</v>
       </c>
-      <c r="I69">
+      <c r="I94">
         <v>87793.091058731006</v>
       </c>
-      <c r="J69">
+      <c r="J94">
         <v>125250.150203704</v>
       </c>
-      <c r="K69">
+      <c r="K94">
         <f t="shared" si="3"/>
         <v>69629.256010055295</v>
       </c>
-      <c r="L69">
+      <c r="L94">
         <f t="shared" si="2"/>
         <v>69.6292560100553</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>100000</v>
       </c>
-      <c r="B70">
+      <c r="B95">
         <v>100000</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C95" t="s">
         <v>18</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D95" t="s">
         <v>14</v>
       </c>
-      <c r="E70">
+      <c r="E95">
         <v>31822.870492935101</v>
       </c>
-      <c r="F70">
+      <c r="F95">
         <v>771.547555923461</v>
       </c>
-      <c r="G70">
+      <c r="G95">
         <v>25403.906822204499</v>
       </c>
-      <c r="H70">
+      <c r="H95">
         <v>11602.378606796199</v>
       </c>
-      <c r="I70">
+      <c r="I95">
         <v>179292.08254814101</v>
       </c>
-      <c r="J70">
+      <c r="J95">
         <v>216298.45309257499</v>
       </c>
-      <c r="K70">
+      <c r="K95">
         <f t="shared" si="3"/>
         <v>68829.155921935802</v>
       </c>
-      <c r="L70">
+      <c r="L95">
         <f t="shared" si="2"/>
         <v>68.829155921935808</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>23013804</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>100</v>
       </c>
-      <c r="B71">
+      <c r="B98">
         <v>100</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C98" t="s">
         <v>18</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D98" t="s">
         <v>15</v>
       </c>
-      <c r="E71">
+      <c r="E98">
         <v>31802.535057067798</v>
       </c>
-      <c r="F71">
+      <c r="F98">
         <v>800.26817321777298</v>
       </c>
-      <c r="G71">
+      <c r="G98">
         <v>143016.37172698899</v>
       </c>
-      <c r="H71">
+      <c r="H98">
         <v>6202.9273509979203</v>
       </c>
-      <c r="I71">
+      <c r="I98">
         <v>7915.4448509216299</v>
       </c>
-      <c r="J71">
+      <c r="J98">
         <v>157134.82356071399</v>
       </c>
-      <c r="K71">
+      <c r="K98">
         <f t="shared" si="3"/>
         <v>181021.83413505473</v>
       </c>
-      <c r="L71">
+      <c r="L98">
         <f t="shared" si="2"/>
         <v>181.02183413505472</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>1000</v>
       </c>
-      <c r="B72">
+      <c r="B99">
         <v>1000</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C99" t="s">
         <v>18</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D99" t="s">
         <v>15</v>
       </c>
-      <c r="E72">
+      <c r="E99">
         <v>32515.976667404098</v>
       </c>
-      <c r="F72">
+      <c r="F99">
         <v>774.70707893371502</v>
       </c>
-      <c r="G72">
+      <c r="G99">
         <v>24347.5573062896</v>
       </c>
-      <c r="H72">
+      <c r="H99">
         <v>6162.2684001922598</v>
       </c>
-      <c r="I72">
+      <c r="I99">
         <v>3106.1861515045098</v>
       </c>
-      <c r="J72">
+      <c r="J99">
         <v>33616.097688674898</v>
       </c>
-      <c r="K72">
+      <c r="K99">
         <f t="shared" si="3"/>
         <v>63025.802373885963</v>
       </c>
-      <c r="L72">
+      <c r="L99">
         <f t="shared" si="2"/>
         <v>63.025802373885966</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>10000</v>
       </c>
-      <c r="B73">
+      <c r="B100">
         <v>10000</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C100" t="s">
         <v>18</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D100" t="s">
         <v>15</v>
       </c>
-      <c r="E73">
+      <c r="E100">
         <v>32628.574609756401</v>
       </c>
-      <c r="F73">
+      <c r="F100">
         <v>777.14705467224098</v>
       </c>
-      <c r="G73">
+      <c r="G100">
         <v>16454.087734222401</v>
       </c>
-      <c r="H73">
+      <c r="H100">
         <v>6181.5173625945999</v>
       </c>
-      <c r="I73">
+      <c r="I100">
         <v>3151.3185501098601</v>
       </c>
-      <c r="J73">
+      <c r="J100">
         <v>25787.0182991027</v>
       </c>
-      <c r="K73">
+      <c r="K100">
         <f t="shared" si="3"/>
         <v>55264.179706573399</v>
       </c>
-      <c r="L73">
+      <c r="L100">
         <f t="shared" si="2"/>
         <v>55.264179706573401</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>100000</v>
       </c>
-      <c r="B74">
+      <c r="B101">
         <v>100000</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C101" t="s">
         <v>18</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D101" t="s">
         <v>15</v>
       </c>
-      <c r="E74">
+      <c r="E101">
         <v>32474.107742309501</v>
       </c>
-      <c r="F74">
+      <c r="F101">
         <v>779.42085266113202</v>
       </c>
-      <c r="G74">
+      <c r="G101">
         <v>17188.307285308802</v>
       </c>
-      <c r="H74">
+      <c r="H101">
         <v>6206.86793327331</v>
       </c>
-      <c r="I74">
+      <c r="I101">
         <v>3053.3928871154699</v>
       </c>
-      <c r="J74">
+      <c r="J101">
         <v>26448.655128479</v>
       </c>
-      <c r="K74">
+      <c r="K101">
         <f t="shared" si="3"/>
         <v>55869.282960891614</v>
       </c>
-      <c r="L74">
+      <c r="L101">
         <f t="shared" si="2"/>
         <v>55.869282960891617</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>1000000</v>
       </c>
-      <c r="B75">
+      <c r="B102">
         <v>1000000</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C102" t="s">
         <v>18</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D102" t="s">
         <v>15</v>
       </c>
-      <c r="E75">
+      <c r="E102">
         <v>33061.582326889002</v>
       </c>
-      <c r="F75">
+      <c r="F102">
         <v>785.16221046447697</v>
       </c>
-      <c r="G75">
+      <c r="G102">
         <v>19133.897304534901</v>
       </c>
-      <c r="H75">
+      <c r="H102">
         <v>6257.93480873107</v>
       </c>
-      <c r="I75">
+      <c r="I102">
         <v>3051.4671802520702</v>
       </c>
-      <c r="J75">
+      <c r="J102">
         <v>28443.382024765</v>
       </c>
-      <c r="K75">
+      <c r="K102">
         <f t="shared" si="3"/>
         <v>58453.414440154978</v>
       </c>
-      <c r="L75">
+      <c r="L102">
         <f t="shared" si="2"/>
         <v>58.45341444015498</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>23013804</v>
       </c>
-      <c r="B76">
+      <c r="B103">
         <v>23013804</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C103" t="s">
         <v>18</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D103" t="s">
         <v>15</v>
       </c>
-      <c r="E76">
+      <c r="E103">
         <v>32783.8680744171</v>
       </c>
-      <c r="F76">
+      <c r="F103">
         <v>776.19194984436001</v>
       </c>
-      <c r="G76">
+      <c r="G103">
         <v>20955.0578594207</v>
       </c>
-      <c r="H76">
+      <c r="H103">
         <v>6312.9024505615198</v>
       </c>
-      <c r="I76">
+      <c r="I103">
         <v>3106.4872741699201</v>
       </c>
-      <c r="J76">
+      <c r="J103">
         <v>30375.0338554382</v>
       </c>
-      <c r="K76">
+      <c r="K103">
         <f t="shared" si="3"/>
         <v>60051.828384399327</v>
       </c>
-      <c r="L76">
+      <c r="L103">
         <f t="shared" si="2"/>
         <v>60.051828384399329</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L76">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="L2:L103">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11108,8 +11337,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G76">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G2:G103">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11129,7 +11358,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11157,51 +11386,63 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>46.59</v>
-      </c>
-      <c r="C3">
-        <v>56.96</v>
-      </c>
-      <c r="D3">
-        <v>45.95</v>
-      </c>
-      <c r="E3">
-        <v>44.64</v>
+      <c r="B3" s="1">
+        <f>MIN('10_trees'!L2:'10_trees'!L7)</f>
+        <v>46.588900089263817</v>
+      </c>
+      <c r="C3" s="1">
+        <f>MIN('10_trees'!L8:'10_trees'!L13)</f>
+        <v>46.957735776901124</v>
+      </c>
+      <c r="D3" s="1">
+        <f>MIN('10_trees'!L20:'10_trees'!L25)</f>
+        <v>45.945363283157256</v>
+      </c>
+      <c r="E3" s="1">
+        <f>MIN('10_trees'!L26:'10_trees'!L31)</f>
+        <v>44.644665479660013</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
-      <c r="B4">
-        <v>87.26</v>
-      </c>
-      <c r="C4">
-        <v>71.86</v>
-      </c>
-      <c r="D4">
-        <v>53.45</v>
-      </c>
-      <c r="E4">
-        <v>45.12</v>
+      <c r="B4" s="1">
+        <f>MIN('500_trees'!L2:'500_trees'!L7)</f>
+        <v>87.255288362502895</v>
+      </c>
+      <c r="C4" s="1">
+        <f>MIN('500_trees'!L8:'500_trees'!L13)</f>
+        <v>71.86143803596481</v>
+      </c>
+      <c r="D4" s="1">
+        <f>MIN('500_trees'!L20:'500_trees'!L25)</f>
+        <v>53.451896667480419</v>
+      </c>
+      <c r="E4" s="1">
+        <f>MIN('500_trees'!L26:'500_trees'!L31)</f>
+        <v>45.118538618087669</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1600</v>
       </c>
-      <c r="B5">
-        <v>178.33</v>
-      </c>
-      <c r="C5">
-        <v>127.32</v>
-      </c>
-      <c r="D5">
-        <v>72.430000000000007</v>
-      </c>
-      <c r="E5">
-        <v>57.54</v>
+      <c r="B5" s="1">
+        <f>MIN('1600_trees'!L2:'1600_trees'!L7)</f>
+        <v>178.33080959320031</v>
+      </c>
+      <c r="C5" s="1">
+        <f>MIN('1600_trees'!L8:'1600_trees'!L13)</f>
+        <v>127.31808519363391</v>
+      </c>
+      <c r="D5" s="1">
+        <f>MIN('1600_trees'!L20:'1600_trees'!L25)</f>
+        <v>72.432852029800202</v>
+      </c>
+      <c r="E5" s="1">
+        <f>MIN('1600_trees'!L28:'1600_trees'!L33)</f>
+        <v>57.542337894439626</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -11230,60 +11471,78 @@
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>45.82</v>
-      </c>
-      <c r="C9">
-        <v>46.73</v>
-      </c>
-      <c r="D9">
-        <v>45.99</v>
-      </c>
-      <c r="E9">
-        <v>43.57</v>
-      </c>
-      <c r="G9">
-        <v>49.25</v>
+      <c r="B9" s="1">
+        <f>MIN('10_trees'!L32:'10_trees'!L37)</f>
+        <v>45.822473049163719</v>
+      </c>
+      <c r="C9" s="1">
+        <f>MIN('10_trees'!L38:'10_trees'!L43)</f>
+        <v>46.728768348693684</v>
+      </c>
+      <c r="D9" s="1">
+        <f>MIN('10_trees'!L50:'10_trees'!L55)</f>
+        <v>45.9850335121154</v>
+      </c>
+      <c r="E9" s="1">
+        <f>MIN('10_trees'!L56:'10_trees'!L61)</f>
+        <v>43.574426651000877</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <f>MIN('10_trees'!L68:'10_trees'!L73)</f>
+        <v>49.247249603271371</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
-      <c r="B10">
-        <v>85.76</v>
-      </c>
-      <c r="C10">
-        <v>72.45</v>
-      </c>
-      <c r="D10">
-        <v>52.78</v>
-      </c>
-      <c r="E10">
-        <v>43.12</v>
-      </c>
-      <c r="G10">
-        <v>53.28</v>
+      <c r="B10" s="1">
+        <f>MIN('500_trees'!L32:'500_trees'!L37)</f>
+        <v>85.755883693694898</v>
+      </c>
+      <c r="C10" s="1">
+        <f>MIN('500_trees'!L38:'500_trees'!L43)</f>
+        <v>72.449626445770107</v>
+      </c>
+      <c r="D10" s="1">
+        <f>MIN('500_trees'!L50:'500_trees'!L55)</f>
+        <v>52.779498338699256</v>
+      </c>
+      <c r="E10" s="1">
+        <f>MIN('500_trees'!L56:'500_trees'!L61)</f>
+        <v>43.132436513900679</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <f>MIN('500_trees'!L68:'500_trees'!L73)</f>
+        <v>53.278722286224301</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1600</v>
       </c>
-      <c r="B11">
-        <v>176.61</v>
-      </c>
-      <c r="C11">
-        <v>125.55</v>
-      </c>
-      <c r="D11">
-        <v>69.72</v>
-      </c>
-      <c r="E11">
-        <v>47.6</v>
-      </c>
-      <c r="G11">
-        <v>59.23</v>
+      <c r="B11" s="1">
+        <f>MIN('1600_trees'!L32:'1600_trees'!L37)</f>
+        <v>176.60673642158417</v>
+      </c>
+      <c r="C11" s="1">
+        <f>MIN('1600_trees'!L38:'1600_trees'!L43)</f>
+        <v>125.5527627468108</v>
+      </c>
+      <c r="D11" s="1">
+        <f>MIN('1600_trees'!L50:'1600_trees'!L55)</f>
+        <v>69.724192857742196</v>
+      </c>
+      <c r="E11" s="1">
+        <f>MIN('1600_trees'!L56:'1600_trees'!L61)</f>
+        <v>47.603817701339644</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <f>MIN('1600_trees'!L68:'1600_trees'!L73)</f>
+        <v>59.234944820403904</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -11309,54 +11568,67 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15">
-        <v>45.44</v>
-      </c>
-      <c r="C15">
-        <v>46.48</v>
-      </c>
-      <c r="D15">
-        <v>45.57</v>
-      </c>
-      <c r="E15">
-        <v>42.29</v>
+      <c r="B15" s="1">
+        <f>MIN('10_trees'!L74:'10_trees'!L79)</f>
+        <v>45.443762540817097</v>
+      </c>
+      <c r="C15" s="1">
+        <f>MIN('10_trees'!L80:'10_trees'!L85)</f>
+        <v>46.475845575332549</v>
+      </c>
+      <c r="D15" s="1">
+        <f>MIN('10_trees'!L92:'10_trees'!L97)</f>
+        <v>45.567111015319696</v>
+      </c>
+      <c r="E15" s="1">
+        <f>MIN('10_trees'!L98:'10_trees'!L103)</f>
+        <v>42.292098522186251</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>500</v>
       </c>
-      <c r="B16">
-        <v>85.86</v>
-      </c>
-      <c r="C16">
-        <v>73.09</v>
-      </c>
-      <c r="D16">
-        <v>53.22</v>
-      </c>
-      <c r="E16">
-        <v>45.93</v>
+      <c r="B16" s="1">
+        <f>MIN('500_trees'!L74:'500_trees'!L79)</f>
+        <v>85.861827135085903</v>
+      </c>
+      <c r="C16" s="1">
+        <f>MIN('500_trees'!L80:'500_trees'!L85)</f>
+        <v>73.0877263545988</v>
+      </c>
+      <c r="D16" s="1">
+        <f>MIN('500_trees'!L92:'500_trees'!L97)</f>
+        <v>53.220368623733449</v>
+      </c>
+      <c r="E16" s="1">
+        <f>MIN('500_trees'!L98:'500_trees'!L103)</f>
+        <v>45.928158044815014</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
-      <c r="B17">
-        <v>176.5</v>
-      </c>
-      <c r="C17">
-        <v>127.64</v>
-      </c>
-      <c r="D17">
-        <v>68.83</v>
-      </c>
-      <c r="E17">
-        <v>55.26</v>
+      <c r="B17" s="1">
+        <f>MIN('1600_trees'!L74:'1600_trees'!L79)</f>
+        <v>176.50412893295251</v>
+      </c>
+      <c r="C17" s="1">
+        <f>MIN('1600_trees'!L80:'1600_trees'!L85)</f>
+        <v>127.6398167610167</v>
+      </c>
+      <c r="D17" s="1">
+        <f>MIN('1600_trees'!L92:'1600_trees'!L97)</f>
+        <v>68.829155921935808</v>
+      </c>
+      <c r="E17" s="1">
+        <f>MIN('1600_trees'!L98:'1600_trees'!L103)</f>
+        <v>55.264179706573401</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/model-inference/decisionTree/experiments/gpu_results/airline_classification/airline.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/airline_classification/airline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\airline_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11D31CF-6CEC-41FB-B51F-B1D6650AAAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362136B6-D5F0-4391-B8CA-A23DE1C24072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="1464" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="1600_trees" sheetId="3" r:id="rId3"/>
     <sheet name="final" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="30">
   <si>
     <t>query size</t>
   </si>
@@ -135,8 +135,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -167,9 +168,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,6 +187,7019 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Airline Random forest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.588900089263817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.255288362502895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178.33080959320031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F925-4A91-AC03-56963447A54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.957735776901124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.86143803596481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.31808519363391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F925-4A91-AC03-56963447A54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.945363283157256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.451896667480419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.432852029800202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F925-4A91-AC03-56963447A54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44.644665479660013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.118538618087669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.542337894439626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F925-4A91-AC03-56963447A54F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="249305791"/>
+        <c:axId val="249306207"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="249305791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249306207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="249306207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="249305791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Airline</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> XGBoost Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.822473049163719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.755883693694898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176.60673642158417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E54-4141-84F1-F7EA489F84BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.728768348693684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.449626445770107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.5527627468108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E54-4141-84F1-F7EA489F84BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.9850335121154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.779498338699256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.724192857742196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E54-4141-84F1-F7EA489F84BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43.574426651000877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.132436513900679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.603817701339644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0E54-4141-84F1-F7EA489F84BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>49.247249603271371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.278722286224301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.234944820403904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0E54-4141-84F1-F7EA489F84BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="253054767"/>
+        <c:axId val="253055599"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-0E54-4141-84F1-F7EA489F84BC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="253054767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253055599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="253055599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253054767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Airline LightGBM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.443762540817097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.861827135085903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176.50412893295251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E852-4B77-B154-D9A5149E862F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.475845575332549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.0877263545988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.6398167610167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E852-4B77-B154-D9A5149E862F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.567111015319696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.220368623733449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.829155921935808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E852-4B77-B154-D9A5149E862F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>42.292098522186251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.928158044815014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.264179706573401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E852-4B77-B154-D9A5149E862F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="98789311"/>
+        <c:axId val="98787231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="98789311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98787231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98787231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98789311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Airline Randomforest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Inference</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$M$3:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2606.5807342529201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42928.526639938304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134662.603139877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7680-4716-8684-98A0C0498B01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$3:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2587.4750614166201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27752.2251605987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83269.255876541094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7680-4716-8684-98A0C0498B01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$3:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2244.62938308715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8865.3090000152497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27561.1128807067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7680-4716-8684-98A0C0498B01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$3:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3770.7247734069801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7183.4409236907904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19417.619466781602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7680-4716-8684-98A0C0498B01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="469771023"/>
+        <c:axId val="469777679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="469771023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469777679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="469777679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469771023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Airline XGBoost</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Inference</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2593.4402942657398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42181.621313094998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132718.55926513599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AF8-4026-97A0-201D328BFF4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2724.9677181243801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27644.911289215001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81900.598764419497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4AF8-4026-97A0-201D328BFF4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$9:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2210.9217643737702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8229.6619415283203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25319.145202636701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4AF8-4026-97A0-201D328BFF4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$9:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2995.82958221435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4463.0172252655002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8807.9926967620795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4AF8-4026-97A0-201D328BFF4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$R$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$R$9:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5467.1473503112702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8711.6389274597095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14699.234962463301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4AF8-4026-97A0-201D328BFF4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="469771855"/>
+        <c:axId val="469760623"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$Q$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$L$9:$L$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$Q$9:$Q$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-4AF8-4026-97A0-201D328BFF4D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="469771855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469760623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="469760623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469771855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Airline LightGBM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Inference</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$M$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2592.57960319519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42143.809556961001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133013.81278037999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B711-4CAE-8193-B5B72708BE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$15:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2724.1535186767501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27809.2818260192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82028.590202331499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B711-4CAE-8193-B5B72708BE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$15:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2206.1939239501899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8277.0864963531494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25403.906822204499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B711-4CAE-8193-B5B72708BE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$15:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3640.8133506774898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6758.6505413055402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16454.087734222401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B711-4CAE-8193-B5B72708BE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="469756047"/>
+        <c:axId val="469763951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="469756047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469763951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="469763951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="469756047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC589D75-B583-83AE-DAD0-998F6715E7C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB01455-0BC9-C8B4-48F7-110D52416434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA884996-4418-50AF-7458-3455DEA04502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8626950-A003-B2D4-FD4A-57D4A614E919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A98359-1B8D-B824-6B98-2CEF8663904D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6D909C-770B-6486-324F-898B61FF7888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4612,7 +11627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03253E-0D39-4936-AAA4-0033724B6785}">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="B51" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
@@ -11355,20 +18370,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -11381,8 +18399,20 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -11402,8 +18432,27 @@
         <f>MIN('10_trees'!L26:'10_trees'!L31)</f>
         <v>44.644665479660013</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1">
+        <f>MIN('10_trees'!G2:'10_trees'!G7)</f>
+        <v>2606.5807342529201</v>
+      </c>
+      <c r="N3" s="1">
+        <f>MIN('10_trees'!G8:'10_trees'!G13)</f>
+        <v>2587.4750614166201</v>
+      </c>
+      <c r="O3" s="1">
+        <f>MIN('10_trees'!G20:'10_trees'!G25)</f>
+        <v>2244.62938308715</v>
+      </c>
+      <c r="P3" s="1">
+        <f>MIN('10_trees'!G26:'10_trees'!G31)</f>
+        <v>3770.7247734069801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
@@ -11423,8 +18472,27 @@
         <f>MIN('500_trees'!L26:'500_trees'!L31)</f>
         <v>45.118538618087669</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="M4" s="1">
+        <f>MIN('500_trees'!G2:'500_trees'!G7)</f>
+        <v>42928.526639938304</v>
+      </c>
+      <c r="N4" s="1">
+        <f>MIN('500_trees'!G8:'500_trees'!G13)</f>
+        <v>27752.2251605987</v>
+      </c>
+      <c r="O4" s="1">
+        <f>MIN('500_trees'!G20:'500_trees'!G25)</f>
+        <v>8865.3090000152497</v>
+      </c>
+      <c r="P4" s="1">
+        <f>MIN('500_trees'!G26:'500_trees'!G31)</f>
+        <v>7183.4409236907904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1600</v>
       </c>
@@ -11444,13 +18512,35 @@
         <f>MIN('1600_trees'!L28:'1600_trees'!L33)</f>
         <v>57.542337894439626</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>1600</v>
+      </c>
+      <c r="M5" s="1">
+        <f>MIN('1600_trees'!G2:'1600_trees'!G7)</f>
+        <v>134662.603139877</v>
+      </c>
+      <c r="N5" s="1">
+        <f>MIN('1600_trees'!G8:'1600_trees'!G13)</f>
+        <v>83269.255876541094</v>
+      </c>
+      <c r="O5" s="1">
+        <f>MIN('1600_trees'!G20:'1600_trees'!G25)</f>
+        <v>27561.1128807067</v>
+      </c>
+      <c r="P5" s="1">
+        <f>MIN('1600_trees'!G28:'1600_trees'!G33)</f>
+        <v>19417.619466781602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -11466,8 +18556,23 @@
       <c r="G8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -11492,8 +18597,32 @@
         <f>MIN('10_trees'!L68:'10_trees'!L73)</f>
         <v>49.247249603271371</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
+        <f>MIN('10_trees'!G32:'10_trees'!G37)</f>
+        <v>2593.4402942657398</v>
+      </c>
+      <c r="N9" s="1">
+        <f>MIN('10_trees'!G38:'10_trees'!G43)</f>
+        <v>2724.9677181243801</v>
+      </c>
+      <c r="O9" s="1">
+        <f>MIN('10_trees'!G50:'10_trees'!G55)</f>
+        <v>2210.9217643737702</v>
+      </c>
+      <c r="P9" s="1">
+        <f>MIN('10_trees'!G56:'10_trees'!G61)</f>
+        <v>2995.82958221435</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1">
+        <f>MIN('10_trees'!G68:'10_trees'!G73)</f>
+        <v>5467.1473503112702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
@@ -11518,8 +18647,32 @@
         <f>MIN('500_trees'!L68:'500_trees'!L73)</f>
         <v>53.278722286224301</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>500</v>
+      </c>
+      <c r="M10" s="1">
+        <f>MIN('500_trees'!G32:'500_trees'!G37)</f>
+        <v>42181.621313094998</v>
+      </c>
+      <c r="N10" s="1">
+        <f>MIN('500_trees'!G38:'500_trees'!G43)</f>
+        <v>27644.911289215001</v>
+      </c>
+      <c r="O10" s="1">
+        <f>MIN('500_trees'!G50:'500_trees'!G55)</f>
+        <v>8229.6619415283203</v>
+      </c>
+      <c r="P10" s="1">
+        <f>MIN('500_trees'!G56:'500_trees'!G61)</f>
+        <v>4463.0172252655002</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1">
+        <f>MIN('500_trees'!G68:'500_trees'!G73)</f>
+        <v>8711.6389274597095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1600</v>
       </c>
@@ -11544,13 +18697,40 @@
         <f>MIN('1600_trees'!L68:'1600_trees'!L73)</f>
         <v>59.234944820403904</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>1600</v>
+      </c>
+      <c r="M11" s="1">
+        <f>MIN('1600_trees'!G32:'1600_trees'!G37)</f>
+        <v>132718.55926513599</v>
+      </c>
+      <c r="N11" s="1">
+        <f>MIN('1600_trees'!G38:'1600_trees'!G43)</f>
+        <v>81900.598764419497</v>
+      </c>
+      <c r="O11" s="1">
+        <f>MIN('1600_trees'!G50:'1600_trees'!G55)</f>
+        <v>25319.145202636701</v>
+      </c>
+      <c r="P11" s="1">
+        <f>MIN('1600_trees'!G56:'1600_trees'!G61)</f>
+        <v>8807.9926967620795</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1">
+        <f>MIN('1600_trees'!G68:'1600_trees'!G73)</f>
+        <v>14699.234962463301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -11563,8 +18743,20 @@
       <c r="E14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -11584,8 +18776,27 @@
         <f>MIN('10_trees'!L98:'10_trees'!L103)</f>
         <v>42.292098522186251</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1">
+        <f>MIN('10_trees'!G74:'10_trees'!G79)</f>
+        <v>2592.57960319519</v>
+      </c>
+      <c r="N15" s="1">
+        <f>MIN('10_trees'!G80:'10_trees'!G85)</f>
+        <v>2724.1535186767501</v>
+      </c>
+      <c r="O15" s="1">
+        <f>MIN('10_trees'!G92:'10_trees'!G97)</f>
+        <v>2206.1939239501899</v>
+      </c>
+      <c r="P15" s="1">
+        <f>MIN('10_trees'!G98:'10_trees'!G103)</f>
+        <v>3640.8133506774898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>500</v>
       </c>
@@ -11605,8 +18816,27 @@
         <f>MIN('500_trees'!L98:'500_trees'!L103)</f>
         <v>45.928158044815014</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>500</v>
+      </c>
+      <c r="M16" s="1">
+        <f>MIN('500_trees'!G74:'500_trees'!G79)</f>
+        <v>42143.809556961001</v>
+      </c>
+      <c r="N16" s="1">
+        <f>MIN('500_trees'!G80:'500_trees'!G85)</f>
+        <v>27809.2818260192</v>
+      </c>
+      <c r="O16" s="1">
+        <f>MIN('500_trees'!G92:'500_trees'!G97)</f>
+        <v>8277.0864963531494</v>
+      </c>
+      <c r="P16" s="1">
+        <f>MIN('500_trees'!G98:'500_trees'!G103)</f>
+        <v>6758.6505413055402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -11626,9 +18856,32 @@
         <f>MIN('1600_trees'!L98:'1600_trees'!L103)</f>
         <v>55.264179706573401</v>
       </c>
+      <c r="L17">
+        <v>1600</v>
+      </c>
+      <c r="M17" s="1">
+        <f>MIN('1600_trees'!G74:'1600_trees'!G79)</f>
+        <v>133013.81278037999</v>
+      </c>
+      <c r="N17" s="1">
+        <f>MIN('1600_trees'!G80:'1600_trees'!G85)</f>
+        <v>82028.590202331499</v>
+      </c>
+      <c r="O17" s="1">
+        <f>MIN('1600_trees'!G92:'1600_trees'!G97)</f>
+        <v>25403.906822204499</v>
+      </c>
+      <c r="P17" s="1">
+        <f>MIN('1600_trees'!G98:'1600_trees'!G103)</f>
+        <v>16454.087734222401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/model-inference/decisionTree/experiments/gpu_results/airline_classification/airline.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/airline_classification/airline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\airline_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362136B6-D5F0-4391-B8CA-A23DE1C24072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4392492-0A8D-473B-B40D-D50A784F2A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5988" yWindow="-372" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="31">
   <si>
     <t>query size</t>
   </si>
@@ -130,6 +130,9 @@
   <si>
     <t>pt(s)</t>
   </si>
+  <si>
+    <t>CPU</t>
+  </si>
 </sst>
 </file>
 
@@ -190,1773 +193,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Airline Random forest</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Total</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$3:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>46.588900089263817</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87.255288362502895</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>178.33080959320031</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F925-4A91-AC03-56963447A54F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$3:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>46.957735776901124</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.86143803596481</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127.31808519363391</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F925-4A91-AC03-56963447A54F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$3:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>45.945363283157256</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53.451896667480419</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>72.432852029800202</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F925-4A91-AC03-56963447A54F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$3:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>44.644665479660013</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45.118538618087669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>57.542337894439626</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F925-4A91-AC03-56963447A54F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="249305791"/>
-        <c:axId val="249306207"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="249305791"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="249306207"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="249306207"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="249305791"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Airline</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> XGBoost Total</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$9:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>45.822473049163719</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85.755883693694898</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176.60673642158417</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E54-4141-84F1-F7EA489F84BC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$9:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>46.728768348693684</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72.449626445770107</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>125.5527627468108</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E54-4141-84F1-F7EA489F84BC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$9:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>45.9850335121154</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52.779498338699256</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>69.724192857742196</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0E54-4141-84F1-F7EA489F84BC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$9:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>43.574426651000877</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43.132436513900679</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.603817701339644</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0E54-4141-84F1-F7EA489F84BC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$G$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Xgboost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$9:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$G$9:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>49.247249603271371</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53.278722286224301</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>59.234944820403904</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0E54-4141-84F1-F7EA489F84BC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="253054767"/>
-        <c:axId val="253055599"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$F$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1600</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-0E54-4141-84F1-F7EA489F84BC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="253054767"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="253055599"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="253055599"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="253054767"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Airline LightGBM</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Total</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-Pytorch</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$B$15:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>45.443762540817097</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>85.861827135085903</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176.50412893295251</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E852-4B77-B154-D9A5149E862F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$C$15:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>46.475845575332549</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>73.0877263545988</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127.6398167610167</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E852-4B77-B154-D9A5149E862F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HB-TVM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$D$15:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>45.567111015319696</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53.220368623733449</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>68.829155921935808</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E852-4B77-B154-D9A5149E862F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>final!$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>final!$A$15:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>final!$E$15:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>42.292098522186251</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45.928158044815014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55.264179706573401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E852-4B77-B154-D9A5149E862F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="98789311"/>
-        <c:axId val="98787231"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="98789311"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="98787231"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="98787231"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="98789311"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2061,6 +297,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>final!$L$3:$L$5</c:f>
@@ -2127,6 +421,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>final!$L$3:$L$5</c:f>
@@ -2193,6 +545,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>final!$L$3:$L$5</c:f>
@@ -2259,6 +669,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>final!$L$3:$L$5</c:f>
@@ -2302,8 +770,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2497,7 +966,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2602,6 +1071,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>final!$L$9:$L$11</c:f>
@@ -2668,6 +1195,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>final!$L$9:$L$11</c:f>
@@ -2734,6 +1319,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>final!$L$9:$L$11</c:f>
@@ -2800,6 +1443,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>final!$L$9:$L$11</c:f>
@@ -2866,6 +1567,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>final!$L$9:$L$11</c:f>
@@ -2909,8 +1668,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2950,6 +1710,64 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
@@ -3182,7 +2000,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3287,6 +2105,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>final!$L$15:$L$17</c:f>
@@ -3353,6 +2229,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>final!$L$15:$L$17</c:f>
@@ -3419,6 +2353,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>final!$L$15:$L$17</c:f>
@@ -3485,6 +2477,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>final!$L$15:$L$17</c:f>
@@ -3528,8 +2578,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -3644,6 +2695,3497 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="469756047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Airline</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Randomforest total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.588900089263817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.255288362502895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178.33080959320031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E33F-427B-B675-8BF78811A0DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.957735776901124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.86143803596481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.31808519363391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E33F-427B-B675-8BF78811A0DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.945363283157256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.451896667480419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.432852029800202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E33F-427B-B675-8BF78811A0DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44.644665479660013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.118538618087669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.542337894439626</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E33F-427B-B675-8BF78811A0DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>305.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E33F-427B-B675-8BF78811A0DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1306651215"/>
+        <c:axId val="1306660367"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$3:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$3:$F$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-E33F-427B-B675-8BF78811A0DF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$3:$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$3:$G$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-E33F-427B-B675-8BF78811A0DF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1306651215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1306660367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1306660367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1306651215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Airline XGBoost Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.822473049163719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.755883693694898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176.60673642158417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E44-4314-A1D2-1E8EEF2069B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.728768348693684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.449626445770107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.5527627468108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E44-4314-A1D2-1E8EEF2069B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.9850335121154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.779498338699256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.724192857742196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2E44-4314-A1D2-1E8EEF2069B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43.574426651000877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.132436513900679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.603817701339644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2E44-4314-A1D2-1E8EEF2069B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Xgboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>49.247249603271371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.278722286224301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.234944820403904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2E44-4314-A1D2-1E8EEF2069B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$9:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>287.10000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2E44-4314-A1D2-1E8EEF2069B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1306690319"/>
+        <c:axId val="1306690735"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$9:$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$9:$F$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-2E44-4314-A1D2-1E8EEF2069B9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1306690319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1306690735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1306690735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1306690319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Airline LightGBM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.443762540817097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.861827135085903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176.50412893295251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-081F-44EE-B8FA-BD5FDC5849E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.475845575332549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.0877263545988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.6398167610167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-081F-44EE-B8FA-BD5FDC5849E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45.567111015319696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.220368623733449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.829155921935808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-081F-44EE-B8FA-BD5FDC5849E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>42.292098522186251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.928158044815014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.264179706573401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-081F-44EE-B8FA-BD5FDC5849E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$15:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-081F-44EE-B8FA-BD5FDC5849E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1306663695"/>
+        <c:axId val="1306650383"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$15:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$F$15:$F$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-081F-44EE-B8FA-BD5FDC5849E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$A$15:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>final!$G$15:$G$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-081F-44EE-B8FA-BD5FDC5849E3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1306663695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1306650383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1306650383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1306663695"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6985,114 +9527,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC589D75-B583-83AE-DAD0-998F6715E7C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB01455-0BC9-C8B4-48F7-110D52416434}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA884996-4418-50AF-7458-3455DEA04502}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -7121,7 +9555,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7157,7 +9591,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7182,6 +9616,114 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6D909C-770B-6486-324F-898B61FF7888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D8F7FC-6F55-40D7-7C40-178440947CD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F6F7D1-452A-C198-1D5C-D65BDEEC78FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00AD60CB-FA83-3C89-84FB-9392A63C8695}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18372,8 +20914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18399,6 +20941,9 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
       <c r="M2" t="s">
         <v>21</v>
       </c>
@@ -18432,6 +20977,9 @@
         <f>MIN('10_trees'!L26:'10_trees'!L31)</f>
         <v>44.644665479660013</v>
       </c>
+      <c r="H3">
+        <v>60.7</v>
+      </c>
       <c r="L3">
         <v>10</v>
       </c>
@@ -18472,6 +21020,9 @@
         <f>MIN('500_trees'!L26:'500_trees'!L31)</f>
         <v>45.118538618087669</v>
       </c>
+      <c r="H4">
+        <v>146.19999999999999</v>
+      </c>
       <c r="L4">
         <v>500</v>
       </c>
@@ -18512,6 +21063,9 @@
         <f>MIN('1600_trees'!L28:'1600_trees'!L33)</f>
         <v>57.542337894439626</v>
       </c>
+      <c r="H5">
+        <v>305.5</v>
+      </c>
       <c r="L5">
         <v>1600</v>
       </c>
@@ -18555,6 +21109,9 @@
       </c>
       <c r="G8" t="s">
         <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
       </c>
       <c r="M8" t="s">
         <v>21</v>
@@ -18597,6 +21154,9 @@
         <f>MIN('10_trees'!L68:'10_trees'!L73)</f>
         <v>49.247249603271371</v>
       </c>
+      <c r="H9">
+        <v>59.2</v>
+      </c>
       <c r="L9">
         <v>10</v>
       </c>
@@ -18647,6 +21207,9 @@
         <f>MIN('500_trees'!L68:'500_trees'!L73)</f>
         <v>53.278722286224301</v>
       </c>
+      <c r="H10">
+        <v>137.80000000000001</v>
+      </c>
       <c r="L10">
         <v>500</v>
       </c>
@@ -18697,6 +21260,9 @@
         <f>MIN('1600_trees'!L68:'1600_trees'!L73)</f>
         <v>59.234944820403904</v>
       </c>
+      <c r="H11">
+        <v>287.10000000000002</v>
+      </c>
       <c r="L11">
         <v>1600</v>
       </c>
@@ -18743,6 +21309,9 @@
       <c r="E14" t="s">
         <v>24</v>
       </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
       <c r="M14" t="s">
         <v>21</v>
       </c>
@@ -18776,6 +21345,9 @@
         <f>MIN('10_trees'!L98:'10_trees'!L103)</f>
         <v>42.292098522186251</v>
       </c>
+      <c r="H15">
+        <v>58.8</v>
+      </c>
       <c r="L15">
         <v>10</v>
       </c>
@@ -18816,6 +21388,9 @@
         <f>MIN('500_trees'!L98:'500_trees'!L103)</f>
         <v>45.928158044815014</v>
       </c>
+      <c r="H16">
+        <v>98.8</v>
+      </c>
       <c r="L16">
         <v>500</v>
       </c>
@@ -18855,6 +21430,9 @@
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L98:'1600_trees'!L103)</f>
         <v>55.264179706573401</v>
+      </c>
+      <c r="H17">
+        <v>185</v>
       </c>
       <c r="L17">
         <v>1600</v>

--- a/model-inference/decisionTree/experiments/gpu_results/airline_classification/airline.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/airline_classification/airline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\airline_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4392492-0A8D-473B-B40D-D50A784F2A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C612717-4F63-45AE-9F2C-600EB3DF061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5988" yWindow="-372" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="32">
   <si>
     <t>query size</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>CPU</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -2962,13 +2965,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.588900089263817</c:v>
+                  <c:v>46.337956744592212</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.255288362502895</c:v>
+                  <c:v>86.640738088052302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>178.33080959320031</c:v>
+                  <c:v>178.3245092214749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3086,13 +3089,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.957735776901124</c:v>
+                  <c:v>46.727786857049516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.86143803596481</c:v>
+                  <c:v>71.659197884957791</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127.31808519363391</c:v>
+                  <c:v>127.19957955495599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3210,13 +3213,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45.945363283157256</c:v>
+                  <c:v>45.942891198556445</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.451896667480419</c:v>
+                  <c:v>53.154491740625012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.432852029800202</c:v>
+                  <c:v>72.36979134694819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3334,13 +3337,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44.644665479660013</c:v>
+                  <c:v>44.458604413430805</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.118538618087669</c:v>
+                  <c:v>45.215932208459478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.542337894439626</c:v>
+                  <c:v>57.993606406610112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3630,7 +3633,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$2</c15:sqref>
@@ -3690,7 +3693,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3712,7 +3715,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$A$3:$A$5</c15:sqref>
@@ -3736,7 +3739,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$3:$G$5</c15:sqref>
@@ -3749,7 +3752,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-E33F-427B-B675-8BF78811A0DF}"/>
                   </c:ext>
@@ -4125,13 +4128,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45.822473049163719</c:v>
+                  <c:v>46.461994248788429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.755883693694898</c:v>
+                  <c:v>86.128751832406479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176.60673642158417</c:v>
+                  <c:v>176.6493080438774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4249,13 +4252,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.728768348693684</c:v>
+                  <c:v>46.581592399041675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.449626445770107</c:v>
+                  <c:v>71.787981826226698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.5527627468108</c:v>
+                  <c:v>125.79967578069449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4373,13 +4376,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45.9850335121154</c:v>
+                  <c:v>46.214565116326888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.779498338699256</c:v>
+                  <c:v>52.620731192987037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.724192857742196</c:v>
+                  <c:v>69.340525227944894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4497,13 +4500,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>43.574426651000877</c:v>
+                  <c:v>44.141585904519673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.132436513900679</c:v>
+                  <c:v>43.034369307916272</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.603817701339644</c:v>
+                  <c:v>47.262526828210461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4621,13 +4624,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>49.247249603271371</c:v>
+                  <c:v>49.288450557153269</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.278722286224301</c:v>
+                  <c:v>53.245069819848602</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.234944820403904</c:v>
+                  <c:v>58.540425855081082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5285,13 +5288,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45.443762540817097</c:v>
+                  <c:v>46.245139199655085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.861827135085903</c:v>
+                  <c:v>86.201553183953791</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176.50412893295251</c:v>
+                  <c:v>177.0484917940305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5409,13 +5412,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.475845575332549</c:v>
+                  <c:v>46.370733577172842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.0877263545988</c:v>
+                  <c:v>72.195126372735487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127.6398167610167</c:v>
+                  <c:v>126.88626487867118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5533,13 +5536,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45.567111015319696</c:v>
+                  <c:v>46.223801452081275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.220368623733449</c:v>
+                  <c:v>52.516989308755441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.829155921935808</c:v>
+                  <c:v>69.309853869836289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5657,13 +5660,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>42.292098522186251</c:v>
+                  <c:v>42.219190198342915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.928158044815014</c:v>
+                  <c:v>45.447910148065205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.264179706573401</c:v>
+                  <c:v>54.939173537652586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5953,7 +5956,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$14</c15:sqref>
@@ -6013,7 +6016,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -6035,7 +6038,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$A$15:$A$17</c15:sqref>
@@ -6059,7 +6062,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>final!$G$15:$G$17</c15:sqref>
@@ -6072,7 +6075,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-081F-44EE-B8FA-BD5FDC5849E3}"/>
                   </c:ext>
@@ -10007,10 +10010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:L13"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10088,12 +10091,12 @@
         <v>226307.79361724801</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>251089.59341049119</v>
+        <f>SUM($E$105,G2,H2)</f>
+        <v>250646.43152372059</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>251.0895934104912</v>
+        <v>250.64643152372059</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -10128,12 +10131,12 @@
         <v>37441.178798675501</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM(E3,G3,H3)</f>
-        <v>65756.805658340309</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$105,G3,H3)</f>
+        <v>65756.842452447396</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="1">PRODUCT(K3,0.001)</f>
-        <v>65.756805658340312</v>
+        <v>65.756842452447401</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -10169,11 +10172,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>48338.52672576897</v>
+        <v>48580.394107263157</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>48.338526725768972</v>
+        <v>48.58039410726316</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -10209,11 +10212,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>46588.900089263814</v>
+        <v>46337.956744592208</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>46.588900089263817</v>
+        <v>46.337956744592212</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -10249,11 +10252,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>47162.418127059813</v>
+        <v>46860.516387383999</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>47.162418127059816</v>
+        <v>46.860516387384003</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -10289,11 +10292,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>48845.138549804622</v>
+        <v>47673.016148965413</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>48.845138549804624</v>
+        <v>47.673016148965417</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -10329,11 +10332,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>176566.96677207929</v>
+        <v>176349.50431005241</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>176.5669667720793</v>
+        <v>176.3495043100524</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -10369,11 +10372,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>59334.0828418729</v>
+        <v>60201.814490716388</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>59.334082841872899</v>
+        <v>60.201814490716387</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -10409,11 +10412,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>47882.322072982708</v>
+        <v>47698.751527230801</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>47.88232207298271</v>
+        <v>47.698751527230804</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -10449,11 +10452,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>47615.296840667681</v>
+        <v>47398.978549401872</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>47.615296840667682</v>
+        <v>47.398978549401875</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -10489,11 +10492,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>46957.735776901121</v>
+        <v>46727.786857049512</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>46.957735776901124</v>
+        <v>46.727786857049516</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -10529,11 +10532,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>47711.446762084925</v>
+        <v>47430.650073449709</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>47.711446762084925</v>
+        <v>47.430650073449712</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -10569,11 +10572,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>72124.968528747399</v>
+        <v>71778.416234414588</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>72.124968528747402</v>
+        <v>71.778416234414593</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -10609,11 +10612,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>57517.668485641305</v>
+        <v>57198.877650659095</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>57.517668485641309</v>
+        <v>57.198877650659099</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -10649,11 +10652,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>57278.313875198204</v>
+        <v>57088.843423287894</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>57.278313875198208</v>
+        <v>57.088843423287898</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -10689,11 +10692,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>52540.710210800156</v>
+        <v>53354.193765084856</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>52.540710210800157</v>
+        <v>53.354193765084858</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -10729,11 +10732,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>56173.669576644796</v>
+        <v>56745.691615502888</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>56.173669576644798</v>
+        <v>56.745691615502892</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -10769,11 +10772,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>57337.4712467192</v>
+        <v>58146.331149499383</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>57.337471246719204</v>
+        <v>58.146331149499382</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -10809,11 +10812,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>108208.05597305291</v>
+        <v>108153.89497892148</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>108.20805597305291</v>
+        <v>108.15389497892149</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10849,11 +10852,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>53006.514549255291</v>
+        <v>53605.579215447979</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>53.006514549255293</v>
+        <v>53.605579215447982</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10889,11 +10892,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>48842.433929443192</v>
+        <v>48771.59555570368</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>48.842433929443196</v>
+        <v>48.771595555703684</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -10929,11 +10932,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>46147.973775863589</v>
+        <v>46190.157014291377</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>46.147973775863591</v>
+        <v>46.19015701429138</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -10969,11 +10972,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>46101.127862930167</v>
+        <v>46239.00230542905</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>46.10112786293017</v>
+        <v>46.239002305429054</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -11009,11 +11012,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>45945.363283157254</v>
+        <v>45942.891198556441</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>45.945363283157256</v>
+        <v>45.942891198556445</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -11049,11 +11052,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>152601.80020332246</v>
+        <v>153305.25429860756</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>152.60180020332245</v>
+        <v>153.30525429860757</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -11089,11 +11092,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>52910.030841827349</v>
+        <v>53843.633014123538</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>52.91003084182735</v>
+        <v>53.84363301412354</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -11129,11 +11132,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>45198.522806167559</v>
+        <v>45860.200244348147</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>45.19852280616756</v>
+        <v>45.86020024434815</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -11169,11 +11172,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>44644.665479660012</v>
+        <v>44458.604413430803</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>44.644665479660013</v>
+        <v>44.458604413430805</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -11209,11 +11212,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>45092.133998870813</v>
+        <v>44580.82755224</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>45.092133998870814</v>
+        <v>44.580827552240002</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -11249,11 +11252,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>46667.626380920308</v>
+        <v>46576.528865258799</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>46.667626380920311</v>
+        <v>46.576528865258801</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -11289,11 +11292,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>263432.8756332394</v>
+        <v>263398.04943219875</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>263.43287563323941</v>
+        <v>263.39804943219877</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -11329,11 +11332,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>67683.781147002999</v>
+        <v>67504.928666512991</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>67.683781147003003</v>
+        <v>67.504928666512996</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -11369,11 +11372,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>48548.031330108497</v>
+        <v>48500.170308511289</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>48.5480313301085</v>
+        <v>48.500170308511294</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -11409,11 +11412,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>46831.551551818688</v>
+        <v>47374.376613061482</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>46.831551551818691</v>
+        <v>47.374376613061486</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -11449,11 +11452,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>45822.473049163716</v>
+        <v>46755.893784921209</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>45.822473049163719</v>
+        <v>46.755893784921213</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -11489,11 +11492,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>45865.183115005442</v>
+        <v>46461.994248788425</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>45.865183115005443</v>
+        <v>46.461994248788429</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -11529,11 +11532,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>184787.06598281761</v>
+        <v>184888.12835828459</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>184.78706598281761</v>
+        <v>184.8881283582846</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -11569,11 +11572,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>62363.6898994445</v>
+        <v>62163.836079995686</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>62.363689899444502</v>
+        <v>62.16383607999569</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -11609,11 +11612,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>48800.031185150016</v>
+        <v>48663.886147897298</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>48.800031185150019</v>
+        <v>48.663886147897301</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -11649,11 +11652,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>47328.0134201049</v>
+        <v>47122.400838296489</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>47.328013420104902</v>
+        <v>47.122400838296493</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -11689,11 +11692,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>47470.44563293449</v>
+        <v>47313.177424829082</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>47.470445632934492</v>
+        <v>47.313177424829085</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -11729,11 +11732,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>46728.76834869368</v>
+        <v>46581.59239904167</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>46.728768348693684</v>
+        <v>46.581592399041675</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -11769,11 +11772,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>69501.665115356402</v>
+        <v>69903.942901055882</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>69.501665115356403</v>
+        <v>69.903942901055885</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -11809,11 +11812,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>59359.628438949396</v>
+        <v>59610.426741998184</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>59.3596284389494</v>
+        <v>59.610426741998182</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -11849,11 +11852,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>55490.199565887197</v>
+        <v>56318.05856839889</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>55.490199565887195</v>
+        <v>56.318058568398889</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -11889,11 +11892,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>56264.9939060209</v>
+        <v>56447.99883977649</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>56.264993906020898</v>
+        <v>56.447998839776488</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -11929,11 +11932,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>57232.923269271698</v>
+        <v>58146.210748116988</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>57.232923269271701</v>
+        <v>58.146210748116992</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -11969,11 +11972,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>57740.967273711998</v>
+        <v>58596.265155236688</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>57.740967273712002</v>
+        <v>58.596265155236686</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -12009,11 +12012,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>107184.84568595869</v>
+        <v>108116.18145124198</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>107.18484568595869</v>
+        <v>108.11618145124199</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -12049,11 +12052,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>51735.850095748843</v>
+        <v>52616.488295953328</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>51.735850095748845</v>
+        <v>52.616488295953332</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -12089,11 +12092,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>47283.551692962581</v>
+        <v>48165.051537911968</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>47.283551692962583</v>
+        <v>48.165051537911971</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -12129,11 +12132,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>47431.65445327753</v>
+        <v>48068.691808145115</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>47.431654453277531</v>
+        <v>48.068691808145118</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -12169,11 +12172,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>45985.033512115398</v>
+        <v>46214.565116326885</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>45.9850335121154</v>
+        <v>46.214565116326888</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -12209,11 +12212,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>46113.296270370367</v>
+        <v>46398.11618940116</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>46.11329627037037</v>
+        <v>46.398116189401158</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -12249,11 +12252,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>155482.83267021162</v>
+        <v>155086.76393644093</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>155.48283267021162</v>
+        <v>155.08676393644092</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -12289,11 +12292,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>52884.964227676319</v>
+        <v>52824.864703576604</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>52.884964227676321</v>
+        <v>52.824864703576608</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -12329,11 +12332,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>43937.707901000882</v>
+        <v>44566.074448983767</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>43.937707901000884</v>
+        <v>44.56607444898377</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -12369,11 +12372,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>43574.426651000875</v>
+        <v>44247.165280740359</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>43.574426651000877</v>
+        <v>44.247165280740361</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -12409,11 +12412,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>44077.377796173081</v>
+        <v>44141.58590451967</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>44.077377796173081</v>
+        <v>44.141585904519673</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -12449,11 +12452,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>44845.692396163911</v>
+        <v>44186.662513177493</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>44.845692396163912</v>
+        <v>44.186662513177495</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -12489,11 +12492,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>375965.71326255705</v>
+        <v>375906.19285718602</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>375.96571326255707</v>
+        <v>375.906192857186</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -12529,11 +12532,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>84847.905874252203</v>
+        <v>84522.126513879397</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>84.847905874252206</v>
+        <v>84.5221265138794</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -12569,11 +12572,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>55815.5820369719</v>
+        <v>55243.265468041885</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>55.815582036971904</v>
+        <v>55.243265468041884</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -12609,11 +12612,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>52733.16574096668</v>
+        <v>52566.50312558897</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>52.733165740966683</v>
+        <v>52.566503125588973</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -12649,11 +12652,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>52126.939296722281</v>
+        <v>52448.099929254066</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>52.126939296722284</v>
+        <v>52.448099929254063</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -12688,12 +12691,12 @@
         <v>21590.205907821601</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K103" si="2">SUM(E67,G67,H67)</f>
-        <v>53877.621412277134</v>
+        <f t="shared" ref="K67:K103" si="2">SUM($E$105,G67,H67)</f>
+        <v>53891.822177331531</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L103" si="3">PRODUCT(K67,0.001)</f>
-        <v>53.877621412277136</v>
+        <v>53.891822177331534</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -12729,11 +12732,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>421119.9557781216</v>
+        <v>420686.69541494106</v>
       </c>
       <c r="L68">
         <f t="shared" si="3"/>
-        <v>421.11995577812161</v>
+        <v>420.68669541494108</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -12769,11 +12772,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="2"/>
-        <v>85239.433288574204</v>
+        <v>86096.481162469485</v>
       </c>
       <c r="L69">
         <f t="shared" si="3"/>
-        <v>85.239433288574205</v>
+        <v>86.096481162469487</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -12809,11 +12812,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="2"/>
-        <v>53917.721509933421</v>
+        <v>53601.676303308108</v>
       </c>
       <c r="L70">
         <f t="shared" si="3"/>
-        <v>53.917721509933422</v>
+        <v>53.601676303308111</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -12849,11 +12852,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="2"/>
-        <v>49247.249603271368</v>
+        <v>49288.450557153265</v>
       </c>
       <c r="L71">
         <f t="shared" si="3"/>
-        <v>49.247249603271371</v>
+        <v>49.288450557153269</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -12889,11 +12892,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="2"/>
-        <v>50704.333066940279</v>
+        <v>50390.247661035173</v>
       </c>
       <c r="L72">
         <f t="shared" si="3"/>
-        <v>50.704333066940279</v>
+        <v>50.390247661035175</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -12929,11 +12932,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>51374.229669570814</v>
+        <v>51157.00729505311</v>
       </c>
       <c r="L73">
         <f t="shared" si="3"/>
-        <v>51.374229669570816</v>
+        <v>51.157007295053113</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -12969,11 +12972,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>262546.16260528518</v>
+        <v>262584.64749471401</v>
       </c>
       <c r="L74">
         <f t="shared" si="3"/>
-        <v>262.54616260528519</v>
+        <v>262.58464749471403</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -13009,11 +13012,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>68188.627719879005</v>
+        <v>67811.25410215139</v>
       </c>
       <c r="L75">
         <f t="shared" si="3"/>
-        <v>68.188627719879008</v>
+        <v>67.811254102151395</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -13049,11 +13052,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="2"/>
-        <v>49353.396892547535</v>
+        <v>49006.919700067127</v>
       </c>
       <c r="L76">
         <f t="shared" si="3"/>
-        <v>49.353396892547536</v>
+        <v>49.006919700067129</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -13089,11 +13092,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="2"/>
-        <v>45922.23238945</v>
+        <v>46543.939429681392</v>
       </c>
       <c r="L77">
         <f t="shared" si="3"/>
-        <v>45.922232389450002</v>
+        <v>46.543939429681394</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -13129,11 +13132,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="2"/>
-        <v>47726.667404174688</v>
+        <v>48597.19594136958</v>
       </c>
       <c r="L78">
         <f t="shared" si="3"/>
-        <v>47.726667404174691</v>
+        <v>48.597195941369584</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -13169,11 +13172,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="2"/>
-        <v>45443.762540817093</v>
+        <v>46245.139199655081</v>
       </c>
       <c r="L79">
         <f t="shared" si="3"/>
-        <v>45.443762540817097</v>
+        <v>46.245139199655085</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -13209,11 +13212,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="2"/>
-        <v>186117.36059188822</v>
+        <v>186025.06025449513</v>
       </c>
       <c r="L80">
         <f t="shared" si="3"/>
-        <v>186.11736059188823</v>
+        <v>186.02506025449512</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -13249,11 +13252,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>62166.291952132997</v>
+        <v>61998.116570870887</v>
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
-        <v>62.166291952133001</v>
+        <v>61.998116570870891</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -13289,11 +13292,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>49029.103517532174</v>
+        <v>48634.143191735755</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>49.029103517532178</v>
+        <v>48.634143191735753</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -13329,11 +13332,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="2"/>
-        <v>47649.396896362203</v>
+        <v>47034.132319848592</v>
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
-        <v>47.649396896362205</v>
+        <v>47.034132319848595</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -13369,11 +13372,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="2"/>
-        <v>47706.413507461417</v>
+        <v>47178.138095300208</v>
       </c>
       <c r="L84">
         <f t="shared" si="3"/>
-        <v>47.70641350746142</v>
+        <v>47.178138095300206</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -13409,11 +13412,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>46475.845575332547</v>
+        <v>46370.733577172839</v>
       </c>
       <c r="L85">
         <f t="shared" si="3"/>
-        <v>46.475845575332549</v>
+        <v>46.370733577172842</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -13449,11 +13452,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="2"/>
-        <v>74141.060829162394</v>
+        <v>74507.758933465491</v>
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
-        <v>74.141060829162399</v>
+        <v>74.507758933465496</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -13489,11 +13492,11 @@
       </c>
       <c r="K87">
         <f t="shared" si="2"/>
-        <v>54982.385396957303</v>
+        <v>55443.492251794392</v>
       </c>
       <c r="L87">
         <f t="shared" si="3"/>
-        <v>54.982385396957305</v>
+        <v>55.443492251794396</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -13529,11 +13532,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="2"/>
-        <v>54085.4628086089</v>
+        <v>54323.229867379683</v>
       </c>
       <c r="L88">
         <f t="shared" si="3"/>
-        <v>54.085462808608902</v>
+        <v>54.323229867379688</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -13569,11 +13572,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="2"/>
-        <v>56830.123662948507</v>
+        <v>56429.171878259192</v>
       </c>
       <c r="L89">
         <f t="shared" si="3"/>
-        <v>56.830123662948509</v>
+        <v>56.429171878259197</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -13609,11 +13612,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="2"/>
-        <v>57130.544185638297</v>
+        <v>58089.371997277791</v>
       </c>
       <c r="L90">
         <f t="shared" si="3"/>
-        <v>57.1305441856383</v>
+        <v>58.089371997277794</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -13649,11 +13652,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="2"/>
-        <v>57883.382320403995</v>
+        <v>58551.20523587949</v>
       </c>
       <c r="L91">
         <f t="shared" si="3"/>
-        <v>57.883382320403996</v>
+        <v>58.551205235879493</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -13689,11 +13692,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="2"/>
-        <v>108861.81402206401</v>
+        <v>109522.00897351978</v>
       </c>
       <c r="L92">
         <f t="shared" si="3"/>
-        <v>108.86181402206401</v>
+        <v>109.52200897351979</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -13729,11 +13732,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="2"/>
-        <v>52623.225212096993</v>
+        <v>53460.521537225279</v>
       </c>
       <c r="L93">
         <f t="shared" si="3"/>
-        <v>52.623225212096997</v>
+        <v>53.460521537225283</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -13769,11 +13772,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="2"/>
-        <v>47814.136505126822</v>
+        <v>48258.426505487005</v>
       </c>
       <c r="L94">
         <f t="shared" si="3"/>
-        <v>47.814136505126825</v>
+        <v>48.258426505487009</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -13809,11 +13812,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>45567.111015319693</v>
+        <v>46223.801452081272</v>
       </c>
       <c r="L95">
         <f t="shared" si="3"/>
-        <v>45.567111015319696</v>
+        <v>46.223801452081275</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -13849,11 +13852,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="2"/>
-        <v>47224.130630493077</v>
+        <v>46591.526585977168</v>
       </c>
       <c r="L96">
         <f t="shared" si="3"/>
-        <v>47.224130630493079</v>
+        <v>46.591526585977171</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -13889,11 +13892,11 @@
       </c>
       <c r="K97">
         <f t="shared" si="2"/>
-        <v>47477.331161498892</v>
+        <v>47502.927619378577</v>
       </c>
       <c r="L97">
         <f t="shared" si="3"/>
-        <v>47.477331161498896</v>
+        <v>47.502927619378575</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -13929,11 +13932,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="2"/>
-        <v>153505.54156303304</v>
+        <v>153462.60769979152</v>
       </c>
       <c r="L98">
         <f t="shared" si="3"/>
-        <v>153.50554156303303</v>
+        <v>153.46260769979153</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -13969,11 +13972,11 @@
       </c>
       <c r="K99">
         <f t="shared" si="2"/>
-        <v>55587.491512298431</v>
+        <v>55601.039010446118</v>
       </c>
       <c r="L99">
         <f t="shared" si="3"/>
-        <v>55.587491512298435</v>
+        <v>55.601039010446122</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -14009,11 +14012,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="2"/>
-        <v>44216.27807617181</v>
+        <v>43686.636287133799</v>
       </c>
       <c r="L100">
         <f t="shared" si="3"/>
-        <v>44.216278076171811</v>
+        <v>43.686636287133801</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -14049,11 +14052,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="2"/>
-        <v>42550.680875778125</v>
+        <v>42219.190198342912</v>
       </c>
       <c r="L101">
         <f t="shared" si="3"/>
-        <v>42.550680875778127</v>
+        <v>42.219190198342915</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -14089,11 +14092,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>42292.09852218625</v>
+        <v>43037.594872872942</v>
       </c>
       <c r="L102">
         <f t="shared" si="3"/>
-        <v>42.292098522186251</v>
+        <v>43.037594872872944</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -14129,11 +14132,20 @@
       </c>
       <c r="K103">
         <f t="shared" si="2"/>
-        <v>47203.23729515067</v>
+        <v>47125.144082467654</v>
       </c>
       <c r="L103">
         <f t="shared" si="3"/>
-        <v>47.203237295150672</v>
+        <v>47.125144082467656</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105">
+        <f>AVERAGE(E2:E103,'500_trees'!E2:E103,'1600_trees'!E2:E103)</f>
+        <v>32303.568440835588</v>
       </c>
     </row>
   </sheetData>
@@ -14167,10 +14179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E03253E-0D39-4936-AAA4-0033724B6785}">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78:K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14248,12 +14260,12 @@
         <v>230548.271656036</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>251352.80799865659</v>
+        <f>SUM($E$105,G2,H2)</f>
+        <v>251215.6709016962</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>251.3528079986566</v>
+        <v>251.2156709016962</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -14288,12 +14300,12 @@
         <v>65590.7533168792</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K80" si="0">SUM(E3,G3,H3)</f>
-        <v>90491.133451461588</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$105,G3,H3)</f>
+        <v>91006.47934095138</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L80" si="1">PRODUCT(K3,0.001)</f>
-        <v>90.491133451461593</v>
+        <v>91.006479340951387</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -14329,11 +14341,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>88258.592605590704</v>
+        <v>87878.132897775198</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>88.258592605590707</v>
+        <v>87.878132897775203</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -14369,11 +14381,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>87255.288362502892</v>
+        <v>86640.738088052298</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>87.255288362502895</v>
+        <v>86.640738088052302</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -14419,11 +14431,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>184706.061124801</v>
+        <v>184029.5542062922</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>184.70606112480101</v>
+        <v>184.0295542062922</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -14459,11 +14471,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>76817.608594894307</v>
+        <v>76080.558616082693</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>76.81760859489431</v>
+        <v>76.080558616082698</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -14499,11 +14511,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>71861.438035964806</v>
+        <v>71659.197884957786</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>71.86143803596481</v>
+        <v>71.659197884957791</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -14554,11 +14566,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>205335.65807342468</v>
+        <v>204732.7051939173</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>205.3356580734247</v>
+        <v>204.7327051939173</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -14594,11 +14606,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>158369.65847015288</v>
+        <v>158100.57814733189</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>158.36965847015287</v>
+        <v>158.1005781473319</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -14634,11 +14646,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>145627.87938117969</v>
+        <v>145150.57356969599</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>145.6278793811797</v>
+        <v>145.15057356969598</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -14674,11 +14686,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>143305.34243583589</v>
+        <v>144086.59012929609</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>143.30534243583588</v>
+        <v>144.0865901292961</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -14714,11 +14726,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>152647.95589446981</v>
+        <v>152656.82752744411</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>152.64795589446982</v>
+        <v>152.65682752744411</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -14754,11 +14766,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>150387.13645935021</v>
+        <v>150685.4444326566</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>150.38713645935022</v>
+        <v>150.6854444326566</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -14794,11 +14806,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>119518.52321624741</v>
+        <v>119565.2306856322</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>119.51852321624742</v>
+        <v>119.5652306856322</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -14834,11 +14846,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>57455.948114394996</v>
+        <v>57382.726985375884</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>57.455948114394999</v>
+        <v>57.382726985375882</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -14874,11 +14886,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>53451.896667480418</v>
+        <v>53154.49174062501</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>53.451896667480419</v>
+        <v>53.154491740625012</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -14914,11 +14926,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>53984.684705734151</v>
+        <v>53568.959552209439</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>53.984684705734153</v>
+        <v>53.568959552209442</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -14954,11 +14966,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>54624.42111968981</v>
+        <v>53763.059932153294</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>54.624421119689814</v>
+        <v>53.763059932153297</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -14999,11 +15011,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>161607.08069801243</v>
+        <v>161702.15852872544</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>161.60708069801242</v>
+        <v>161.70215852872545</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -15039,11 +15051,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>61105.694770812894</v>
+        <v>61743.677216928081</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>61.105694770812896</v>
+        <v>61.743677216928084</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -15079,11 +15091,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>45118.538618087667</v>
+        <v>45583.540994088762</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>45.118538618087669</v>
+        <v>45.583540994088764</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -15119,11 +15131,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>45789.994716644185</v>
+        <v>45215.932208459475</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>45.789994716644188</v>
+        <v>45.215932208459478</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -15159,11 +15171,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>46439.265012741031</v>
+        <v>45982.697564523318</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>46.439265012741032</v>
+        <v>45.98269756452332</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -15199,11 +15211,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>48275.81071853629</v>
+        <v>47606.086093347178</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>48.275810718536292</v>
+        <v>47.60608609334718</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -15239,11 +15251,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>268142.75312423677</v>
+        <v>267977.77779714338</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>268.14275312423678</v>
+        <v>267.9777777971434</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -15279,11 +15291,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>91547.536611556905</v>
+        <v>91054.701644341985</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>91.547536611556907</v>
+        <v>91.054701644341989</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -15319,11 +15331,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>87401.150465011408</v>
+        <v>87301.957923333583</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>87.401150465011412</v>
+        <v>87.301957923333589</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -15359,11 +15371,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>85755.883693694894</v>
+        <v>86128.751832406473</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>85.755883693694898</v>
+        <v>86.128751832406479</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -15409,11 +15421,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>188180.339336395</v>
+        <v>188139.492589395</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>188.18033933639501</v>
+        <v>188.13949258939499</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -15449,11 +15461,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>76728.801488876197</v>
+        <v>76344.123441140691</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>76.728801488876201</v>
+        <v>76.344123441140695</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -15489,11 +15501,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>72449.626445770104</v>
+        <v>71787.981826226693</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>72.449626445770107</v>
+        <v>71.787981826226698</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -15544,11 +15556,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>185247.31183051979</v>
+        <v>185889.06438962626</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>185.24731183051978</v>
+        <v>185.88906438962627</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -15584,11 +15596,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>155706.45451545651</v>
+        <v>155796.10736982059</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>155.70645451545653</v>
+        <v>155.79610736982059</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -15624,11 +15636,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>145073.46439361482</v>
+        <v>145395.86146489781</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>145.07346439361481</v>
+        <v>145.39586146489782</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -15664,11 +15676,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>140366.62077903739</v>
+        <v>140899.97943059687</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>140.36662077903739</v>
+        <v>140.89997943059686</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -15704,11 +15716,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>144989.853858947</v>
+        <v>145536.90989629447</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>144.98985385894699</v>
+        <v>145.53690989629447</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -15744,11 +15756,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>145794.8923110961</v>
+        <v>146214.33885709528</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>145.79489231109611</v>
+        <v>146.21433885709527</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -15784,11 +15796,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>119909.574985504</v>
+        <v>120686.21047155139</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>119.90957498550401</v>
+        <v>120.68621047155139</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -15824,11 +15836,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>56518.7549591063</v>
+        <v>57018.347579400586</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>56.518754959106303</v>
+        <v>57.01834757940059</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -15864,11 +15876,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>52944.219827651905</v>
+        <v>52967.95995847469</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>52.944219827651906</v>
+        <v>52.967959958474694</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -15904,11 +15916,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>53384.316682815523</v>
+        <v>53098.176318566912</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>53.384316682815523</v>
+        <v>53.098176318566914</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -15944,11 +15956,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>52779.498338699254</v>
+        <v>52620.731192987034</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>52.779498338699256</v>
+        <v>52.620731192987037</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -15989,11 +16001,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>157076.0350227353</v>
+        <v>156672.5498022245</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>157.07603502273531</v>
+        <v>156.67254980222449</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -16029,11 +16041,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>61904.497861862081</v>
+        <v>61875.750857751467</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>61.904497861862083</v>
+        <v>61.87575085775147</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -16069,11 +16081,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>44429.619550704905</v>
+        <v>44087.995606820688</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>44.429619550704906</v>
+        <v>44.087995606820691</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -16109,11 +16121,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>44365.172147750767</v>
+        <v>43538.127499978655</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>44.365172147750769</v>
+        <v>43.538127499978657</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -16149,11 +16161,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>43132.436513900677</v>
+        <v>43034.369307916269</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>43.132436513900679</v>
+        <v>43.034369307916272</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -16189,11 +16201,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>43240.35453796378</v>
+        <v>43598.816710870371</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>43.240354537963782</v>
+        <v>43.598816710870373</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -16229,11 +16241,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>2685956.4723968492</v>
+        <v>2685678.8712324295</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>2685.9564723968492</v>
+        <v>2685.6788712324296</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -16269,11 +16281,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>316206.54249191203</v>
+        <v>316019.73660604173</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>316.20654249191205</v>
+        <v>316.01973660604176</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -16309,11 +16321,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>77251.113414764302</v>
+        <v>77129.876452844182</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>77.251113414764305</v>
+        <v>77.129876452844186</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -16349,11 +16361,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>56933.135509490807</v>
+        <v>56565.353232781883</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>56.93313550949081</v>
+        <v>56.565353232781881</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -16389,11 +16401,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>55709.134578704601</v>
+        <v>55465.203601281588</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>55.7091345787046</v>
+        <v>55.465203601281587</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -16428,12 +16440,12 @@
         <v>22916.711091995199</v>
       </c>
       <c r="K67">
-        <f t="shared" si="0"/>
-        <v>56498.334646224903</v>
+        <f t="shared" ref="K67:K103" si="2">SUM($E$105,G67,H67)</f>
+        <v>55218.277293603489</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>56.498334646224905</v>
+        <v>55.218277293603492</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -16468,12 +16480,12 @@
         <v>2709290.5011176998</v>
       </c>
       <c r="K68">
-        <f t="shared" si="0"/>
-        <v>2742188.3225440886</v>
+        <f t="shared" si="2"/>
+        <v>2741592.0580209806</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>2742.1883225440888</v>
+        <v>2741.5920580209804</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -16508,12 +16520,12 @@
         <v>282682.777166366</v>
       </c>
       <c r="K69">
-        <f t="shared" si="0"/>
-        <v>315026.81159973057</v>
+        <f t="shared" si="2"/>
+        <v>314984.42943708104</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>315.02681159973059</v>
+        <v>314.98442943708102</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -16548,12 +16560,12 @@
         <v>43091.085195541302</v>
       </c>
       <c r="K70">
-        <f t="shared" si="0"/>
-        <v>74526.298999786202</v>
+        <f t="shared" si="2"/>
+        <v>75392.702418725486</v>
       </c>
       <c r="L70">
         <f t="shared" si="1"/>
-        <v>74.526298999786206</v>
+        <v>75.392702418725491</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -16588,12 +16600,12 @@
         <v>21385.6880664825</v>
       </c>
       <c r="K71">
-        <f t="shared" si="0"/>
-        <v>53278.7222862243</v>
+        <f t="shared" si="2"/>
+        <v>53687.308865945393</v>
       </c>
       <c r="L71">
         <f t="shared" si="1"/>
-        <v>53.278722286224301</v>
+        <v>53.687308865945397</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -16628,12 +16640,12 @@
         <v>21289.058685302702</v>
       </c>
       <c r="K72">
-        <f t="shared" si="0"/>
-        <v>53645.679712295459</v>
+        <f t="shared" si="2"/>
+        <v>53590.669948022449</v>
       </c>
       <c r="L72">
         <f t="shared" si="1"/>
-        <v>53.645679712295461</v>
+        <v>53.590669948022452</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -16668,12 +16680,12 @@
         <v>20943.4785842895</v>
       </c>
       <c r="K73">
-        <f t="shared" si="0"/>
-        <v>53417.61469840991</v>
+        <f t="shared" si="2"/>
+        <v>53245.069819848599</v>
       </c>
       <c r="L73">
         <f t="shared" si="1"/>
-        <v>53.417614698409913</v>
+        <v>53.245069819848602</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -16708,12 +16720,12 @@
         <v>254850.12674331601</v>
       </c>
       <c r="K74">
-        <f t="shared" si="0"/>
-        <v>276279.92200851411</v>
+        <f t="shared" si="2"/>
+        <v>276147.67654554121</v>
       </c>
       <c r="L74">
         <f t="shared" si="1"/>
-        <v>276.27992200851412</v>
+        <v>276.14767654554123</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -16748,12 +16760,12 @@
         <v>70100.028276443394</v>
       </c>
       <c r="K75">
-        <f t="shared" si="0"/>
-        <v>91676.445722579796</v>
+        <f t="shared" si="2"/>
+        <v>91345.20252362969</v>
       </c>
       <c r="L75">
         <f t="shared" si="1"/>
-        <v>91.6764457225798</v>
+        <v>91.345202523629695</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -16788,12 +16800,12 @@
         <v>65597.169160842896</v>
       </c>
       <c r="K76">
-        <f t="shared" si="0"/>
-        <v>87616.528034210103</v>
+        <f t="shared" si="2"/>
+        <v>86800.769168298284</v>
       </c>
       <c r="L76">
         <f t="shared" si="1"/>
-        <v>87.616528034210106</v>
+        <v>86.800769168298288</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -16828,12 +16840,12 @@
         <v>65286.664962768496</v>
       </c>
       <c r="K77">
-        <f t="shared" si="0"/>
-        <v>85861.827135085899</v>
+        <f t="shared" si="2"/>
+        <v>86201.553183953787</v>
       </c>
       <c r="L77">
         <f t="shared" si="1"/>
-        <v>85.861827135085903</v>
+        <v>86.201553183953791</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -16878,12 +16890,12 @@
         <v>167694.749116897</v>
       </c>
       <c r="K80">
-        <f t="shared" si="0"/>
-        <v>189892.6761150352</v>
+        <f t="shared" si="2"/>
+        <v>189089.70149175337</v>
       </c>
       <c r="L80">
         <f t="shared" si="1"/>
-        <v>189.89267611503519</v>
+        <v>189.08970149175337</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -16918,12 +16930,12 @@
         <v>55217.929601669297</v>
       </c>
       <c r="K81">
-        <f t="shared" ref="K81:K103" si="2">SUM(E81,G81,H81)</f>
-        <v>76688.775300979396</v>
+        <f t="shared" si="2"/>
+        <v>76556.335765283089</v>
       </c>
       <c r="L81">
         <f t="shared" ref="L81:L103" si="3">PRODUCT(K81,0.001)</f>
-        <v>76.688775300979401</v>
+        <v>76.556335765283094</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -16959,11 +16971,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>73087.726354598795</v>
+        <v>72195.126372735482</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>73.0877263545988</v>
+        <v>72.195126372735487</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -17014,11 +17026,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="2"/>
-        <v>206247.6415634146</v>
+        <v>206431.75061361</v>
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
-        <v>206.24764156341459</v>
+        <v>206.43175061361001</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -17054,11 +17066,11 @@
       </c>
       <c r="K87">
         <f t="shared" si="2"/>
-        <v>157993.14141273388</v>
+        <v>158291.33184568078</v>
       </c>
       <c r="L87">
         <f t="shared" si="3"/>
-        <v>157.99314141273388</v>
+        <v>158.29133184568079</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -17094,11 +17106,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="2"/>
-        <v>146691.92647933931</v>
+        <v>147100.50948278178</v>
       </c>
       <c r="L88">
         <f t="shared" si="3"/>
-        <v>146.69192647933932</v>
+        <v>147.10050948278177</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -17134,11 +17146,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="2"/>
-        <v>146746.67930602969</v>
+        <v>146543.41347829541</v>
       </c>
       <c r="L89">
         <f t="shared" si="3"/>
-        <v>146.74667930602971</v>
+        <v>146.54341347829541</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -17174,11 +17186,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="2"/>
-        <v>149702.20589637652</v>
+        <v>150120.23027555141</v>
       </c>
       <c r="L90">
         <f t="shared" si="3"/>
-        <v>149.70220589637651</v>
+        <v>150.12023027555142</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -17214,11 +17226,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="2"/>
-        <v>151815.9487247458</v>
+        <v>152266.73181668919</v>
       </c>
       <c r="L91">
         <f t="shared" si="3"/>
-        <v>151.81594872474579</v>
+        <v>152.2667318166892</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -17254,11 +17266,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="2"/>
-        <v>120978.07788848859</v>
+        <v>121372.8133024383</v>
       </c>
       <c r="L92">
         <f t="shared" si="3"/>
-        <v>120.9780778884886</v>
+        <v>121.3728133024383</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -17294,11 +17306,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="2"/>
-        <v>57039.595842361297</v>
+        <v>57437.844592492591</v>
       </c>
       <c r="L93">
         <f t="shared" si="3"/>
-        <v>57.039595842361301</v>
+        <v>57.437844592492596</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -17334,11 +17346,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="2"/>
-        <v>53397.627353668046</v>
+        <v>52791.416961114432</v>
       </c>
       <c r="L94">
         <f t="shared" si="3"/>
-        <v>53.397627353668049</v>
+        <v>52.791416961114436</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -17374,11 +17386,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>53220.368623733448</v>
+        <v>52516.989308755437</v>
       </c>
       <c r="L95">
         <f t="shared" si="3"/>
-        <v>53.220368623733449</v>
+        <v>52.516989308755441</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -17414,11 +17426,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="2"/>
-        <v>53407.183885574254</v>
+        <v>52792.497235696341</v>
       </c>
       <c r="L96">
         <f t="shared" si="3"/>
-        <v>53.407183885574256</v>
+        <v>52.792497235696345</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -17459,11 +17471,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="2"/>
-        <v>162036.64135932917</v>
+        <v>161922.89646283875</v>
       </c>
       <c r="L98">
         <f t="shared" si="3"/>
-        <v>162.03664135932917</v>
+        <v>161.92289646283876</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -17499,11 +17511,11 @@
       </c>
       <c r="K99">
         <f t="shared" si="2"/>
-        <v>60320.321798324498</v>
+        <v>59705.051022927786</v>
       </c>
       <c r="L99">
         <f t="shared" si="3"/>
-        <v>60.3203217983245</v>
+        <v>59.70505102292779</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -17539,11 +17551,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="2"/>
-        <v>46380.381107330308</v>
+        <v>45913.894730966196</v>
       </c>
       <c r="L100">
         <f t="shared" si="3"/>
-        <v>46.380381107330308</v>
+        <v>45.913894730966199</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -17579,11 +17591,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="2"/>
-        <v>45928.158044815013</v>
+        <v>45447.910148065203</v>
       </c>
       <c r="L101">
         <f t="shared" si="3"/>
-        <v>45.928158044815014</v>
+        <v>45.447910148065205</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -17619,11 +17631,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>46315.216779708797</v>
+        <v>46053.336697976687</v>
       </c>
       <c r="L102">
         <f t="shared" si="3"/>
-        <v>46.315216779708798</v>
+        <v>46.05333669797669</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -17659,11 +17671,20 @@
       </c>
       <c r="K103">
         <f t="shared" si="2"/>
-        <v>48093.544960021878</v>
+        <v>47476.194220941165</v>
       </c>
       <c r="L103">
         <f t="shared" si="3"/>
-        <v>48.09354496002188</v>
+        <v>47.476194220941167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105">
+        <f>'10_trees'!E105</f>
+        <v>32303.568440835588</v>
       </c>
     </row>
   </sheetData>
@@ -17697,10 +17718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05BF744-05C7-436C-91E4-82408DA3D1D3}">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96:K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17778,12 +17799,12 @@
         <v>239546.39720916699</v>
       </c>
       <c r="K2">
-        <f>SUM(E2,G2,H2)</f>
-        <v>254482.07664489732</v>
+        <f>SUM($E$105,G2,H2)</f>
+        <v>254191.23037473441</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>254.48207664489732</v>
+        <v>254.19123037473443</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -17818,12 +17839,12 @@
         <v>165036.49902343701</v>
       </c>
       <c r="K3">
-        <f>SUM(E3,G3,H3)</f>
-        <v>184997.14636802592</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$105,G3,H3)</f>
+        <v>184905.68574086839</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L91" si="0">PRODUCT(K3,0.001)</f>
-        <v>184.99714636802591</v>
+        <f t="shared" ref="L3:L91" si="1">PRODUCT(K3,0.001)</f>
+        <v>184.90568574086839</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -17858,12 +17879,12 @@
         <v>158555.198192596</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K92" si="1">SUM(E4,G4,H4)</f>
-        <v>178330.80959320031</v>
+        <f t="shared" si="0"/>
+        <v>178324.5092214749</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>178.33080959320031</v>
+        <f t="shared" si="1"/>
+        <v>178.3245092214749</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -17898,12 +17919,12 @@
         <v>158808.76493453901</v>
       </c>
       <c r="K5">
+        <f t="shared" si="0"/>
+        <v>178583.04222242086</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="1"/>
-        <v>178713.28425407369</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>178.7132842540737</v>
+        <v>178.58304222242086</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -17948,12 +17969,12 @@
         <v>162770.67875862101</v>
       </c>
       <c r="K8">
+        <f t="shared" si="0"/>
+        <v>183093.8959898155</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>183815.19865989601</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>183.815198659896</v>
+        <v>183.09389598981551</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -17988,12 +18009,12 @@
         <v>112366.970062255</v>
       </c>
       <c r="K9">
+        <f t="shared" si="0"/>
+        <v>133076.7250837493</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>132436.5928173064</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>132.4365928173064</v>
+        <v>133.0767250837493</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -18028,12 +18049,12 @@
         <v>106663.91015052699</v>
       </c>
       <c r="K10">
+        <f t="shared" si="0"/>
+        <v>127199.57955495598</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="1"/>
-        <v>127318.0851936339</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>127.31808519363391</v>
+        <v>127.19957955495599</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -18083,12 +18104,12 @@
         <v>578580.73878288199</v>
       </c>
       <c r="K14">
+        <f t="shared" si="0"/>
+        <v>580269.542056481</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="1"/>
-        <v>580944.63896751299</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>580.94463896751301</v>
+        <v>580.26954205648099</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -18123,12 +18144,12 @@
         <v>392787.50658035203</v>
       </c>
       <c r="K15">
+        <f t="shared" si="0"/>
+        <v>401936.7726625608</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="1"/>
-        <v>401977.77056694002</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>401.97777056694002</v>
+        <v>401.93677266256083</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -18163,12 +18184,12 @@
         <v>343485.116720199</v>
       </c>
       <c r="K16">
+        <f t="shared" si="0"/>
+        <v>354053.47927228658</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="1"/>
-        <v>354057.26432800252</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>354.05726432800253</v>
+        <v>354.05347927228661</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -18203,12 +18224,12 @@
         <v>345331.50982856698</v>
       </c>
       <c r="K17">
+        <f t="shared" si="0"/>
+        <v>350833.67522374826</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="1"/>
-        <v>350423.66218566836</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>350.42366218566838</v>
+        <v>350.83367522374829</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -18243,12 +18264,12 @@
         <v>354891.96133613499</v>
       </c>
       <c r="K18">
+        <f t="shared" si="0"/>
+        <v>364859.65259687102</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="1"/>
-        <v>365147.02486991783</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>365.14702486991786</v>
+        <v>364.859652596871</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -18283,12 +18304,12 @@
         <v>347964.46394920303</v>
       </c>
       <c r="K19">
+        <f t="shared" si="0"/>
+        <v>357027.28350774455</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="1"/>
-        <v>356396.47436141875</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>356.39647436141877</v>
+        <v>357.02728350774453</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -18323,12 +18344,12 @@
         <v>133443.95208358701</v>
       </c>
       <c r="K20">
+        <f t="shared" si="0"/>
+        <v>130869.30258886109</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="1"/>
-        <v>131053.35164070121</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>131.05335164070121</v>
+        <v>130.8693025888611</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -18363,12 +18384,12 @@
         <v>86816.240549087495</v>
       </c>
       <c r="K21">
+        <f t="shared" si="0"/>
+        <v>75610.659200112801</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="1"/>
-        <v>76128.954887389904</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>76.128954887389909</v>
+        <v>75.610659200112806</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -18403,12 +18424,12 @@
         <v>95505.797147750796</v>
       </c>
       <c r="K22">
+        <f t="shared" si="0"/>
+        <v>72399.943190972786</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="1"/>
-        <v>72432.852029800197</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>72.432852029800202</v>
+        <v>72.399943190972792</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -18443,12 +18464,12 @@
         <v>187336.53521537699</v>
       </c>
       <c r="K23">
+        <f t="shared" si="0"/>
+        <v>72369.791346948186</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="1"/>
-        <v>72764.304399490196</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>72.7643043994902</v>
+        <v>72.36979134694819</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -18493,12 +18514,12 @@
         <v>159535.32123565601</v>
       </c>
       <c r="K26">
+        <f t="shared" si="0"/>
+        <v>184464.74106923741</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="1"/>
-        <v>184368.63374709993</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>184.36863374709992</v>
+        <v>184.46474106923742</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -18533,12 +18554,12 @@
         <v>34365.540981292703</v>
       </c>
       <c r="K27">
+        <f t="shared" si="0"/>
+        <v>63804.502326409907</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="1"/>
-        <v>63830.584526061924</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>63.830584526061926</v>
+        <v>63.80450232640991</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -18573,12 +18594,12 @@
         <v>28558.894157409599</v>
       </c>
       <c r="K28">
+        <f t="shared" si="0"/>
+        <v>57993.60640661011</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="1"/>
-        <v>57542.337894439625</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>57.542337894439626</v>
+        <v>57.993606406610112</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -18613,12 +18634,12 @@
         <v>29049.742221832199</v>
       </c>
       <c r="K29">
+        <f t="shared" si="0"/>
+        <v>58477.742034356663</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="1"/>
-        <v>58666.169404983477</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>58.666169404983478</v>
+        <v>58.477742034356666</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -18653,12 +18674,12 @@
         <v>29913.5887622833</v>
       </c>
       <c r="K30">
+        <f t="shared" si="0"/>
+        <v>59336.269217889341</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="1"/>
-        <v>60144.439935684051</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>60.144439935684055</v>
+        <v>59.336269217889345</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -18693,12 +18714,12 @@
         <v>31841.180801391602</v>
       </c>
       <c r="K31">
+        <f t="shared" si="0"/>
+        <v>61255.60696737055</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="1"/>
-        <v>61890.54465293877</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>61.890544652938772</v>
+        <v>61.255606967370554</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -18733,12 +18754,12 @@
         <v>314056.14852905198</v>
       </c>
       <c r="K32">
+        <f t="shared" si="0"/>
+        <v>266155.06156102882</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="1"/>
-        <v>266882.96341896022</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>266.88296341896023</v>
+        <v>266.15506156102884</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -18773,12 +18794,12 @@
         <v>226867.37537384001</v>
       </c>
       <c r="K33">
+        <f t="shared" si="0"/>
+        <v>181793.31668035258</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="1"/>
-        <v>182120.86486816377</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>182.12086486816378</v>
+        <v>181.79331668035258</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -18813,12 +18834,12 @@
         <v>221914.10136222799</v>
       </c>
       <c r="K34">
+        <f t="shared" si="0"/>
+        <v>176649.30804387739</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="1"/>
-        <v>176606.73642158418</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>176.60673642158417</v>
+        <v>176.6493080438774</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -18853,12 +18874,12 @@
         <v>224602.76794433501</v>
       </c>
       <c r="K35">
+        <f t="shared" si="0"/>
+        <v>177296.38798848787</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="1"/>
-        <v>176637.19844818019</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>176.63719844818019</v>
+        <v>177.29638798848788</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -18903,12 +18924,12 @@
         <v>230593.57929229701</v>
       </c>
       <c r="K38">
+        <f t="shared" si="0"/>
+        <v>185667.18156949748</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="1"/>
-        <v>185994.662761688</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>185.99466276168801</v>
+        <v>185.66718156949747</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -18943,12 +18964,12 @@
         <v>174856.493711471</v>
       </c>
       <c r="K39">
+        <f t="shared" si="0"/>
+        <v>130738.16879407648</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="1"/>
-        <v>130909.4660282134</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>130.90946602821342</v>
+        <v>130.73816879407647</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -18983,12 +19004,12 @@
         <v>170709.65814590399</v>
       </c>
       <c r="K40">
+        <f t="shared" si="0"/>
+        <v>125799.67578069448</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="1"/>
-        <v>125552.7627468108</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>125.5527627468108</v>
+        <v>125.79967578069449</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -19038,12 +19059,12 @@
         <v>520997.73669242801</v>
       </c>
       <c r="K44">
+        <f t="shared" si="0"/>
+        <v>533115.93206540786</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="1"/>
-        <v>532561.01465225173</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>532.56101465225174</v>
+        <v>533.11593206540783</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -19078,12 +19099,12 @@
         <v>386747.41315841599</v>
       </c>
       <c r="K45">
+        <f t="shared" si="0"/>
+        <v>398366.26966611599</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="1"/>
-        <v>397553.15136909438</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>397.55315136909439</v>
+        <v>398.36626966611601</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -19118,12 +19139,12 @@
         <v>319196.13051414402</v>
       </c>
       <c r="K46">
+        <f t="shared" si="0"/>
+        <v>334136.63776532898</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="1"/>
-        <v>333567.68393516529</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>333.56768393516529</v>
+        <v>334.136637765329</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -19158,12 +19179,12 @@
         <v>316463.77110481198</v>
       </c>
       <c r="K47">
+        <f t="shared" si="0"/>
+        <v>331369.01624814741</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="1"/>
-        <v>330530.35879135114</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>330.53035879135115</v>
+        <v>331.36901624814743</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -19198,12 +19219,12 @@
         <v>324487.36715316703</v>
       </c>
       <c r="K48">
+        <f t="shared" si="0"/>
+        <v>339386.68759481126</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="1"/>
-        <v>338572.91650772019</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>338.57291650772021</v>
+        <v>339.38668759481129</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -19238,12 +19259,12 @@
         <v>323237.31780052098</v>
       </c>
       <c r="K49">
+        <f t="shared" si="0"/>
+        <v>339818.34324018192</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="1"/>
-        <v>339063.58551979007</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
-        <v>339.06358551979008</v>
+        <v>339.81834324018195</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -19278,12 +19299,12 @@
         <v>259692.99697875901</v>
       </c>
       <c r="K50">
+        <f t="shared" si="0"/>
+        <v>130403.10724393609</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="1"/>
-        <v>129904.5290946959</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="0"/>
-        <v>129.9045290946959</v>
+        <v>130.40310724393609</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -19318,12 +19339,12 @@
         <v>212043.03503036499</v>
       </c>
       <c r="K51">
+        <f t="shared" si="0"/>
+        <v>73280.472356240789</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="1"/>
-        <v>72833.636283874395</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>72.833636283874398</v>
+        <v>73.280472356240793</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -19358,12 +19379,12 @@
         <v>222543.01023483201</v>
       </c>
       <c r="K52">
+        <f t="shared" si="0"/>
+        <v>70546.929675500389</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="1"/>
-        <v>70010.224103927409</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="0"/>
-        <v>70.010224103927413</v>
+        <v>70.546929675500394</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -19398,12 +19419,12 @@
         <v>310964.67399597098</v>
       </c>
       <c r="K53">
+        <f t="shared" si="0"/>
+        <v>69340.525227944891</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="1"/>
-        <v>69724.192857742193</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="0"/>
-        <v>69.724192857742196</v>
+        <v>69.340525227944894</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -19448,12 +19469,12 @@
         <v>139517.54665374701</v>
       </c>
       <c r="K56">
+        <f t="shared" si="0"/>
+        <v>164106.27015249018</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="1"/>
-        <v>163633.87227058399</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="0"/>
-        <v>163.63387227058399</v>
+        <v>164.10627015249017</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -19488,12 +19509,12 @@
         <v>29955.364704132</v>
       </c>
       <c r="K57">
+        <f t="shared" si="0"/>
+        <v>59449.155169885205</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="1"/>
-        <v>59525.467395782318</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="0"/>
-        <v>59.525467395782321</v>
+        <v>59.449155169885209</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -19528,12 +19549,12 @@
         <v>18412.2338294982</v>
       </c>
       <c r="K58">
+        <f t="shared" si="0"/>
+        <v>47987.84382955324</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="1"/>
-        <v>48144.936561584451</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="0"/>
-        <v>48.144936561584451</v>
+        <v>47.987843829553242</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -19568,12 +19589,12 @@
         <v>17698.052883148099</v>
       </c>
       <c r="K59">
+        <f t="shared" si="0"/>
+        <v>47262.526828210459</v>
+      </c>
+      <c r="L59">
         <f t="shared" si="1"/>
-        <v>48015.802621841372</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="0"/>
-        <v>48.015802621841374</v>
+        <v>47.262526828210461</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -19608,12 +19629,12 @@
         <v>17903.647661209099</v>
       </c>
       <c r="K60">
+        <f t="shared" si="0"/>
+        <v>47387.438136499026</v>
+      </c>
+      <c r="L60">
         <f t="shared" si="1"/>
-        <v>47603.817701339642</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="0"/>
-        <v>47.603817701339644</v>
+        <v>47.387438136499028</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -19648,12 +19669,12 @@
         <v>20717.008590698199</v>
       </c>
       <c r="K61">
+        <f t="shared" si="0"/>
+        <v>50270.334083001697</v>
+      </c>
+      <c r="L61">
         <f t="shared" si="1"/>
-        <v>50672.729253768804</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="0"/>
-        <v>50.672729253768807</v>
+        <v>50.2703340830017</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -19718,12 +19739,12 @@
         <v>7708943.4971809303</v>
       </c>
       <c r="K68">
+        <f t="shared" ref="K67:K103" si="2">SUM($E$105,G68,H68)</f>
+        <v>7741245.0185598489</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="1"/>
-        <v>7740695.036888117</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="0"/>
-        <v>7740.6950368881171</v>
+        <v>7741.2450185598491</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -19758,12 +19779,12 @@
         <v>788959.96928215004</v>
       </c>
       <c r="K69">
+        <f t="shared" si="2"/>
+        <v>821261.51450292289</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="1"/>
-        <v>821691.89095497061</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="0"/>
-        <v>821.69189095497063</v>
+        <v>821.26151450292286</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -19798,12 +19819,12 @@
         <v>94629.777908325195</v>
       </c>
       <c r="K70">
+        <f t="shared" si="2"/>
+        <v>126931.32718221429</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="1"/>
-        <v>127251.6441345214</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="0"/>
-        <v>127.2516441345214</v>
+        <v>126.93132718221429</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -19838,12 +19859,12 @@
         <v>31592.154741287199</v>
       </c>
       <c r="K71">
+        <f t="shared" si="2"/>
+        <v>63893.704968850689</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="1"/>
-        <v>65354.906082153197</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="0"/>
-        <v>65.354906082153192</v>
+        <v>63.893704968850692</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -19878,12 +19899,12 @@
         <v>26760.7460021972</v>
       </c>
       <c r="K72">
+        <f t="shared" si="2"/>
+        <v>59062.306958596688</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="1"/>
-        <v>59265.196561813202</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="0"/>
-        <v>59.265196561813205</v>
+        <v>59.062306958596686</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -19918,12 +19939,12 @@
         <v>26238.908767700101</v>
       </c>
       <c r="K73">
+        <f t="shared" si="2"/>
+        <v>58540.425855081085</v>
+      </c>
+      <c r="L73">
         <f t="shared" si="1"/>
-        <v>59234.9448204039</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="0"/>
-        <v>59.234944820403904</v>
+        <v>58.540425855081082</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -19958,12 +19979,12 @@
         <v>268986.62471771199</v>
       </c>
       <c r="K74">
+        <f t="shared" si="2"/>
+        <v>270600.55955068354</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="1"/>
-        <v>271324.1124153136</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="0"/>
-        <v>271.32411241531361</v>
+        <v>270.60055955068356</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -19998,12 +20019,12 @@
         <v>179024.81222152701</v>
       </c>
       <c r="K75">
+        <f t="shared" si="2"/>
+        <v>182624.8069585959</v>
+      </c>
+      <c r="L75">
         <f t="shared" si="1"/>
-        <v>183385.06245612999</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="0"/>
-        <v>183.38506245612999</v>
+        <v>182.62480695859591</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -20038,12 +20059,12 @@
         <v>174190.36245345999</v>
       </c>
       <c r="K76">
+        <f t="shared" si="2"/>
+        <v>177775.66822187178</v>
+      </c>
+      <c r="L76">
         <f t="shared" si="1"/>
-        <v>177155.46202659578</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="0"/>
-        <v>177.15546202659579</v>
+        <v>177.77566822187177</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -20078,12 +20099,12 @@
         <v>173419.88658905</v>
       </c>
       <c r="K77">
+        <f t="shared" si="2"/>
+        <v>177048.4917940305</v>
+      </c>
+      <c r="L77">
         <f t="shared" si="1"/>
-        <v>176504.1289329525</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="0"/>
-        <v>176.50412893295251</v>
+        <v>177.0484917940305</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -20128,12 +20149,12 @@
         <v>184708.36734771699</v>
       </c>
       <c r="K80">
+        <f t="shared" si="2"/>
+        <v>188254.29137365101</v>
+      </c>
+      <c r="L80">
         <f t="shared" si="1"/>
-        <v>188780.80916404701</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="0"/>
-        <v>188.78080916404701</v>
+        <v>188.254291373651</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -20168,12 +20189,12 @@
         <v>127856.252670288</v>
       </c>
       <c r="K81">
+        <f t="shared" si="2"/>
+        <v>131267.05272809748</v>
+      </c>
+      <c r="L81">
         <f t="shared" si="1"/>
-        <v>131461.96365356431</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="0"/>
-        <v>131.46196365356431</v>
+        <v>131.26705272809747</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -20208,12 +20229,12 @@
         <v>123572.316884994</v>
       </c>
       <c r="K82">
+        <f t="shared" si="2"/>
+        <v>126886.26487867118</v>
+      </c>
+      <c r="L82">
         <f t="shared" si="1"/>
-        <v>127639.8167610167</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="0"/>
-        <v>127.6398167610167</v>
+        <v>126.88626487867118</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -20263,12 +20284,12 @@
         <v>599213.89722824097</v>
       </c>
       <c r="K86">
+        <f t="shared" si="2"/>
+        <v>610117.18519345974</v>
+      </c>
+      <c r="L86">
         <f t="shared" si="1"/>
-        <v>610371.99640274001</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="0"/>
-        <v>610.37199640274002</v>
+        <v>610.1171851934597</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -20303,12 +20324,12 @@
         <v>386308.79306793201</v>
       </c>
       <c r="K87">
+        <f t="shared" si="2"/>
+        <v>396614.27004949289</v>
+      </c>
+      <c r="L87">
         <f t="shared" si="1"/>
-        <v>396046.00763320859</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="0"/>
-        <v>396.0460076332086</v>
+        <v>396.61427004949292</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -20343,12 +20364,12 @@
         <v>336028.19609642</v>
       </c>
       <c r="K88">
+        <f t="shared" si="2"/>
+        <v>342909.54692975734</v>
+      </c>
+      <c r="L88">
         <f t="shared" si="1"/>
-        <v>342633.03995132406</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="0"/>
-        <v>342.63303995132406</v>
+        <v>342.90954692975737</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -20383,12 +20404,12 @@
         <v>320810.71853637602</v>
       </c>
       <c r="K89">
+        <f t="shared" si="2"/>
+        <v>338263.15172330616</v>
+      </c>
+      <c r="L89">
         <f t="shared" si="1"/>
-        <v>337772.59206771839</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="0"/>
-        <v>337.77259206771839</v>
+        <v>338.26315172330618</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -20423,12 +20444,12 @@
         <v>338015.92779159499</v>
       </c>
       <c r="K90">
+        <f t="shared" si="2"/>
+        <v>348196.27769605326</v>
+      </c>
+      <c r="L90">
         <f t="shared" si="1"/>
-        <v>347616.53542518528</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="0"/>
-        <v>347.6165354251853</v>
+        <v>348.19627769605324</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -20463,12 +20484,12 @@
         <v>335830.82532882597</v>
       </c>
       <c r="K91">
+        <f t="shared" si="2"/>
+        <v>346573.99447576259</v>
+      </c>
+      <c r="L91">
         <f t="shared" si="1"/>
-        <v>345979.67362403829</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="0"/>
-        <v>345.9796736240383</v>
+        <v>346.57399447576262</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -20503,12 +20524,12 @@
         <v>164773.06246757499</v>
       </c>
       <c r="K92">
-        <f t="shared" si="1"/>
-        <v>130654.30593490589</v>
+        <f t="shared" si="2"/>
+        <v>131183.74593869929</v>
       </c>
       <c r="L92">
-        <f t="shared" ref="L92:L103" si="2">PRODUCT(K92,0.001)</f>
-        <v>130.65430593490589</v>
+        <f t="shared" ref="L92:L103" si="3">PRODUCT(K92,0.001)</f>
+        <v>131.18374593869927</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -20543,12 +20564,12 @@
         <v>117511.768817901</v>
       </c>
       <c r="K93">
-        <f t="shared" ref="K93:K103" si="3">SUM(E93,G93,H93)</f>
-        <v>73312.692165374596</v>
+        <f t="shared" si="2"/>
+        <v>73400.918561379891</v>
       </c>
       <c r="L93">
-        <f t="shared" si="2"/>
-        <v>73.3126921653746</v>
+        <f t="shared" si="3"/>
+        <v>73.400918561379896</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -20583,12 +20604,12 @@
         <v>125250.150203704</v>
       </c>
       <c r="K94">
+        <f t="shared" si="2"/>
+        <v>69760.532695214686</v>
+      </c>
+      <c r="L94">
         <f t="shared" si="3"/>
-        <v>69629.256010055295</v>
-      </c>
-      <c r="L94">
-        <f t="shared" si="2"/>
-        <v>69.6292560100553</v>
+        <v>69.760532695214692</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -20623,12 +20644,12 @@
         <v>216298.45309257499</v>
       </c>
       <c r="K95">
+        <f t="shared" si="2"/>
+        <v>69309.853869836283</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="3"/>
-        <v>68829.155921935802</v>
-      </c>
-      <c r="L95">
-        <f t="shared" si="2"/>
-        <v>68.829155921935808</v>
+        <v>69.309853869836289</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -20673,12 +20694,12 @@
         <v>157134.82356071399</v>
       </c>
       <c r="K98">
+        <f t="shared" si="2"/>
+        <v>181522.86751882249</v>
+      </c>
+      <c r="L98">
         <f t="shared" si="3"/>
-        <v>181021.83413505473</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="2"/>
-        <v>181.02183413505472</v>
+        <v>181.52286751882249</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -20713,12 +20734,12 @@
         <v>33616.097688674898</v>
       </c>
       <c r="K99">
+        <f t="shared" si="2"/>
+        <v>62813.394147317449</v>
+      </c>
+      <c r="L99">
         <f t="shared" si="3"/>
-        <v>63025.802373885963</v>
-      </c>
-      <c r="L99">
-        <f t="shared" si="2"/>
-        <v>63.025802373885966</v>
+        <v>62.813394147317453</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -20753,12 +20774,12 @@
         <v>25787.0182991027</v>
       </c>
       <c r="K100">
+        <f t="shared" si="2"/>
+        <v>54939.173537652583</v>
+      </c>
+      <c r="L100">
         <f t="shared" si="3"/>
-        <v>55264.179706573399</v>
-      </c>
-      <c r="L100">
-        <f t="shared" si="2"/>
-        <v>55.264179706573401</v>
+        <v>54.939173537652586</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -20793,12 +20814,12 @@
         <v>26448.655128479</v>
       </c>
       <c r="K101">
+        <f t="shared" si="2"/>
+        <v>55698.743659417698</v>
+      </c>
+      <c r="L101">
         <f t="shared" si="3"/>
-        <v>55869.282960891614</v>
-      </c>
-      <c r="L101">
-        <f t="shared" si="2"/>
-        <v>55.869282960891617</v>
+        <v>55.698743659417701</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -20833,12 +20854,12 @@
         <v>28443.382024765</v>
       </c>
       <c r="K102">
+        <f t="shared" si="2"/>
+        <v>57695.400554101558</v>
+      </c>
+      <c r="L102">
         <f t="shared" si="3"/>
-        <v>58453.414440154978</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="2"/>
-        <v>58.45341444015498</v>
+        <v>57.69540055410156</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -20873,12 +20894,21 @@
         <v>30375.0338554382</v>
       </c>
       <c r="K103">
+        <f t="shared" si="2"/>
+        <v>59571.528750817815</v>
+      </c>
+      <c r="L103">
         <f t="shared" si="3"/>
-        <v>60051.828384399327</v>
-      </c>
-      <c r="L103">
-        <f t="shared" si="2"/>
-        <v>60.051828384399329</v>
+        <v>59.571528750817819</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105">
+        <f>'10_trees'!E105</f>
+        <v>32303.568440835588</v>
       </c>
     </row>
   </sheetData>
@@ -20914,8 +20944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20963,19 +20993,19 @@
       </c>
       <c r="B3" s="1">
         <f>MIN('10_trees'!L2:'10_trees'!L7)</f>
-        <v>46.588900089263817</v>
+        <v>46.337956744592212</v>
       </c>
       <c r="C3" s="1">
         <f>MIN('10_trees'!L8:'10_trees'!L13)</f>
-        <v>46.957735776901124</v>
+        <v>46.727786857049516</v>
       </c>
       <c r="D3" s="1">
         <f>MIN('10_trees'!L20:'10_trees'!L25)</f>
-        <v>45.945363283157256</v>
+        <v>45.942891198556445</v>
       </c>
       <c r="E3" s="1">
         <f>MIN('10_trees'!L26:'10_trees'!L31)</f>
-        <v>44.644665479660013</v>
+        <v>44.458604413430805</v>
       </c>
       <c r="H3">
         <v>60.7</v>
@@ -21006,19 +21036,19 @@
       </c>
       <c r="B4" s="1">
         <f>MIN('500_trees'!L2:'500_trees'!L7)</f>
-        <v>87.255288362502895</v>
+        <v>86.640738088052302</v>
       </c>
       <c r="C4" s="1">
         <f>MIN('500_trees'!L8:'500_trees'!L13)</f>
-        <v>71.86143803596481</v>
+        <v>71.659197884957791</v>
       </c>
       <c r="D4" s="1">
         <f>MIN('500_trees'!L20:'500_trees'!L25)</f>
-        <v>53.451896667480419</v>
+        <v>53.154491740625012</v>
       </c>
       <c r="E4" s="1">
         <f>MIN('500_trees'!L26:'500_trees'!L31)</f>
-        <v>45.118538618087669</v>
+        <v>45.215932208459478</v>
       </c>
       <c r="H4">
         <v>146.19999999999999</v>
@@ -21049,19 +21079,19 @@
       </c>
       <c r="B5" s="1">
         <f>MIN('1600_trees'!L2:'1600_trees'!L7)</f>
-        <v>178.33080959320031</v>
+        <v>178.3245092214749</v>
       </c>
       <c r="C5" s="1">
         <f>MIN('1600_trees'!L8:'1600_trees'!L13)</f>
-        <v>127.31808519363391</v>
+        <v>127.19957955495599</v>
       </c>
       <c r="D5" s="1">
         <f>MIN('1600_trees'!L20:'1600_trees'!L25)</f>
-        <v>72.432852029800202</v>
+        <v>72.36979134694819</v>
       </c>
       <c r="E5" s="1">
         <f>MIN('1600_trees'!L28:'1600_trees'!L33)</f>
-        <v>57.542337894439626</v>
+        <v>57.993606406610112</v>
       </c>
       <c r="H5">
         <v>305.5</v>
@@ -21135,24 +21165,24 @@
       </c>
       <c r="B9" s="1">
         <f>MIN('10_trees'!L32:'10_trees'!L37)</f>
-        <v>45.822473049163719</v>
+        <v>46.461994248788429</v>
       </c>
       <c r="C9" s="1">
         <f>MIN('10_trees'!L38:'10_trees'!L43)</f>
-        <v>46.728768348693684</v>
+        <v>46.581592399041675</v>
       </c>
       <c r="D9" s="1">
         <f>MIN('10_trees'!L50:'10_trees'!L55)</f>
-        <v>45.9850335121154</v>
+        <v>46.214565116326888</v>
       </c>
       <c r="E9" s="1">
         <f>MIN('10_trees'!L56:'10_trees'!L61)</f>
-        <v>43.574426651000877</v>
+        <v>44.141585904519673</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>MIN('10_trees'!L68:'10_trees'!L73)</f>
-        <v>49.247249603271371</v>
+        <v>49.288450557153269</v>
       </c>
       <c r="H9">
         <v>59.2</v>
@@ -21188,24 +21218,24 @@
       </c>
       <c r="B10" s="1">
         <f>MIN('500_trees'!L32:'500_trees'!L37)</f>
-        <v>85.755883693694898</v>
+        <v>86.128751832406479</v>
       </c>
       <c r="C10" s="1">
         <f>MIN('500_trees'!L38:'500_trees'!L43)</f>
-        <v>72.449626445770107</v>
+        <v>71.787981826226698</v>
       </c>
       <c r="D10" s="1">
         <f>MIN('500_trees'!L50:'500_trees'!L55)</f>
-        <v>52.779498338699256</v>
+        <v>52.620731192987037</v>
       </c>
       <c r="E10" s="1">
         <f>MIN('500_trees'!L56:'500_trees'!L61)</f>
-        <v>43.132436513900679</v>
+        <v>43.034369307916272</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>MIN('500_trees'!L68:'500_trees'!L73)</f>
-        <v>53.278722286224301</v>
+        <v>53.245069819848602</v>
       </c>
       <c r="H10">
         <v>137.80000000000001</v>
@@ -21241,24 +21271,24 @@
       </c>
       <c r="B11" s="1">
         <f>MIN('1600_trees'!L32:'1600_trees'!L37)</f>
-        <v>176.60673642158417</v>
+        <v>176.6493080438774</v>
       </c>
       <c r="C11" s="1">
         <f>MIN('1600_trees'!L38:'1600_trees'!L43)</f>
-        <v>125.5527627468108</v>
+        <v>125.79967578069449</v>
       </c>
       <c r="D11" s="1">
         <f>MIN('1600_trees'!L50:'1600_trees'!L55)</f>
-        <v>69.724192857742196</v>
+        <v>69.340525227944894</v>
       </c>
       <c r="E11" s="1">
         <f>MIN('1600_trees'!L56:'1600_trees'!L61)</f>
-        <v>47.603817701339644</v>
+        <v>47.262526828210461</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>MIN('1600_trees'!L68:'1600_trees'!L73)</f>
-        <v>59.234944820403904</v>
+        <v>58.540425855081082</v>
       </c>
       <c r="H11">
         <v>287.10000000000002</v>
@@ -21331,19 +21361,19 @@
       </c>
       <c r="B15" s="1">
         <f>MIN('10_trees'!L74:'10_trees'!L79)</f>
-        <v>45.443762540817097</v>
+        <v>46.245139199655085</v>
       </c>
       <c r="C15" s="1">
         <f>MIN('10_trees'!L80:'10_trees'!L85)</f>
-        <v>46.475845575332549</v>
+        <v>46.370733577172842</v>
       </c>
       <c r="D15" s="1">
         <f>MIN('10_trees'!L92:'10_trees'!L97)</f>
-        <v>45.567111015319696</v>
+        <v>46.223801452081275</v>
       </c>
       <c r="E15" s="1">
         <f>MIN('10_trees'!L98:'10_trees'!L103)</f>
-        <v>42.292098522186251</v>
+        <v>42.219190198342915</v>
       </c>
       <c r="H15">
         <v>58.8</v>
@@ -21374,19 +21404,19 @@
       </c>
       <c r="B16" s="1">
         <f>MIN('500_trees'!L74:'500_trees'!L79)</f>
-        <v>85.861827135085903</v>
+        <v>86.201553183953791</v>
       </c>
       <c r="C16" s="1">
         <f>MIN('500_trees'!L80:'500_trees'!L85)</f>
-        <v>73.0877263545988</v>
+        <v>72.195126372735487</v>
       </c>
       <c r="D16" s="1">
         <f>MIN('500_trees'!L92:'500_trees'!L97)</f>
-        <v>53.220368623733449</v>
+        <v>52.516989308755441</v>
       </c>
       <c r="E16" s="1">
         <f>MIN('500_trees'!L98:'500_trees'!L103)</f>
-        <v>45.928158044815014</v>
+        <v>45.447910148065205</v>
       </c>
       <c r="H16">
         <v>98.8</v>
@@ -21417,19 +21447,19 @@
       </c>
       <c r="B17" s="1">
         <f>MIN('1600_trees'!L74:'1600_trees'!L79)</f>
-        <v>176.50412893295251</v>
+        <v>177.0484917940305</v>
       </c>
       <c r="C17" s="1">
         <f>MIN('1600_trees'!L80:'1600_trees'!L85)</f>
-        <v>127.6398167610167</v>
+        <v>126.88626487867118</v>
       </c>
       <c r="D17" s="1">
         <f>MIN('1600_trees'!L92:'1600_trees'!L97)</f>
-        <v>68.829155921935808</v>
+        <v>69.309853869836289</v>
       </c>
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L98:'1600_trees'!L103)</f>
-        <v>55.264179706573401</v>
+        <v>54.939173537652586</v>
       </c>
       <c r="H17">
         <v>185</v>

--- a/model-inference/decisionTree/experiments/gpu_results/airline_classification/airline.xlsx
+++ b/model-inference/decisionTree/experiments/gpu_results/airline_classification/airline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\gpu_results\airline_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C612717-4F63-45AE-9F2C-600EB3DF061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7170B43-B251-4A95-BE10-5F9B345EDEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9972" yWindow="2724" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_trees" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="32">
   <si>
     <t>query size</t>
   </si>
@@ -2965,13 +2965,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.337956744592212</c:v>
+                  <c:v>45.691886198474961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.640738088052302</c:v>
+                  <c:v>86.013832104160343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>178.3245092214749</c:v>
+                  <c:v>177.74790860409905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3089,13 +3089,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.727786857049516</c:v>
+                  <c:v>45.672780525638657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.659197884957791</c:v>
+                  <c:v>70.837530624820729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127.19957955495599</c:v>
+                  <c:v>126.35456134076314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3213,13 +3213,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>45.942891198556445</c:v>
+                  <c:v>45.32993484730919</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.154491740625012</c:v>
+                  <c:v>51.95061446423729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.36979134694819</c:v>
+                  <c:v>70.646418344928733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3337,13 +3337,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44.458604413430805</c:v>
+                  <c:v>46.856030237629021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.215932208459478</c:v>
+                  <c:v>50.268746387912827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.993606406610112</c:v>
+                  <c:v>62.502924931003641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4128,13 +4128,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.461994248788429</c:v>
+                  <c:v>45.678745758487779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.128751832406479</c:v>
+                  <c:v>85.266926777317025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176.6493080438774</c:v>
+                  <c:v>175.80386472935803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4252,13 +4252,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.581592399041675</c:v>
+                  <c:v>45.810273182346421</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.787981826226698</c:v>
+                  <c:v>70.730216753437034</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.79967578069449</c:v>
+                  <c:v>124.98590422864154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4376,13 +4376,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.214565116326888</c:v>
+                  <c:v>45.296227228595811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.620731192987037</c:v>
+                  <c:v>51.314967405750359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.340525227944894</c:v>
+                  <c:v>68.40445066685875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4500,13 +4500,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44.141585904519673</c:v>
+                  <c:v>46.081135046436387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.034369307916272</c:v>
+                  <c:v>47.548322689487541</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.262526828210461</c:v>
+                  <c:v>51.893298160984116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4624,13 +4624,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>49.288450557153269</c:v>
+                  <c:v>48.552452814533311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.245069819848602</c:v>
+                  <c:v>51.796944391681748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.540425855081082</c:v>
+                  <c:v>57.784540426685339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5288,13 +5288,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.245139199655085</c:v>
+                  <c:v>45.677885067417229</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.201553183953791</c:v>
+                  <c:v>85.229115021183034</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177.0484917940305</c:v>
+                  <c:v>176.09911824460204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5412,13 +5412,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.370733577172842</c:v>
+                  <c:v>45.809458982898789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.195126372735487</c:v>
+                  <c:v>70.894587290241233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126.88626487867118</c:v>
+                  <c:v>125.11389566655355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5536,13 +5536,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>46.223801452081275</c:v>
+                  <c:v>45.291499388172227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.516989308755441</c:v>
+                  <c:v>51.362391960575188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.309853869836289</c:v>
+                  <c:v>68.489212286426536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5660,13 +5660,13 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>42.219190198342915</c:v>
+                  <c:v>46.726118814899529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.447910148065205</c:v>
+                  <c:v>49.843956005527581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.939173537652586</c:v>
+                  <c:v>59.539393198444436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10012,8 +10012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10091,12 +10091,12 @@
         <v>226307.79361724801</v>
       </c>
       <c r="K2">
-        <f>SUM($E$105,G2,H2)</f>
-        <v>250646.43152372059</v>
+        <f>SUM($E$105,G2,$H$105)</f>
+        <v>250086.18475194104</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>250.64643152372059</v>
+        <v>250.08618475194103</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -10131,12 +10131,12 @@
         <v>37441.178798675501</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM($E$105,G3,H3)</f>
-        <v>65756.842452447396</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$105,G3,$H$105)</f>
+        <v>64996.562731220241</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="1">PRODUCT(K3,0.001)</f>
-        <v>65.756842452447401</v>
+        <v>64.996562731220237</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -10172,11 +10172,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>48580.394107263157</v>
+        <v>47803.88237233361</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>48.58039410726316</v>
+        <v>47.803882372333611</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -10212,11 +10212,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>46337.956744592208</v>
+        <v>45754.253876163559</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>46.337956744592212</v>
+        <v>45.75425387616356</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -10252,11 +10252,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>46860.516387383999</v>
+        <v>45814.724457218246</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>46.860516387384003</v>
+        <v>45.814724457218247</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -10292,11 +10292,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>47673.016148965413</v>
+        <v>45691.88619847496</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>47.673016148965417</v>
+        <v>45.691886198474961</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -10332,11 +10332,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>176349.50431005241</v>
+        <v>174767.80534978103</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>176.3495043100524</v>
+        <v>174.76780534978104</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -10372,11 +10372,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>60201.814490716388</v>
+        <v>59280.053389026638</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>60.201814490716387</v>
+        <v>59.280053389026641</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -10412,11 +10412,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>47698.751527230801</v>
+        <v>46896.091711475448</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>47.698751527230804</v>
+        <v>46.896091711475449</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -10452,11 +10452,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>47398.978549401872</v>
+        <v>45967.204344226921</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>47.398978549401875</v>
+        <v>45.967204344226921</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -10492,11 +10492,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>46727.786857049512</v>
+        <v>46031.424295856559</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>46.727786857049516</v>
+        <v>46.03142429585656</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -10532,11 +10532,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>47430.650073449709</v>
+        <v>45672.780525638656</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>47.430650073449712</v>
+        <v>45.672780525638657</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -10572,11 +10572,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>71778.416234414588</v>
+        <v>70135.11158223344</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>71.778416234414593</v>
+        <v>70.135111582233435</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -10612,11 +10612,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>57198.877650659095</v>
+        <v>56383.439075901042</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>57.198877650659099</v>
+        <v>56.383439075901045</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -10652,11 +10652,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>57088.843423287894</v>
+        <v>54426.14938016134</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>57.088843423287898</v>
+        <v>54.426149380161341</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -10692,11 +10692,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>53354.193765084856</v>
+        <v>51778.414261295402</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>53.354193765084858</v>
+        <v>51.778414261295403</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -10732,11 +10732,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>56745.691615502888</v>
+        <v>56163.323175861442</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>56.745691615502892</v>
+        <v>56.163323175861443</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -10772,11 +10772,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>58146.331149499383</v>
+        <v>56968.124163105036</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>58.146331149499382</v>
+        <v>56.968124163105038</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -10812,11 +10812,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>108153.89497892148</v>
+        <v>107163.83196110923</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>108.15389497892149</v>
+        <v>107.16383196110924</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -10852,11 +10852,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>53605.579215447979</v>
+        <v>51809.890997364128</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>53.605579215447982</v>
+        <v>51.809890997364128</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -10892,11 +10892,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>48771.59555570368</v>
+        <v>46318.414223148429</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>48.771595555703684</v>
+        <v>46.31841422314843</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -10932,11 +10932,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>46190.157014291377</v>
+        <v>45427.199375583725</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>46.19015701429138</v>
+        <v>45.427199375583726</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -10972,11 +10972,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>46239.00230542905</v>
+        <v>45474.299442722397</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>46.239002305429054</v>
+        <v>45.474299442722398</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -11012,11 +11012,11 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>45942.891198556441</v>
+        <v>45329.934847309189</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>45.942891198556445</v>
+        <v>45.32993484730919</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -11052,11 +11052,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>153305.25429860756</v>
+        <v>157734.25341839902</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>153.30525429860757</v>
+        <v>157.73425341839902</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -11092,11 +11092,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>53843.633014123538</v>
+        <v>58640.451443149635</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>53.84363301412354</v>
+        <v>58.640451443149637</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -11132,11 +11132,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>45860.200244348147</v>
+        <v>47930.662405445175</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>45.86020024434815</v>
+        <v>47.930662405445176</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -11172,11 +11172,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>44458.604413430803</v>
+        <v>46856.03023762902</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>44.458604413430805</v>
+        <v>46.856030237629021</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -11212,11 +11212,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>44580.82755224</v>
+        <v>47293.021929218368</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>44.580827552240002</v>
+        <v>47.293021929218369</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -11252,11 +11252,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>46576.528865258799</v>
+        <v>48491.43553967675</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>46.576528865258801</v>
+        <v>48.49143553967675</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -11292,11 +11292,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>263398.04943219875</v>
+        <v>262816.70476193604</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>263.39804943219877</v>
+        <v>262.81670476193602</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -11332,11 +11332,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>67504.928666512991</v>
+        <v>66715.576422168742</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>67.504928666512996</v>
+        <v>66.715576422168738</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -11372,11 +11372,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>48500.170308511289</v>
+        <v>47911.05748410424</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>48.500170308511294</v>
+        <v>47.911057484104241</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -11412,11 +11412,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>47374.376613061482</v>
+        <v>45733.549129917228</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>47.374376613061486</v>
+        <v>45.733549129917229</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -11452,11 +11452,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>46755.893784921209</v>
+        <v>45802.519571735458</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>46.755893784921213</v>
+        <v>45.802519571735459</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -11492,11 +11492,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>46461.994248788425</v>
+        <v>45678.745758487777</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>46.461994248788429</v>
+        <v>45.678745758487779</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -11532,11 +11532,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>184888.12835828459</v>
+        <v>183342.21960301502</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>184.8881283582846</v>
+        <v>183.34221960301502</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -11572,11 +11572,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>62163.836079995686</v>
+        <v>60283.211958362634</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>62.16383607999569</v>
+        <v>60.283211958362635</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -11612,11 +11612,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>48663.886147897298</v>
+        <v>47637.717974140251</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>48.663886147897301</v>
+        <v>47.637717974140251</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -11652,11 +11652,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>47122.400838296489</v>
+        <v>46279.034388019638</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>47.122400838296493</v>
+        <v>46.279034388019639</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -11692,11 +11692,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>47313.177424829082</v>
+        <v>46342.472326709831</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>47.313177424829085</v>
+        <v>46.342472326709832</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -11732,11 +11732,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>46581.59239904167</v>
+        <v>45810.27318234642</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>46.581592399041675</v>
+        <v>45.810273182346421</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -11772,11 +11772,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>69903.942901055882</v>
+        <v>69186.550629093239</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>69.903942901055885</v>
+        <v>69.186550629093247</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -11812,11 +11812,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>59610.426741998184</v>
+        <v>57871.566307498935</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>59.610426741998182</v>
+        <v>57.871566307498938</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -11852,11 +11852,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>56318.05856839889</v>
+        <v>55662.70948643874</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>56.318058568398889</v>
+        <v>55.662709486438743</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -11892,11 +11892,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>56447.99883977649</v>
+        <v>55706.621897174839</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>56.447998839776488</v>
+        <v>55.706621897174841</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -11932,11 +11932,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>58146.210748116988</v>
+        <v>57557.348501636538</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>58.146210748116992</v>
+        <v>57.55734850163654</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -11972,11 +11972,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>58596.265155236688</v>
+        <v>57897.340309574138</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>58.596265155236686</v>
+        <v>57.89734030957414</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -12012,11 +12012,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>108116.18145124198</v>
+        <v>106366.62818188863</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>108.11618145124199</v>
+        <v>106.36662818188864</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -12052,11 +12052,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>52616.488295953328</v>
+        <v>51734.283220722282</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>52.616488295953332</v>
+        <v>51.734283220722283</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -12092,11 +12092,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>48165.051537911968</v>
+        <v>46233.62566228112</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>48.165051537911971</v>
+        <v>46.233625662281121</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -12132,11 +12132,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>48068.691808145115</v>
+        <v>45415.528070880966</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>48.068691808145118</v>
+        <v>45.415528070880967</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -12172,11 +12172,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>46214.565116326885</v>
+        <v>45428.565990879135</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>46.214565116326888</v>
+        <v>45.428565990879136</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -12212,11 +12212,11 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>46398.11618940116</v>
+        <v>45296.22722859581</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
-        <v>46.398116189401158</v>
+        <v>45.296227228595811</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -12252,11 +12252,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>155086.76393644093</v>
+        <v>157672.60576482004</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>155.08676393644092</v>
+        <v>157.67260576482005</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -12292,11 +12292,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>52824.864703576604</v>
+        <v>57305.710089160937</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>52.824864703576608</v>
+        <v>57.305710089160939</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -12332,11 +12332,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>44566.074448983767</v>
+        <v>47162.977468921737</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>44.56607444898377</v>
+        <v>47.162977468921738</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -12372,11 +12372,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>44247.165280740359</v>
+        <v>46389.030706836777</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>44.247165280740361</v>
+        <v>46.389030706836778</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -12412,11 +12412,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>44141.58590451967</v>
+        <v>46235.76976056298</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>44.141585904519673</v>
+        <v>46.235769760562981</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -12452,11 +12452,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>44186.662513177493</v>
+        <v>46081.135046436386</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>44.186662513177495</v>
+        <v>46.081135046436387</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -12492,11 +12492,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>375906.19285718602</v>
+        <v>375199.39399953006</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>375.906192857186</v>
+        <v>375.19939399953006</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -12532,11 +12532,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>84522.126513879397</v>
+        <v>83122.366917087638</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>84.5221265138794</v>
+        <v>83.122366917087646</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -12572,11 +12572,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>55243.265468041885</v>
+        <v>54111.310017063137</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>55.243265468041884</v>
+        <v>54.11131001706314</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -12612,11 +12612,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>52566.50312558897</v>
+        <v>50884.922039463119</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>52.566503125588973</v>
+        <v>50.88492203946312</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -12652,11 +12652,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>52448.099929254066</v>
+        <v>51734.394562198715</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>52.448099929254063</v>
+        <v>51.734394562198716</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -12691,12 +12691,12 @@
         <v>21590.205907821601</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K103" si="2">SUM($E$105,G67,H67)</f>
-        <v>53891.822177331531</v>
+        <f t="shared" ref="K67:K103" si="2">SUM($E$105,G67,$H$105)</f>
+        <v>51688.114416553581</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L103" si="3">PRODUCT(K67,0.001)</f>
-        <v>53.891822177331534</v>
+        <v>51.688114416553582</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -12732,11 +12732,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>420686.69541494106</v>
+        <v>419983.14858670405</v>
       </c>
       <c r="L68">
         <f t="shared" si="3"/>
-        <v>420.68669541494108</v>
+        <v>419.98314858670403</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -12772,11 +12772,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="2"/>
-        <v>86096.481162469485</v>
+        <v>85583.605539753029</v>
       </c>
       <c r="L69">
         <f t="shared" si="3"/>
-        <v>86.096481162469487</v>
+        <v>85.583605539753037</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -12812,11 +12812,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="2"/>
-        <v>53601.676303308108</v>
+        <v>52854.39039464196</v>
       </c>
       <c r="L70">
         <f t="shared" si="3"/>
-        <v>53.601676303308111</v>
+        <v>52.85439039464196</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -12852,11 +12852,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="2"/>
-        <v>49288.450557153265</v>
+        <v>48552.45281453331</v>
       </c>
       <c r="L71">
         <f t="shared" si="3"/>
-        <v>49.288450557153269</v>
+        <v>48.552452814533311</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -12892,11 +12892,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="2"/>
-        <v>50390.247661035173</v>
+        <v>49314.308416797721</v>
       </c>
       <c r="L72">
         <f t="shared" si="3"/>
-        <v>50.390247661035175</v>
+        <v>49.314308416797722</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -12932,11 +12932,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>51157.00729505311</v>
+        <v>49248.915922596061</v>
       </c>
       <c r="L73">
         <f t="shared" si="3"/>
-        <v>51.157007295053113</v>
+        <v>49.248915922596062</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -12972,11 +12972,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>262584.64749471401</v>
+        <v>260931.49949307603</v>
       </c>
       <c r="L74">
         <f t="shared" si="3"/>
-        <v>262.58464749471403</v>
+        <v>260.93149949307605</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -13012,11 +13012,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>67811.25410215139</v>
+        <v>66837.167036487634</v>
       </c>
       <c r="L75">
         <f t="shared" si="3"/>
-        <v>67.811254102151395</v>
+        <v>66.837167036487628</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -13052,11 +13052,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="2"/>
-        <v>49006.919700067127</v>
+        <v>47937.34313245018</v>
       </c>
       <c r="L76">
         <f t="shared" si="3"/>
-        <v>49.006919700067129</v>
+        <v>47.937343132450181</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -13092,11 +13092,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="2"/>
-        <v>46543.939429681392</v>
+        <v>45705.73521847924</v>
       </c>
       <c r="L77">
         <f t="shared" si="3"/>
-        <v>46.543939429681394</v>
+        <v>45.705735218479241</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -13132,11 +13132,11 @@
       </c>
       <c r="K78">
         <f t="shared" si="2"/>
-        <v>48597.19594136958</v>
+        <v>45794.035446598129</v>
       </c>
       <c r="L78">
         <f t="shared" si="3"/>
-        <v>48.597195941369584</v>
+        <v>45.79403544659813</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -13172,11 +13172,11 @@
       </c>
       <c r="K79">
         <f t="shared" si="2"/>
-        <v>46245.139199655081</v>
+        <v>45677.885067417228</v>
       </c>
       <c r="L79">
         <f t="shared" si="3"/>
-        <v>46.245139199655085</v>
+        <v>45.677885067417229</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -13212,11 +13212,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="2"/>
-        <v>186025.06025449513</v>
+        <v>185132.00594182205</v>
       </c>
       <c r="L80">
         <f t="shared" si="3"/>
-        <v>186.02506025449512</v>
+        <v>185.13200594182206</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -13252,11 +13252,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>61998.116570870887</v>
+        <v>60196.369659854936</v>
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
-        <v>61.998116570870891</v>
+        <v>60.196369659854938</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -13292,11 +13292,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>48634.143191735755</v>
+        <v>47729.216349079208</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>48.634143191735753</v>
+        <v>47.729216349079209</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -13332,11 +13332,11 @@
       </c>
       <c r="K83">
         <f t="shared" si="2"/>
-        <v>47034.132319848592</v>
+        <v>46316.414129688339</v>
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
-        <v>47.034132319848595</v>
+        <v>46.31641412968834</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -13372,11 +13372,11 @@
       </c>
       <c r="K84">
         <f t="shared" si="2"/>
-        <v>47178.138095300208</v>
+        <v>46373.183500721061</v>
       </c>
       <c r="L84">
         <f t="shared" si="3"/>
-        <v>47.178138095300206</v>
+        <v>46.373183500721062</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -13412,11 +13412,11 @@
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>46370.733577172839</v>
+        <v>45809.458982898788</v>
       </c>
       <c r="L85">
         <f t="shared" si="3"/>
-        <v>46.370733577172842</v>
+        <v>45.809458982898789</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -13452,11 +13452,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="2"/>
-        <v>74507.758933465491</v>
+        <v>73780.49422497944</v>
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
-        <v>74.507758933465496</v>
+        <v>73.780494224979435</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -13492,11 +13492,11 @@
       </c>
       <c r="K87">
         <f t="shared" si="2"/>
-        <v>55443.492251794392</v>
+        <v>54813.50446934894</v>
       </c>
       <c r="L87">
         <f t="shared" si="3"/>
-        <v>55.443492251794396</v>
+        <v>54.813504469348942</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -13532,11 +13532,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="2"/>
-        <v>54323.229867379683</v>
+        <v>53553.113472415935</v>
       </c>
       <c r="L88">
         <f t="shared" si="3"/>
-        <v>54.323229867379688</v>
+        <v>53.553113472415937</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -13572,11 +13572,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="2"/>
-        <v>56429.171878259192</v>
+        <v>55722.769987537438</v>
       </c>
       <c r="L89">
         <f t="shared" si="3"/>
-        <v>56.429171878259197</v>
+        <v>55.72276998753744</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -13612,11 +13612,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="2"/>
-        <v>58089.371997277791</v>
+        <v>57196.857941104936</v>
       </c>
       <c r="L90">
         <f t="shared" si="3"/>
-        <v>58.089371997277794</v>
+        <v>57.196857941104938</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -13652,11 +13652,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="2"/>
-        <v>58551.20523587949</v>
+        <v>57961.795103504235</v>
       </c>
       <c r="L91">
         <f t="shared" si="3"/>
-        <v>58.551205235879493</v>
+        <v>57.961795103504237</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -13692,11 +13692,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="2"/>
-        <v>109522.00897351978</v>
+        <v>107576.78343053053</v>
       </c>
       <c r="L92">
         <f t="shared" si="3"/>
-        <v>109.52200897351979</v>
+        <v>107.57678343053053</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -13732,11 +13732,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="2"/>
-        <v>53460.521537225279</v>
+        <v>51879.432213260727</v>
       </c>
       <c r="L93">
         <f t="shared" si="3"/>
-        <v>53.460521537225283</v>
+        <v>51.879432213260728</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -13772,11 +13772,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="2"/>
-        <v>48258.426505487005</v>
+        <v>46309.792530490959</v>
       </c>
       <c r="L94">
         <f t="shared" si="3"/>
-        <v>48.258426505487009</v>
+        <v>46.309792530490959</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -13812,11 +13812,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>46223.801452081272</v>
+        <v>45399.595510913925</v>
       </c>
       <c r="L95">
         <f t="shared" si="3"/>
-        <v>46.223801452081275</v>
+        <v>45.399595510913926</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -13852,11 +13852,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="2"/>
-        <v>46591.526585977168</v>
+        <v>45419.261467411117</v>
       </c>
       <c r="L96">
         <f t="shared" si="3"/>
-        <v>46.591526585977171</v>
+        <v>45.419261467411118</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -13892,11 +13892,11 @@
       </c>
       <c r="K97">
         <f t="shared" si="2"/>
-        <v>47502.927619378577</v>
+        <v>45291.499388172226</v>
       </c>
       <c r="L97">
         <f t="shared" si="3"/>
-        <v>47.502927619378575</v>
+        <v>45.291499388172227</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -13932,11 +13932,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="2"/>
-        <v>153462.60769979152</v>
+        <v>157781.38948674302</v>
       </c>
       <c r="L98">
         <f t="shared" si="3"/>
-        <v>153.46260769979153</v>
+        <v>157.78138948674302</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -13972,11 +13972,11 @@
       </c>
       <c r="K99">
         <f t="shared" si="2"/>
-        <v>55601.039010446118</v>
+        <v>58564.782154514338</v>
       </c>
       <c r="L99">
         <f t="shared" si="3"/>
-        <v>55.601039010446122</v>
+        <v>58.56478215451434</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -14012,11 +14012,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="2"/>
-        <v>43686.636287133799</v>
+        <v>47941.944134189689</v>
       </c>
       <c r="L100">
         <f t="shared" si="3"/>
-        <v>43.686636287133801</v>
+        <v>47.94194413418969</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -14052,11 +14052,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="2"/>
-        <v>42219.190198342912</v>
+        <v>46726.118814899528</v>
       </c>
       <c r="L101">
         <f t="shared" si="3"/>
-        <v>42.219190198342915</v>
+        <v>46.726118814899529</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -14092,11 +14092,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>43037.594872872942</v>
+        <v>47328.829538776481</v>
       </c>
       <c r="L102">
         <f t="shared" si="3"/>
-        <v>43.037594872872944</v>
+        <v>47.328829538776482</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -14132,11 +14132,11 @@
       </c>
       <c r="K103">
         <f t="shared" si="2"/>
-        <v>47125.144082467654</v>
+        <v>48505.389940692978</v>
       </c>
       <c r="L103">
         <f t="shared" si="3"/>
-        <v>47.125144082467656</v>
+        <v>48.505389940692979</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -14147,9 +14147,28 @@
         <f>AVERAGE(E2:E103,'500_trees'!E2:E103,'1600_trees'!E2:E103)</f>
         <v>32303.568440835588</v>
       </c>
+      <c r="G105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105">
+        <f>AVERAGE(H2:H103,'500_trees'!H2:H103,'1600_trees'!H2:H103)</f>
+        <v>10781.737023386448</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L103">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G103">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -14161,7 +14180,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G103">
+  <conditionalFormatting sqref="H2:H103">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -14182,7 +14201,7 @@
   <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78:K79"/>
+      <selection activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14260,12 +14279,12 @@
         <v>230548.271656036</v>
       </c>
       <c r="K2">
-        <f>SUM($E$105,G2,H2)</f>
-        <v>251215.6709016962</v>
+        <f>SUM($E$105,G2,$H$105)</f>
+        <v>249764.96602292205</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>251.2156709016962</v>
+        <v>249.76496602292204</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -14300,12 +14319,12 @@
         <v>65590.7533168792</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM($E$105,G3,H3)</f>
-        <v>91006.47934095138</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$105,G3,$H$105)</f>
+        <v>90397.432577564236</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L80" si="1">PRODUCT(K3,0.001)</f>
-        <v>91.006479340951387</v>
+        <v>90.397432577564231</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -14341,11 +14360,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>87878.132897775198</v>
+        <v>86636.430990650246</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>87.878132897775203</v>
+        <v>86.636430990650254</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -14381,11 +14400,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>86640.738088052298</v>
+        <v>86013.832104160349</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>86.640738088052302</v>
+        <v>86.013832104160343</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -14431,11 +14450,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>184029.5542062922</v>
+        <v>182900.67030186803</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>184.0295542062922</v>
+        <v>182.90067030186802</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -14471,11 +14490,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>76080.558616082693</v>
+        <v>75359.682095005031</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>76.080558616082698</v>
+        <v>75.359682095005027</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -14511,11 +14530,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>71659.197884957786</v>
+        <v>70837.530624820734</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>71.659197884957791</v>
+        <v>70.837530624820729</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -14566,11 +14585,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>204732.7051939173</v>
+        <v>203275.76543088103</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>204.7327051939173</v>
+        <v>203.27576543088102</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -14606,11 +14625,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>158100.57814733189</v>
+        <v>157388.53217358704</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>158.1005781473319</v>
+        <v>157.38853217358704</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -14646,11 +14665,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>145150.57356969599</v>
+        <v>144446.49649853903</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>145.15057356969598</v>
+        <v>144.44649649853903</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -14686,11 +14705,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>144086.59012929609</v>
+        <v>143534.88351102002</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>144.0865901292961</v>
+        <v>143.53488351102001</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -14726,11 +14745,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>152656.82752744411</v>
+        <v>152141.63829083604</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>152.65682752744411</v>
+        <v>152.14163829083606</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -14766,11 +14785,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>150685.4444326566</v>
+        <v>150142.54070515803</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>150.6854444326566</v>
+        <v>150.14254070515804</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -14806,11 +14825,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>119565.2306856322</v>
+        <v>118810.05526776504</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>119.5652306856322</v>
+        <v>118.81005526776504</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -14846,11 +14865,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>57382.726985375884</v>
+        <v>56610.724937870036</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>57.382726985375882</v>
+        <v>56.610724937870039</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -14886,11 +14905,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>53154.49174062501</v>
+        <v>52203.25137372216</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>53.154491740625012</v>
+        <v>52.203251373722161</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -14926,11 +14945,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>53568.959552209439</v>
+        <v>51950.614464237289</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>53.568959552209442</v>
+        <v>51.95061446423729</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -14966,11 +14985,11 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>53763.059932153294</v>
+        <v>52239.433300449447</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>53.763059932153297</v>
+        <v>52.239433300449448</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -15011,11 +15030,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>161702.15852872544</v>
+        <v>166820.82368130804</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>161.70215852872545</v>
+        <v>166.82082368130804</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -15051,11 +15070,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>61743.677216928081</v>
+        <v>63974.052202655839</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>61.743677216928084</v>
+        <v>63.974052202655841</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -15091,11 +15110,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>45583.540994088762</v>
+        <v>50649.086248828971</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>45.583540994088764</v>
+        <v>50.649086248828972</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -15131,11 +15150,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>45215.932208459475</v>
+        <v>50268.746387912826</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>45.215932208459478</v>
+        <v>50.268746387912827</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -15171,11 +15190,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>45982.697564523318</v>
+        <v>51013.590586139755</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>45.98269756452332</v>
+        <v>51.013590586139756</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -15211,11 +15230,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>47606.086093347178</v>
+        <v>52530.746710254745</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>47.60608609334718</v>
+        <v>52.530746710254746</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -15251,11 +15270,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>267977.77779714338</v>
+        <v>267260.03361935803</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>267.9777777971434</v>
+        <v>267.26003361935801</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -15291,11 +15310,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>91054.701644341985</v>
+        <v>90094.184648944938</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>91.054701644341989</v>
+        <v>90.094184648944946</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -15331,11 +15350,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>87301.957923333583</v>
+        <v>85829.506647541028</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>87.301957923333589</v>
+        <v>85.829506647541024</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -15371,11 +15390,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>86128.751832406473</v>
+        <v>85266.926777317029</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>86.128751832406479</v>
+        <v>85.266926777317025</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -15421,11 +15440,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>188139.492589395</v>
+        <v>186832.01147313302</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>188.13949258939499</v>
+        <v>186.83201147313304</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -15461,11 +15480,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>76344.123441140691</v>
+        <v>75448.743593647043</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>76.344123441140695</v>
+        <v>75.448743593647038</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -15501,11 +15520,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>71787.981826226693</v>
+        <v>70730.216753437038</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>71.787981826226698</v>
+        <v>70.730216753437034</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -15556,11 +15575,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>185889.06438962626</v>
+        <v>185204.386722995</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>185.88906438962627</v>
+        <v>185.204386722995</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -15596,11 +15615,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>155796.10736982059</v>
+        <v>155029.35672993804</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>155.79610736982059</v>
+        <v>155.02935672993803</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -15636,11 +15655,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>145395.86146489781</v>
+        <v>144634.38345189203</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>145.39586146489782</v>
+        <v>144.63438345189203</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -15676,11 +15695,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>140899.97943059687</v>
+        <v>140380.09930844503</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>140.89997943059686</v>
+        <v>140.38009930844504</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -15716,11 +15735,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>145536.90989629447</v>
+        <v>144949.00156254901</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>145.53690989629447</v>
+        <v>144.949001562549</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -15756,11 +15775,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>146214.33885709528</v>
+        <v>145066.17523427203</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>146.21433885709527</v>
+        <v>145.06617523427204</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -15796,11 +15815,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>120686.21047155139</v>
+        <v>119627.42592091754</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>120.68621047155139</v>
+        <v>119.62742592091755</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -15836,11 +15855,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>57018.347579400586</v>
+        <v>56105.498087360436</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>57.01834757940059</v>
+        <v>56.105498087360438</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -15876,11 +15895,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>52967.95995847469</v>
+        <v>51846.227896167838</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>52.967959958474694</v>
+        <v>51.846227896167839</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -15916,11 +15935,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>53098.176318566912</v>
+        <v>51314.967405750358</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>53.098176318566914</v>
+        <v>51.314967405750359</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -15956,11 +15975,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>52620.731192987034</v>
+        <v>51720.912468387687</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
-        <v>52.620731192987037</v>
+        <v>51.720912468387688</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -16001,11 +16020,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>156672.5498022245</v>
+        <v>160190.86242909604</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>156.67254980222449</v>
+        <v>160.19086242909606</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -16041,11 +16060,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>61875.750857751467</v>
+        <v>66582.665455295632</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>61.87575085775147</v>
+        <v>66.58266545529564</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -16081,11 +16100,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>44087.995606820688</v>
+        <v>48715.583574726188</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>44.087995606820691</v>
+        <v>48.715583574726189</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -16121,11 +16140,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>43538.127499978655</v>
+        <v>47548.322689487541</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>43.538127499978657</v>
+        <v>47.548322689487541</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -16161,11 +16180,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>43034.369307916269</v>
+        <v>47708.675157978141</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>43.034369307916272</v>
+        <v>47.708675157978142</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -16201,11 +16220,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>43598.816710870371</v>
+        <v>48045.942318393791</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>43.598816710870373</v>
+        <v>48.045942318393791</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -16241,11 +16260,11 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>2685678.8712324295</v>
+        <v>2684116.5988564021</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>2685.6788712324296</v>
+        <v>2684.1165988564021</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -16281,11 +16300,11 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>316019.73660604173</v>
+        <v>314508.39449162607</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>316.01973660604176</v>
+        <v>314.50839449162606</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -16321,11 +16340,11 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>77129.876452844182</v>
+        <v>76464.867365314538</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>77.129876452844186</v>
+        <v>76.464867365314547</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -16361,11 +16380,11 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>56565.353232781883</v>
+        <v>55563.637745334636</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
-        <v>56.565353232781881</v>
+        <v>55.563637745334638</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -16401,11 +16420,11 @@
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
-        <v>55465.203601281588</v>
+        <v>54630.090486957539</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
-        <v>55.465203601281587</v>
+        <v>54.630090486957542</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -16440,12 +16459,12 @@
         <v>22916.711091995199</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K103" si="2">SUM($E$105,G67,H67)</f>
-        <v>55218.277293603489</v>
+        <f t="shared" ref="K67:K103" si="2">SUM($E$105,G67,$H$105)</f>
+        <v>54291.311752750436</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>55.218277293603492</v>
+        <v>54.291311752750438</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -16481,11 +16500,11 @@
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>2741592.0580209806</v>
+        <v>2740741.7602657722</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>2741.5920580209804</v>
+        <v>2740.7417602657724</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -16521,11 +16540,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="2"/>
-        <v>314984.42943708104</v>
+        <v>313805.04347081302</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>314.98442943708102</v>
+        <v>313.80504347081302</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -16561,11 +16580,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="2"/>
-        <v>75392.702418725486</v>
+        <v>74791.009676410729</v>
       </c>
       <c r="L70">
         <f t="shared" si="1"/>
-        <v>75.392702418725491</v>
+        <v>74.791009676410738</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -16601,11 +16620,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="2"/>
-        <v>53687.308865945393</v>
+        <v>53156.393539859841</v>
       </c>
       <c r="L71">
         <f t="shared" si="1"/>
-        <v>53.687308865945397</v>
+        <v>53.156393539859842</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -16641,11 +16660,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="2"/>
-        <v>53590.669948022449</v>
+        <v>52182.5206398507</v>
       </c>
       <c r="L72">
         <f t="shared" si="1"/>
-        <v>53.590669948022452</v>
+        <v>52.182520639850701</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -16681,11 +16700,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>53245.069819848599</v>
+        <v>51796.944391681747</v>
       </c>
       <c r="L73">
         <f t="shared" si="1"/>
-        <v>53.245069819848602</v>
+        <v>51.796944391681748</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -16721,11 +16740,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>276147.67654554121</v>
+        <v>274857.15962643805</v>
       </c>
       <c r="L74">
         <f t="shared" si="1"/>
-        <v>276.14767654554123</v>
+        <v>274.85715962643803</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -16761,11 +16780,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>91345.20252362969</v>
+        <v>90141.263019992839</v>
       </c>
       <c r="L75">
         <f t="shared" si="1"/>
-        <v>91.345202523629695</v>
+        <v>90.141263019992834</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -16801,11 +16820,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="2"/>
-        <v>86800.769168298284</v>
+        <v>85928.87903447343</v>
       </c>
       <c r="L76">
         <f t="shared" si="1"/>
-        <v>86.800769168298288</v>
+        <v>85.928879034473425</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -16841,11 +16860,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="2"/>
-        <v>86201.553183953787</v>
+        <v>85229.115021183039</v>
       </c>
       <c r="L77">
         <f t="shared" si="1"/>
-        <v>86.201553183953791</v>
+        <v>85.229115021183034</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -16891,11 +16910,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="2"/>
-        <v>189089.70149175337</v>
+        <v>187961.93362469799</v>
       </c>
       <c r="L80">
         <f t="shared" si="1"/>
-        <v>189.08970149175337</v>
+        <v>187.96193362469799</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -16931,11 +16950,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>76556.335765283089</v>
+        <v>75501.852285816232</v>
       </c>
       <c r="L81">
         <f t="shared" ref="L81:L103" si="3">PRODUCT(K81,0.001)</f>
-        <v>76.556335765283094</v>
+        <v>75.501852285816227</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -16971,11 +16990,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>72195.126372735482</v>
+        <v>70894.587290241237</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>72.195126372735487</v>
+        <v>70.894587290241233</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -17026,11 +17045,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="2"/>
-        <v>206431.75061361</v>
+        <v>205802.90056462403</v>
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
-        <v>206.43175061361001</v>
+        <v>205.80290056462403</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -17066,11 +17085,11 @@
       </c>
       <c r="K87">
         <f t="shared" si="2"/>
-        <v>158291.33184568078</v>
+        <v>157312.66952748402</v>
       </c>
       <c r="L87">
         <f t="shared" si="3"/>
-        <v>158.29133184568079</v>
+        <v>157.31266952748402</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -17106,11 +17125,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="2"/>
-        <v>147100.50948278178</v>
+        <v>146280.800831272</v>
       </c>
       <c r="L88">
         <f t="shared" si="3"/>
-        <v>147.10050948278177</v>
+        <v>146.28080083127202</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -17146,11 +17165,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="2"/>
-        <v>146543.41347829541</v>
+        <v>144770.96534962804</v>
       </c>
       <c r="L89">
         <f t="shared" si="3"/>
-        <v>146.54341347829541</v>
+        <v>144.77096534962803</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -17186,11 +17205,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="2"/>
-        <v>150120.23027555141</v>
+        <v>149487.08678479303</v>
       </c>
       <c r="L90">
         <f t="shared" si="3"/>
-        <v>150.12023027555142</v>
+        <v>149.48708678479304</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -17226,11 +17245,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="2"/>
-        <v>152266.73181668919</v>
+        <v>151184.99137158503</v>
       </c>
       <c r="L91">
         <f t="shared" si="3"/>
-        <v>152.2667318166892</v>
+        <v>151.18499137158503</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -17266,11 +17285,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="2"/>
-        <v>121372.8133024383</v>
+        <v>120451.06459851464</v>
       </c>
       <c r="L92">
         <f t="shared" si="3"/>
-        <v>121.3728133024383</v>
+        <v>120.45106459851465</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -17306,11 +17325,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="2"/>
-        <v>57437.844592492591</v>
+        <v>56158.437263919841</v>
       </c>
       <c r="L93">
         <f t="shared" si="3"/>
-        <v>57.437844592492596</v>
+        <v>56.158437263919843</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -17346,11 +17365,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="2"/>
-        <v>52791.416961114432</v>
+        <v>51816.589367343979</v>
       </c>
       <c r="L94">
         <f t="shared" si="3"/>
-        <v>52.791416961114436</v>
+        <v>51.81658936734398</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -17386,11 +17405,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>52516.989308755437</v>
+        <v>51362.391960575187</v>
       </c>
       <c r="L95">
         <f t="shared" si="3"/>
-        <v>52.516989308755441</v>
+        <v>51.362391960575188</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -17426,11 +17445,11 @@
       </c>
       <c r="K96">
         <f t="shared" si="2"/>
-        <v>52792.497235696341</v>
+        <v>51892.88212056359</v>
       </c>
       <c r="L96">
         <f t="shared" si="3"/>
-        <v>52.792497235696345</v>
+        <v>51.892882120563591</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -17471,11 +17490,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="2"/>
-        <v>161922.89646283875</v>
+        <v>166342.70955319601</v>
       </c>
       <c r="L98">
         <f t="shared" si="3"/>
-        <v>161.92289646283876</v>
+        <v>166.34270955319602</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -17511,11 +17530,11 @@
       </c>
       <c r="K99">
         <f t="shared" si="2"/>
-        <v>59705.051022927786</v>
+        <v>64057.738316013339</v>
       </c>
       <c r="L99">
         <f t="shared" si="3"/>
-        <v>59.70505102292779</v>
+        <v>64.057738316013342</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -17551,11 +17570,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="2"/>
-        <v>45913.894730966196</v>
+        <v>50289.758694126205</v>
       </c>
       <c r="L100">
         <f t="shared" si="3"/>
-        <v>45.913894730966199</v>
+        <v>50.289758694126206</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -17591,11 +17610,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="2"/>
-        <v>45447.910148065203</v>
+        <v>49843.95600552758</v>
       </c>
       <c r="L101">
         <f t="shared" si="3"/>
-        <v>45.447910148065205</v>
+        <v>49.843956005527581</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -17631,11 +17650,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>46053.336697976687</v>
+        <v>50634.511244251327</v>
       </c>
       <c r="L102">
         <f t="shared" si="3"/>
-        <v>46.05333669797669</v>
+        <v>50.634511244251328</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -17671,11 +17690,11 @@
       </c>
       <c r="K103">
         <f t="shared" si="2"/>
-        <v>47476.194220941165</v>
+        <v>52056.792747928695</v>
       </c>
       <c r="L103">
         <f t="shared" si="3"/>
-        <v>47.476194220941167</v>
+        <v>52.056792747928696</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -17685,6 +17704,13 @@
       <c r="E105">
         <f>'10_trees'!E105</f>
         <v>32303.568440835588</v>
+      </c>
+      <c r="G105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105">
+        <f>'10_trees'!H105</f>
+        <v>10781.737023386448</v>
       </c>
     </row>
   </sheetData>
@@ -17720,8 +17746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05BF744-05C7-436C-91E4-82408DA3D1D3}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96:K97"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N111" sqref="N111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17799,12 +17825,12 @@
         <v>239546.39720916699</v>
       </c>
       <c r="K2">
-        <f>SUM($E$105,G2,H2)</f>
-        <v>254191.23037473441</v>
+        <f>SUM($E$105,G2,$H$105)</f>
+        <v>253533.69261021804</v>
       </c>
       <c r="L2">
         <f>PRODUCT(K2,0.001)</f>
-        <v>254.19123037473443</v>
+        <v>253.53369261021805</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -17839,12 +17865,12 @@
         <v>165036.49902343701</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">SUM($E$105,G3,H3)</f>
-        <v>184905.68574086839</v>
+        <f t="shared" ref="K3:K66" si="0">SUM($E$105,G3,$H$105)</f>
+        <v>183310.11153454901</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L91" si="1">PRODUCT(K3,0.001)</f>
-        <v>184.90568574086839</v>
+        <v>183.31011153454901</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -17880,11 +17906,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>178324.5092214749</v>
+        <v>177747.90860409904</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>178.3245092214749</v>
+        <v>177.74790860409905</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -17920,11 +17946,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>178583.04222242086</v>
+        <v>178079.33260197801</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>178.58304222242086</v>
+        <v>178.07933260197802</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -17970,11 +17996,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>183093.8959898155</v>
+        <v>182244.07292599804</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>183.09389598981551</v>
+        <v>182.24407292599804</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -18010,11 +18036,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>133076.7250837493</v>
+        <v>131439.49199910354</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>133.0767250837493</v>
+        <v>131.43949199910355</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -18050,11 +18076,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>127199.57955495598</v>
+        <v>126354.56134076313</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>127.19957955495599</v>
+        <v>126.35456134076314</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -18105,11 +18131,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>580269.542056481</v>
+        <v>579705.70827717893</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>580.26954205648099</v>
+        <v>579.70570827717893</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -18145,11 +18171,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>401936.7726625608</v>
+        <v>401363.51348157105</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>401.93677266256083</v>
+        <v>401.36351348157103</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -18185,11 +18211,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>354053.47927228658</v>
+        <v>353473.48262067005</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>354.05347927228661</v>
+        <v>353.47348262067004</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -18225,11 +18251,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>350833.67522374826</v>
+        <v>350095.38747067604</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>350.83367522374829</v>
+        <v>350.09538747067603</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -18265,11 +18291,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>364859.65259687102</v>
+        <v>363755.96095318906</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>364.859652596871</v>
+        <v>363.75596095318906</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -18305,11 +18331,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>357027.28350774455</v>
+        <v>356614.87270589004</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>357.02728350774453</v>
+        <v>356.61487270589004</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -18345,11 +18371,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>130869.30258886109</v>
+        <v>129860.92187161643</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>130.8693025888611</v>
+        <v>129.86092187161643</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -18385,11 +18411,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>75610.659200112801</v>
+        <v>74180.632364704143</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>75.610659200112806</v>
+        <v>74.180632364704138</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -18425,11 +18451,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>72399.943190972786</v>
+        <v>70646.418344928737</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>72.399943190972792</v>
+        <v>70.646418344928733</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -18465,11 +18491,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>72369.791346948186</v>
+        <v>71621.820461704338</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>72.36979134694819</v>
+        <v>71.621820461704345</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -18515,11 +18541,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>184464.74106923741</v>
+        <v>189486.96161503901</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>184.46474106923742</v>
+        <v>189.48696161503901</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -18555,11 +18581,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>63804.502326409907</v>
+        <v>68830.788624240929</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>63.80450232640991</v>
+        <v>68.830788624240924</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -18595,11 +18621,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>57993.60640661011</v>
+        <v>62502.924931003639</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>57.993606406610112</v>
+        <v>62.502924931003641</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -18635,11 +18661,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>58477.742034356663</v>
+        <v>63161.579620792436</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>58.477742034356666</v>
+        <v>63.161579620792438</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -18675,11 +18701,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>59336.269217889341</v>
+        <v>64371.022236301433</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>59.336269217889345</v>
+        <v>64.371022236301428</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -18715,11 +18741,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>61255.60696737055</v>
+        <v>66282.573711826335</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>61.255606967370554</v>
+        <v>66.282573711826331</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -18755,11 +18781,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>266155.06156102882</v>
+        <v>265399.27698369208</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>266.15506156102884</v>
+        <v>265.39927698369206</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -18795,11 +18821,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>181793.31668035258</v>
+        <v>180986.88102956003</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>181.79331668035258</v>
+        <v>180.98688102956004</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -18835,11 +18861,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>176649.30804387739</v>
+        <v>175803.86472935803</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>176.6493080438774</v>
+        <v>175.80386472935803</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -18875,11 +18901,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>177296.38798848787</v>
+        <v>175810.517084552</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>177.29638798848788</v>
+        <v>175.810517084552</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -18925,11 +18951,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>185667.18156949748</v>
+        <v>183960.51551099002</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>185.66718156949747</v>
+        <v>183.96051551099004</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -18965,11 +18991,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>130738.16879407648</v>
+        <v>129845.71100468833</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>130.73816879407647</v>
+        <v>129.84571100468833</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -19005,11 +19031,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>125799.67578069448</v>
+        <v>124985.90422864154</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>125.79967578069449</v>
+        <v>124.98590422864154</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -19060,11 +19086,11 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>533115.93206540786</v>
+        <v>532468.94360776106</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>533.11593206540783</v>
+        <v>532.46894360776105</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -19100,11 +19126,11 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>398366.26966611599</v>
+        <v>396653.36896176502</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>398.36626966611601</v>
+        <v>396.65336896176501</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -19140,11 +19166,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>334136.63776532898</v>
+        <v>333620.37731404504</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>334.136637765329</v>
+        <v>333.62037731404502</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -19180,11 +19206,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>331369.01624814741</v>
+        <v>330248.19303746405</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
-        <v>331.36901624814743</v>
+        <v>330.24819303746403</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -19220,11 +19246,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>339386.68759481126</v>
+        <v>338734.96891255502</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>339.38668759481129</v>
+        <v>338.73496891255502</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -19260,11 +19286,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>339818.34324018192</v>
+        <v>337777.54522557405</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>339.81834324018195</v>
+        <v>337.77754522557404</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -19300,11 +19326,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>130403.10724393609</v>
+        <v>128528.18490262223</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
-        <v>130.40310724393609</v>
+        <v>128.52818490262223</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -19340,11 +19366,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>73280.472356240789</v>
+        <v>72438.358795597131</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
-        <v>73.280472356240793</v>
+        <v>72.438358795597125</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -19380,11 +19406,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>70546.929675500389</v>
+        <v>68520.65063710403</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>70.546929675500394</v>
+        <v>68.520650637104026</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -19420,11 +19446,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>69340.525227944891</v>
+        <v>68404.450666858742</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>69.340525227944894</v>
+        <v>68.40445066685875</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -19470,11 +19496,11 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>164106.27015249018</v>
+        <v>168800.48395390701</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>164.10627015249017</v>
+        <v>168.80048395390702</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -19510,11 +19536,11 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>59449.155169885205</v>
+        <v>64158.353102161433</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>59.449155169885209</v>
+        <v>64.158353102161428</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -19550,11 +19576,11 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>47987.84382955324</v>
+        <v>52622.019541217887</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>47.987843829553242</v>
+        <v>52.622019541217888</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -19590,11 +19616,11 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>47262.526828210459</v>
+        <v>51893.298160984115</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>47.262526828210461</v>
+        <v>51.893298160984116</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -19630,11 +19656,11 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>47387.438136499026</v>
+        <v>52031.171095325546</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>47.387438136499028</v>
+        <v>52.031171095325547</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -19670,11 +19696,11 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>50270.334083001697</v>
+        <v>53775.99955792624</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>50.2703340830017</v>
+        <v>53.775999557926241</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -19739,12 +19765,12 @@
         <v>7708943.4971809303</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K67:K103" si="2">SUM($E$105,G68,H68)</f>
-        <v>7741245.0185598489</v>
+        <f t="shared" ref="K67:K103" si="2">SUM($E$105,G68,$H$105)</f>
+        <v>7740588.8633846724</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
-        <v>7741.2450185598491</v>
+        <v>7740.5888633846725</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -19780,11 +19806,11 @@
       </c>
       <c r="K69">
         <f t="shared" si="2"/>
-        <v>821261.51450292289</v>
+        <v>820816.59461255197</v>
       </c>
       <c r="L69">
         <f t="shared" si="1"/>
-        <v>821.26151450292286</v>
+        <v>820.81659461255197</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -19820,11 +19846,11 @@
       </c>
       <c r="K70">
         <f t="shared" si="2"/>
-        <v>126931.32718221429</v>
+        <v>126081.70844311913</v>
       </c>
       <c r="L70">
         <f t="shared" si="1"/>
-        <v>126.93132718221429</v>
+        <v>126.08170844311914</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -19860,11 +19886,11 @@
       </c>
       <c r="K71">
         <f t="shared" si="2"/>
-        <v>63893.704968850689</v>
+        <v>63004.46392293174</v>
       </c>
       <c r="L71">
         <f t="shared" si="1"/>
-        <v>63.893704968850692</v>
+        <v>63.004463922931741</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -19900,11 +19926,11 @@
       </c>
       <c r="K72">
         <f t="shared" si="2"/>
-        <v>59062.306958596688</v>
+        <v>58447.683823062936</v>
       </c>
       <c r="L72">
         <f t="shared" si="1"/>
-        <v>59.062306958596686</v>
+        <v>58.447683823062938</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -19940,11 +19966,11 @@
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>58540.425855081085</v>
+        <v>57784.540426685337</v>
       </c>
       <c r="L73">
         <f t="shared" si="1"/>
-        <v>58.540425855081082</v>
+        <v>57.784540426685339</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -19980,11 +20006,11 @@
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>270600.55955068354</v>
+        <v>268759.92943043908</v>
       </c>
       <c r="L74">
         <f t="shared" si="1"/>
-        <v>270.60055955068356</v>
+        <v>268.75992943043906</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -20020,11 +20046,11 @@
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>182624.8069585959</v>
+        <v>181696.81264157404</v>
       </c>
       <c r="L75">
         <f t="shared" si="1"/>
-        <v>182.62480695859591</v>
+        <v>181.69681264157404</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -20060,11 +20086,11 @@
       </c>
       <c r="K76">
         <f t="shared" si="2"/>
-        <v>177775.66822187178</v>
+        <v>176219.996225788</v>
       </c>
       <c r="L76">
         <f t="shared" si="1"/>
-        <v>177.77566822187177</v>
+        <v>176.21999622578801</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -20100,11 +20126,11 @@
       </c>
       <c r="K77">
         <f t="shared" si="2"/>
-        <v>177048.4917940305</v>
+        <v>176099.11824460202</v>
       </c>
       <c r="L77">
         <f t="shared" si="1"/>
-        <v>177.0484917940305</v>
+        <v>176.09911824460204</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -20150,11 +20176,11 @@
       </c>
       <c r="K80">
         <f t="shared" si="2"/>
-        <v>188254.29137365101</v>
+        <v>187098.87982602304</v>
       </c>
       <c r="L80">
         <f t="shared" si="1"/>
-        <v>188.254291373651</v>
+        <v>187.09887982602305</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -20190,11 +20216,11 @@
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>131267.05272809748</v>
+        <v>130285.24614567954</v>
       </c>
       <c r="L81">
         <f t="shared" si="1"/>
-        <v>131.26705272809747</v>
+        <v>130.28524614567954</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -20230,11 +20256,11 @@
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>126886.26487867118</v>
+        <v>125113.89566655354</v>
       </c>
       <c r="L82">
         <f t="shared" si="1"/>
-        <v>126.88626487867118</v>
+        <v>125.11389566655355</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -20285,11 +20311,11 @@
       </c>
       <c r="K86">
         <f t="shared" si="2"/>
-        <v>610117.18519345974</v>
+        <v>609133.466732456</v>
       </c>
       <c r="L86">
         <f t="shared" si="1"/>
-        <v>610.1171851934597</v>
+        <v>609.13346673245599</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -20325,11 +20351,11 @@
       </c>
       <c r="K87">
         <f t="shared" si="2"/>
-        <v>396614.27004949289</v>
+        <v>396060.87018246803</v>
       </c>
       <c r="L87">
         <f t="shared" si="1"/>
-        <v>396.61427004949292</v>
+        <v>396.06087018246802</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -20365,11 +20391,11 @@
       </c>
       <c r="K88">
         <f t="shared" si="2"/>
-        <v>342909.54692975734</v>
+        <v>341664.02508015803</v>
       </c>
       <c r="L88">
         <f t="shared" si="1"/>
-        <v>342.90954692975737</v>
+        <v>341.66402508015801</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -20405,11 +20431,11 @@
       </c>
       <c r="K89">
         <f t="shared" si="2"/>
-        <v>338263.15172330616</v>
+        <v>337697.92677159503</v>
       </c>
       <c r="L89">
         <f t="shared" si="1"/>
-        <v>338.26315172330618</v>
+        <v>337.69792677159501</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -20445,11 +20471,11 @@
       </c>
       <c r="K90">
         <f t="shared" si="2"/>
-        <v>348196.27769605326</v>
+        <v>347518.01396603702</v>
       </c>
       <c r="L90">
         <f t="shared" si="1"/>
-        <v>348.19627769605324</v>
+        <v>347.51801396603702</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -20485,11 +20511,11 @@
       </c>
       <c r="K91">
         <f t="shared" si="2"/>
-        <v>346573.99447576259</v>
+        <v>345894.25874943903</v>
       </c>
       <c r="L91">
         <f t="shared" si="1"/>
-        <v>346.57399447576262</v>
+        <v>345.89425874943902</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -20525,11 +20551,11 @@
       </c>
       <c r="K92">
         <f t="shared" si="2"/>
-        <v>131183.74593869929</v>
+        <v>130100.94739194114</v>
       </c>
       <c r="L92">
         <f t="shared" ref="L92:L103" si="3">PRODUCT(K92,0.001)</f>
-        <v>131.18374593869927</v>
+        <v>130.10094739194113</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -20565,11 +20591,11 @@
       </c>
       <c r="K93">
         <f t="shared" si="2"/>
-        <v>73400.918561379891</v>
+        <v>72466.474068119031</v>
       </c>
       <c r="L93">
         <f t="shared" si="3"/>
-        <v>73.400918561379896</v>
+        <v>72.466474068119027</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -20605,11 +20631,11 @@
       </c>
       <c r="K94">
         <f t="shared" si="2"/>
-        <v>69760.532695214686</v>
+        <v>68693.430197193142</v>
       </c>
       <c r="L94">
         <f t="shared" si="3"/>
-        <v>69.760532695214692</v>
+        <v>68.693430197193138</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -20645,11 +20671,11 @@
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>69309.853869836283</v>
+        <v>68489.21228642654</v>
       </c>
       <c r="L95">
         <f t="shared" si="3"/>
-        <v>69.309853869836289</v>
+        <v>68.489212286426536</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -20695,11 +20721,11 @@
       </c>
       <c r="K98">
         <f t="shared" si="2"/>
-        <v>181522.86751882249</v>
+        <v>186101.677191211</v>
       </c>
       <c r="L98">
         <f t="shared" si="3"/>
-        <v>181.52286751882249</v>
+        <v>186.101677191211</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -20735,11 +20761,11 @@
       </c>
       <c r="K99">
         <f t="shared" si="2"/>
-        <v>62813.394147317449</v>
+        <v>67432.862770511638</v>
       </c>
       <c r="L99">
         <f t="shared" si="3"/>
-        <v>62.813394147317453</v>
+        <v>67.432862770511633</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -20775,11 +20801,11 @@
       </c>
       <c r="K100">
         <f t="shared" si="2"/>
-        <v>54939.173537652583</v>
+        <v>59539.393198444435</v>
       </c>
       <c r="L100">
         <f t="shared" si="3"/>
-        <v>54.939173537652586</v>
+        <v>59.539393198444436</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -20815,11 +20841,11 @@
       </c>
       <c r="K101">
         <f t="shared" si="2"/>
-        <v>55698.743659417698</v>
+        <v>60273.612749530839</v>
       </c>
       <c r="L101">
         <f t="shared" si="3"/>
-        <v>55.698743659417701</v>
+        <v>60.273612749530841</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -20855,11 +20881,11 @@
       </c>
       <c r="K102">
         <f t="shared" si="2"/>
-        <v>57695.400554101558</v>
+        <v>62219.202768756935</v>
       </c>
       <c r="L102">
         <f t="shared" si="3"/>
-        <v>57.69540055410156</v>
+        <v>62.219202768756936</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -20895,11 +20921,11 @@
       </c>
       <c r="K103">
         <f t="shared" si="2"/>
-        <v>59571.528750817815</v>
+        <v>64040.363323642741</v>
       </c>
       <c r="L103">
         <f t="shared" si="3"/>
-        <v>59.571528750817819</v>
+        <v>64.040363323642737</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -20909,6 +20935,13 @@
       <c r="E105">
         <f>'10_trees'!E105</f>
         <v>32303.568440835588</v>
+      </c>
+      <c r="G105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105">
+        <f>'10_trees'!H105</f>
+        <v>10781.737023386448</v>
       </c>
     </row>
   </sheetData>
@@ -20944,7 +20977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C017CB98-5B48-43D2-A10D-785A512351D9}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -20993,19 +21026,19 @@
       </c>
       <c r="B3" s="1">
         <f>MIN('10_trees'!L2:'10_trees'!L7)</f>
-        <v>46.337956744592212</v>
+        <v>45.691886198474961</v>
       </c>
       <c r="C3" s="1">
         <f>MIN('10_trees'!L8:'10_trees'!L13)</f>
-        <v>46.727786857049516</v>
+        <v>45.672780525638657</v>
       </c>
       <c r="D3" s="1">
         <f>MIN('10_trees'!L20:'10_trees'!L25)</f>
-        <v>45.942891198556445</v>
+        <v>45.32993484730919</v>
       </c>
       <c r="E3" s="1">
         <f>MIN('10_trees'!L26:'10_trees'!L31)</f>
-        <v>44.458604413430805</v>
+        <v>46.856030237629021</v>
       </c>
       <c r="H3">
         <v>60.7</v>
@@ -21036,19 +21069,19 @@
       </c>
       <c r="B4" s="1">
         <f>MIN('500_trees'!L2:'500_trees'!L7)</f>
-        <v>86.640738088052302</v>
+        <v>86.013832104160343</v>
       </c>
       <c r="C4" s="1">
         <f>MIN('500_trees'!L8:'500_trees'!L13)</f>
-        <v>71.659197884957791</v>
+        <v>70.837530624820729</v>
       </c>
       <c r="D4" s="1">
         <f>MIN('500_trees'!L20:'500_trees'!L25)</f>
-        <v>53.154491740625012</v>
+        <v>51.95061446423729</v>
       </c>
       <c r="E4" s="1">
         <f>MIN('500_trees'!L26:'500_trees'!L31)</f>
-        <v>45.215932208459478</v>
+        <v>50.268746387912827</v>
       </c>
       <c r="H4">
         <v>146.19999999999999</v>
@@ -21079,19 +21112,19 @@
       </c>
       <c r="B5" s="1">
         <f>MIN('1600_trees'!L2:'1600_trees'!L7)</f>
-        <v>178.3245092214749</v>
+        <v>177.74790860409905</v>
       </c>
       <c r="C5" s="1">
         <f>MIN('1600_trees'!L8:'1600_trees'!L13)</f>
-        <v>127.19957955495599</v>
+        <v>126.35456134076314</v>
       </c>
       <c r="D5" s="1">
         <f>MIN('1600_trees'!L20:'1600_trees'!L25)</f>
-        <v>72.36979134694819</v>
+        <v>70.646418344928733</v>
       </c>
       <c r="E5" s="1">
         <f>MIN('1600_trees'!L28:'1600_trees'!L33)</f>
-        <v>57.993606406610112</v>
+        <v>62.502924931003641</v>
       </c>
       <c r="H5">
         <v>305.5</v>
@@ -21165,24 +21198,24 @@
       </c>
       <c r="B9" s="1">
         <f>MIN('10_trees'!L32:'10_trees'!L37)</f>
-        <v>46.461994248788429</v>
+        <v>45.678745758487779</v>
       </c>
       <c r="C9" s="1">
         <f>MIN('10_trees'!L38:'10_trees'!L43)</f>
-        <v>46.581592399041675</v>
+        <v>45.810273182346421</v>
       </c>
       <c r="D9" s="1">
         <f>MIN('10_trees'!L50:'10_trees'!L55)</f>
-        <v>46.214565116326888</v>
+        <v>45.296227228595811</v>
       </c>
       <c r="E9" s="1">
         <f>MIN('10_trees'!L56:'10_trees'!L61)</f>
-        <v>44.141585904519673</v>
+        <v>46.081135046436387</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
         <f>MIN('10_trees'!L68:'10_trees'!L73)</f>
-        <v>49.288450557153269</v>
+        <v>48.552452814533311</v>
       </c>
       <c r="H9">
         <v>59.2</v>
@@ -21218,24 +21251,24 @@
       </c>
       <c r="B10" s="1">
         <f>MIN('500_trees'!L32:'500_trees'!L37)</f>
-        <v>86.128751832406479</v>
+        <v>85.266926777317025</v>
       </c>
       <c r="C10" s="1">
         <f>MIN('500_trees'!L38:'500_trees'!L43)</f>
-        <v>71.787981826226698</v>
+        <v>70.730216753437034</v>
       </c>
       <c r="D10" s="1">
         <f>MIN('500_trees'!L50:'500_trees'!L55)</f>
-        <v>52.620731192987037</v>
+        <v>51.314967405750359</v>
       </c>
       <c r="E10" s="1">
         <f>MIN('500_trees'!L56:'500_trees'!L61)</f>
-        <v>43.034369307916272</v>
+        <v>47.548322689487541</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
         <f>MIN('500_trees'!L68:'500_trees'!L73)</f>
-        <v>53.245069819848602</v>
+        <v>51.796944391681748</v>
       </c>
       <c r="H10">
         <v>137.80000000000001</v>
@@ -21271,24 +21304,24 @@
       </c>
       <c r="B11" s="1">
         <f>MIN('1600_trees'!L32:'1600_trees'!L37)</f>
-        <v>176.6493080438774</v>
+        <v>175.80386472935803</v>
       </c>
       <c r="C11" s="1">
         <f>MIN('1600_trees'!L38:'1600_trees'!L43)</f>
-        <v>125.79967578069449</v>
+        <v>124.98590422864154</v>
       </c>
       <c r="D11" s="1">
         <f>MIN('1600_trees'!L50:'1600_trees'!L55)</f>
-        <v>69.340525227944894</v>
+        <v>68.40445066685875</v>
       </c>
       <c r="E11" s="1">
         <f>MIN('1600_trees'!L56:'1600_trees'!L61)</f>
-        <v>47.262526828210461</v>
+        <v>51.893298160984116</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1">
         <f>MIN('1600_trees'!L68:'1600_trees'!L73)</f>
-        <v>58.540425855081082</v>
+        <v>57.784540426685339</v>
       </c>
       <c r="H11">
         <v>287.10000000000002</v>
@@ -21361,19 +21394,19 @@
       </c>
       <c r="B15" s="1">
         <f>MIN('10_trees'!L74:'10_trees'!L79)</f>
-        <v>46.245139199655085</v>
+        <v>45.677885067417229</v>
       </c>
       <c r="C15" s="1">
         <f>MIN('10_trees'!L80:'10_trees'!L85)</f>
-        <v>46.370733577172842</v>
+        <v>45.809458982898789</v>
       </c>
       <c r="D15" s="1">
         <f>MIN('10_trees'!L92:'10_trees'!L97)</f>
-        <v>46.223801452081275</v>
+        <v>45.291499388172227</v>
       </c>
       <c r="E15" s="1">
         <f>MIN('10_trees'!L98:'10_trees'!L103)</f>
-        <v>42.219190198342915</v>
+        <v>46.726118814899529</v>
       </c>
       <c r="H15">
         <v>58.8</v>
@@ -21404,19 +21437,19 @@
       </c>
       <c r="B16" s="1">
         <f>MIN('500_trees'!L74:'500_trees'!L79)</f>
-        <v>86.201553183953791</v>
+        <v>85.229115021183034</v>
       </c>
       <c r="C16" s="1">
         <f>MIN('500_trees'!L80:'500_trees'!L85)</f>
-        <v>72.195126372735487</v>
+        <v>70.894587290241233</v>
       </c>
       <c r="D16" s="1">
         <f>MIN('500_trees'!L92:'500_trees'!L97)</f>
-        <v>52.516989308755441</v>
+        <v>51.362391960575188</v>
       </c>
       <c r="E16" s="1">
         <f>MIN('500_trees'!L98:'500_trees'!L103)</f>
-        <v>45.447910148065205</v>
+        <v>49.843956005527581</v>
       </c>
       <c r="H16">
         <v>98.8</v>
@@ -21447,19 +21480,19 @@
       </c>
       <c r="B17" s="1">
         <f>MIN('1600_trees'!L74:'1600_trees'!L79)</f>
-        <v>177.0484917940305</v>
+        <v>176.09911824460204</v>
       </c>
       <c r="C17" s="1">
         <f>MIN('1600_trees'!L80:'1600_trees'!L85)</f>
-        <v>126.88626487867118</v>
+        <v>125.11389566655355</v>
       </c>
       <c r="D17" s="1">
         <f>MIN('1600_trees'!L92:'1600_trees'!L97)</f>
-        <v>69.309853869836289</v>
+        <v>68.489212286426536</v>
       </c>
       <c r="E17" s="1">
         <f>MIN('1600_trees'!L98:'1600_trees'!L103)</f>
-        <v>54.939173537652586</v>
+        <v>59.539393198444436</v>
       </c>
       <c r="H17">
         <v>185</v>
